--- a/_docs/target_feature_map.xlsx
+++ b/_docs/target_feature_map.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7012A5BC-7429-4E44-9BF5-2E49C6C80BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C2C4B9-CC18-4B18-89CB-881C953FE286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="標的列表" sheetId="8" r:id="rId1"/>
-    <sheet name="因子列表" sheetId="10" r:id="rId2"/>
+    <sheet name="因子列表" sheetId="10" state="hidden" r:id="rId2"/>
     <sheet name="標的因子對應表" sheetId="6" r:id="rId3"/>
-    <sheet name="因子類型" sheetId="7" r:id="rId4"/>
+    <sheet name="因子類型" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -2726,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B06925-14B3-4883-8BB1-437306D8E145}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8458-97EF-4570-9CDC-4A81306BD367}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,8 +4567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A20B21-7A58-476E-A2E1-1A7FB48D904A}">
   <dimension ref="A1:G364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_docs/target_feature_map.xlsx
+++ b/_docs/target_feature_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB4FF5D-6BEA-429B-B178-2BC58C134213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9937FD-D536-4601-88C6-6FB6270E13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2458,6 +2458,1186 @@
             <v>im_2751_usd</v>
           </cell>
         </row>
+        <row r="335">
+          <cell r="A335" t="str">
+            <v>0050 TT EQUITY</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="A336" t="str">
+            <v>159901 CH EQUITY</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="A337" t="str">
+            <v>159902 CH EQUITY</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="A338" t="str">
+            <v>510880 CH EQUITY</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="A339" t="str">
+            <v>603986 CH EQUITY</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="A340" t="str">
+            <v>AAPL US EQUITY</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="A341" t="str">
+            <v>ACPA030Y INDEX</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="A342" t="str">
+            <v>ACPA090Y INDEX</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="A343" t="str">
+            <v>AEX INDEX</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="A344" t="str">
+            <v>AMD US EQUITY</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="A345" t="str">
+            <v>AMZN US EQUITY</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="A346" t="str">
+            <v>AS30 INDEX</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="A347" t="str">
+            <v>AS51 INDEX</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348" t="str">
+            <v>BDIY INDEX</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349" t="str">
+            <v>BTSYTRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="A350" t="str">
+            <v>CAD CURNCY</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="A351" t="str">
+            <v>CCMP INDEX</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="A352" t="str">
+            <v>CESICNY INDEX</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="A353" t="str">
+            <v>CESIEUR INDEX</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="A354" t="str">
+            <v>CESIGL INDEX</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="A355" t="str">
+            <v>CHF CURNCY</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="A356" t="str">
+            <v>CNH CURNCY</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="A357" t="str">
+            <v>CNY CURNCY</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="A358" t="str">
+            <v>CRY INDEX</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="A359" t="str">
+            <v>CSIH1001 INDEX</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="A360" t="str">
+            <v>DFMGI INDEX</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="A361" t="str">
+            <v>DXAG INDEX</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="A362" t="str">
+            <v>EMLCTRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="A363" t="str">
+            <v>EMUSTRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="A364" t="str">
+            <v>EUSWEA CURNCY</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="A365" t="str">
+            <v>EUSWEC CURNCY</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="A366" t="str">
+            <v>FB US EQUITY</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="A367" t="str">
+            <v>FBMKLCI INDEX</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="A368" t="str">
+            <v>GBGB10YR INDEX</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="A369" t="str">
+            <v>GBP CURNCY</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="A370" t="str">
+            <v>GBTPGR10 INDEX</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="A371" t="str">
+            <v>GDBR10 INDEX</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="A372" t="str">
+            <v>GDX US EQUITY</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="A373" t="str">
+            <v>GFRN10 INDEX</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="A374" t="str">
+            <v>GGGB10YR INDEX</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="A375" t="str">
+            <v>GIGB10YR INDEX</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="A376" t="str">
+            <v>GOOG US EQUITY</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="A377" t="str">
+            <v>GOOGL US EQUITY</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="A378" t="str">
+            <v>GSPG10YR INDEX</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="A379" t="str">
+            <v>GSPT10YR INDEX</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="A380" t="str">
+            <v>HKD CURNCY</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="A381" t="str">
+            <v>HSCCI INDEX</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="A382" t="str">
+            <v>HSCEI INDEX</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="A383" t="str">
+            <v>HSI INDEX</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="A384" t="str">
+            <v>IBOV INDEX</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="A385" t="str">
+            <v>IDR CURNCY</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="A386" t="str">
+            <v>INDU INDEX</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="A387" t="str">
+            <v>INR CURNCY</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="A388" t="str">
+            <v>INTC US EQUITY</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="A389" t="str">
+            <v>IOE1 COMB COMDTY</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="A390" t="str">
+            <v>IRCNSTCH INDEX</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="A391" t="str">
+            <v>JCI INDEX</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="A392" t="str">
+            <v>JPEIGLBL INDEX</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="A393" t="str">
+            <v>JPY CURNCY</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="A394" t="str">
+            <v>KFX INDEX</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="A395" t="str">
+            <v>KRW CURNCY</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="A396" t="str">
+            <v>LAPCOAS INDEX</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="A397" t="str">
+            <v>LAPCTRJU INDEX</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="A398" t="str">
+            <v>LAPCTRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="A399" t="str">
+            <v>LBEATREU INDEX</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="A400" t="str">
+            <v>LBUSTRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="A401" t="str">
+            <v>LECPOAS INDEX</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="A402" t="str">
+            <v>LECPTREU INDEX</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="A403" t="str">
+            <v>LEGATRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="A404" t="str">
+            <v>LF98TRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="A405" t="str">
+            <v>LG30TRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="A406" t="str">
+            <v>LG50TRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="A407" t="str">
+            <v>LGCPTRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="A408" t="str">
+            <v>LGDRTRUU INDEX</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="A409" t="str">
+            <v>LMCADS03 INDEX</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="A410" t="str">
+            <v>LP01TREU INDEX</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="A411" t="str">
+            <v>LUACOAS INDEX</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="A412" t="str">
+            <v>LUC1CY INDEX</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="A413" t="str">
+            <v>M1SO INDEX</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="A414" t="str">
+            <v>M1WD INDEX</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="A415" t="str">
+            <v>MADX INDEX</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="A416" t="str">
+            <v>MEXBOL INDEX</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="A417" t="str">
+            <v>MSAUAAPF INDEX</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="A418" t="str">
+            <v>MSAUSEA INDEX</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="A419" t="str">
+            <v>MSDUE15 INDEX</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="A420" t="str">
+            <v>MSDUJN INDEX</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="A421" t="str">
+            <v>MSDUUK INDEX</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="A422" t="str">
+            <v>MSEUEMEA INDEX</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="A423" t="str">
+            <v>MSFT US EQUITY</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="A424" t="str">
+            <v>MXAPJ INDEX</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="A425" t="str">
+            <v>MXAU INDEX</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="A426" t="str">
+            <v>MXBR INDEX</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="A427" t="str">
+            <v>MXCL INDEX</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="A428" t="str">
+            <v>MXCO INDEX</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="A429" t="str">
+            <v>MXEE INDEX</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="A430" t="str">
+            <v>MXEF INDEX</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="A431" t="str">
+            <v>MXFA INDEX</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="A432" t="str">
+            <v>MXGD INDEX</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="A433" t="str">
+            <v>MXHK INDEX</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="A434" t="str">
+            <v>MXKR INDEX</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="A435" t="str">
+            <v>MXKW INDEX</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="A436" t="str">
+            <v>MXLA INDEX</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="A437" t="str">
+            <v>MXMA INDEX</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="A438" t="str">
+            <v>MXME INDEX</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="A439" t="str">
+            <v>MXMS INDEX</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="A440" t="str">
+            <v>MXPC INDEX</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="A441" t="str">
+            <v>MXPE INDEX</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="A442" t="str">
+            <v>MXQA INDEX</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="A443" t="str">
+            <v>MXRU INDEX</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="A444" t="str">
+            <v>MXSO INDEX</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="A445" t="str">
+            <v>MXWO0CD INDEX</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="A446" t="str">
+            <v>MXWO0CS INDEX</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="A447" t="str">
+            <v>MXWO0EG INDEX</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="A448" t="str">
+            <v>MXWO0EN INDEX</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="A449" t="str">
+            <v>MXWO0FN INDEX</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="A450" t="str">
+            <v>MXWO0HC INDEX</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="A451" t="str">
+            <v>MXWO0IN INDEX</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="A452" t="str">
+            <v>MXWO0IT INDEX</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="A453" t="str">
+            <v>MXWO0ML INDEX</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="A454" t="str">
+            <v>MXWO0MT INDEX</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="A455" t="str">
+            <v>MXWO0RE INDEX</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="A456" t="str">
+            <v>MXWO0TC INDEX</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="A457" t="str">
+            <v>MXWO0UT INDEX</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="A458" t="str">
+            <v>MYR CURNCY</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="A459" t="str">
+            <v>NBI INDEX</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="A460" t="str">
+            <v>NKY INDEX</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="A461" t="str">
+            <v>NYA INDEX</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="A462" t="str">
+            <v>NZD CURNCY</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="A463" t="str">
+            <v>NZSE50FG INDEX</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="A464" t="str">
+            <v>PCOMP INDEX</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="A465" t="str">
+            <v>PL1 COMDTY</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="A466" t="str">
+            <v>PX INDEX</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="A467" t="str">
+            <v>QCOM US EQUITY</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="A468" t="str">
+            <v>QQQ US EQUITY</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="A469" t="str">
+            <v>RMZ INDEX</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="A470" t="str">
+            <v>RTSI$ INDEX</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="A471" t="str">
+            <v>RTY INDEX</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="A472" t="str">
+            <v>RUB CURNCY</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="A473" t="str">
+            <v>S5COND INDEX</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="A474" t="str">
+            <v>S5CONS INDEX</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="A475" t="str">
+            <v>S5ENRS INDEX</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="A476" t="str">
+            <v>S5FINL INDEX</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="A477" t="str">
+            <v>S5HLTH INDEX</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="A478" t="str">
+            <v>S5INDU INDEX</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="A479" t="str">
+            <v>S5INFT INDEX</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="A480" t="str">
+            <v>S5MATR INDEX</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="A481" t="str">
+            <v>S5REAL INDEX</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="A482" t="str">
+            <v>S5TELS INDEX</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="A483" t="str">
+            <v>S5UTIL INDEX</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="A484" t="str">
+            <v>SASEIDX INDEX</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="A485" t="str">
+            <v>SBWGU INDEX</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="A486" t="str">
+            <v>SENSEX INDEX</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="A487" t="str">
+            <v>SET INDEX</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="A488" t="str">
+            <v>SGD CURNCY</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="A489" t="str">
+            <v>SHCNG INDEX</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="A490" t="str">
+            <v>SHCOMM INDEX</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="A491" t="str">
+            <v>SHCOMP INDEX</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="A492" t="str">
+            <v>SHINDU INDEX</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="A493" t="str">
+            <v>SHPROP INDEX</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="A494" t="str">
+            <v>SHSZ300 INDEX</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="A495" t="str">
+            <v>SHUTIL INDEX</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="A496" t="str">
+            <v>SI1 COMDTY</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="A497" t="str">
+            <v>SI100 INDEX</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="A498" t="str">
+            <v>SMI INDEX</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="A499" t="str">
+            <v>SOX INDEX</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="A500" t="str">
+            <v>SPGSCI INDEX</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="A501" t="str">
+            <v>SPTSX INDEX</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="A502" t="str">
+            <v>SSE180 INDEX</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="A503" t="str">
+            <v>SSE50 INDEX</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="A504" t="str">
+            <v>STI INDEX</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="A505" t="str">
+            <v>SXXP INDEX</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="A506" t="str">
+            <v>SZ399006 INDEX</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="A507" t="str">
+            <v>SZ399231 INDEX</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="A508" t="str">
+            <v>SZ399232 INDEX</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="A509" t="str">
+            <v>SZ399233 INDEX</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="A510" t="str">
+            <v>SZ399234 INDEX</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="A511" t="str">
+            <v>SZ399235 INDEX</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="A512" t="str">
+            <v>SZ399236 INDEX</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="A513" t="str">
+            <v>SZ399237 INDEX</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="A514" t="str">
+            <v>SZ399238 INDEX</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="A515" t="str">
+            <v>SZ399239 INDEX</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="A516" t="str">
+            <v>SZ399240 INDEX</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="A517" t="str">
+            <v>SZ399241 INDEX</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="A518" t="str">
+            <v>SZ399242 INDEX</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="A519" t="str">
+            <v>SZ399243 INDEX</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="A520" t="str">
+            <v>SZ399244 INDEX</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="A521" t="str">
+            <v>SZ399248 INDEX</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="A522" t="str">
+            <v>SZ399249 INDEX</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="A523" t="str">
+            <v>SZ399311 INDEX</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="A524" t="str">
+            <v>SZ399313 INDEX</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="A525" t="str">
+            <v>SZ399913 INDEX</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="A526" t="str">
+            <v>SZ399914 INDEX</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="A527" t="str">
+            <v>SZCOMP INDEX</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="A528" t="str">
+            <v>T US EQUITY</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="A529" t="str">
+            <v>THB CURNCY</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="A530" t="str">
+            <v>TIO1 COMDTY</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="A531" t="str">
+            <v>TLT US EQUITY</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="A532" t="str">
+            <v>TOP40 INDEX</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="A533" t="str">
+            <v>TRY CURNCY</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="A534" t="str">
+            <v>TSE2 INDEX</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="A535" t="str">
+            <v>TWD CURNCY</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="A536" t="str">
+            <v>TWSE INDEX</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="A537" t="str">
+            <v>TWSEAUTO INDEX</v>
+          </cell>
+        </row>
+        <row r="538">
+          <cell r="A538" t="str">
+            <v>TWSEBKI INDEX</v>
+          </cell>
+        </row>
+        <row r="539">
+          <cell r="A539" t="str">
+            <v>TWSEBMC INDEX</v>
+          </cell>
+        </row>
+        <row r="540">
+          <cell r="A540" t="str">
+            <v>TWSECEM INDEX</v>
+          </cell>
+        </row>
+        <row r="541">
+          <cell r="A541" t="str">
+            <v>TWSECHI INDEX</v>
+          </cell>
+        </row>
+        <row r="542">
+          <cell r="A542" t="str">
+            <v>TWSECII INDEX</v>
+          </cell>
+        </row>
+        <row r="543">
+          <cell r="A543" t="str">
+            <v>TWSECON INDEX</v>
+          </cell>
+        </row>
+        <row r="544">
+          <cell r="A544" t="str">
+            <v>TWSEDEPT INDEX</v>
+          </cell>
+        </row>
+        <row r="545">
+          <cell r="A545" t="str">
+            <v>TWSEEAW INDEX</v>
+          </cell>
+        </row>
+        <row r="546">
+          <cell r="A546" t="str">
+            <v>TWSEFOOD INDEX</v>
+          </cell>
+        </row>
+        <row r="547">
+          <cell r="A547" t="str">
+            <v>TWSEGLP INDEX</v>
+          </cell>
+        </row>
+        <row r="548">
+          <cell r="A548" t="str">
+            <v>TWSEISI INDEX</v>
+          </cell>
+        </row>
+        <row r="549">
+          <cell r="A549" t="str">
+            <v>TWSEOEG INDEX</v>
+          </cell>
+        </row>
+        <row r="550">
+          <cell r="A550" t="str">
+            <v>TWSEOPE INDEX</v>
+          </cell>
+        </row>
+        <row r="551">
+          <cell r="A551" t="str">
+            <v>TWSEOTHR INDEX</v>
+          </cell>
+        </row>
+        <row r="552">
+          <cell r="A552" t="str">
+            <v>TWSEPLAS INDEX</v>
+          </cell>
+        </row>
+        <row r="553">
+          <cell r="A553" t="str">
+            <v>TWSEPP INDEX</v>
+          </cell>
+        </row>
+        <row r="554">
+          <cell r="A554" t="str">
+            <v>TWSERUB INDEX</v>
+          </cell>
+        </row>
+        <row r="555">
+          <cell r="A555" t="str">
+            <v>TWSESTEE INDEX</v>
+          </cell>
+        </row>
+        <row r="556">
+          <cell r="A556" t="str">
+            <v>TWSETEXT INDEX</v>
+          </cell>
+        </row>
+        <row r="557">
+          <cell r="A557" t="str">
+            <v>TWSETOUR INDEX</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="A558" t="str">
+            <v>TWSETRAN INDEX</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="A559" t="str">
+            <v>US0001M INDEX</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="A560" t="str">
+            <v>US0003M INDEX</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="A561" t="str">
+            <v>USGG30YR INDEX</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="A562" t="str">
+            <v>USO US EQUITY</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="A563" t="str">
+            <v>USSOA CURNCY</v>
+          </cell>
+        </row>
+        <row r="564">
+          <cell r="A564" t="str">
+            <v>USSOC CURNCY</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="A565" t="str">
+            <v>UTIL INDEX</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="A566" t="str">
+            <v>WIG INDEX</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="A567" t="str">
+            <v>WMT US EQUITY</v>
+          </cell>
+        </row>
+        <row r="568">
+          <cell r="A568" t="str">
+            <v>XBT CURNCY</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="A569" t="str">
+            <v>XU100 INDEX</v>
+          </cell>
+        </row>
+        <row r="570">
+          <cell r="A570" t="str">
+            <v>ZAR CURNCY</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -2918,7 +4098,7 @@
       </c>
       <c r="C2" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A2,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>46</v>
@@ -2935,7 +4115,7 @@
       </c>
       <c r="C3" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A3,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>46</v>
@@ -2952,7 +4132,7 @@
       </c>
       <c r="C4" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A4,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>46</v>
@@ -2969,7 +4149,7 @@
       </c>
       <c r="C5" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A5,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>46</v>
@@ -2986,7 +4166,7 @@
       </c>
       <c r="C6" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A6,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>46</v>
@@ -3002,7 +4182,7 @@
       </c>
       <c r="C7" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A7,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>46</v>
@@ -3018,7 +4198,7 @@
       </c>
       <c r="C8" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A8,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>47</v>
@@ -3034,7 +4214,7 @@
       </c>
       <c r="C9" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A9,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>47</v>
@@ -3050,7 +4230,7 @@
       </c>
       <c r="C10" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A10,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>47</v>
@@ -3066,7 +4246,7 @@
       </c>
       <c r="C11" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A11,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>47</v>
@@ -3082,7 +4262,7 @@
       </c>
       <c r="C12" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A12,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>48</v>
@@ -3098,7 +4278,7 @@
       </c>
       <c r="C13" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A13,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>48</v>
@@ -3114,7 +4294,7 @@
       </c>
       <c r="C14" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A14,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>48</v>
@@ -3130,7 +4310,7 @@
       </c>
       <c r="C15" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A15,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
@@ -3146,7 +4326,7 @@
       </c>
       <c r="C16" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A16,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>49</v>
@@ -3162,7 +4342,7 @@
       </c>
       <c r="C17" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A17,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>49</v>
@@ -3178,7 +4358,7 @@
       </c>
       <c r="C18" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A18,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>49</v>
@@ -3194,7 +4374,7 @@
       </c>
       <c r="C19" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A19,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>49</v>
@@ -3210,7 +4390,7 @@
       </c>
       <c r="C20" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A20,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>49</v>
@@ -3226,7 +4406,7 @@
       </c>
       <c r="C21" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A21,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>49</v>
@@ -3242,7 +4422,7 @@
       </c>
       <c r="C22" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A22,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>49</v>
@@ -3258,7 +4438,7 @@
       </c>
       <c r="C23" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A23,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>49</v>
@@ -3274,7 +4454,7 @@
       </c>
       <c r="C24" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A24,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>49</v>
@@ -3290,7 +4470,7 @@
       </c>
       <c r="C25" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A25,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>49</v>
@@ -3306,7 +4486,7 @@
       </c>
       <c r="C26" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A26,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>49</v>
@@ -3322,7 +4502,7 @@
       </c>
       <c r="C27" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A27,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>49</v>
@@ -3338,7 +4518,7 @@
       </c>
       <c r="C28" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A28,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>49</v>
@@ -3354,7 +4534,7 @@
       </c>
       <c r="C29" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A29,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>49</v>
@@ -3370,7 +4550,7 @@
       </c>
       <c r="C30" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A30,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>49</v>
@@ -3386,7 +4566,7 @@
       </c>
       <c r="C31" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A31,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>49</v>
@@ -3402,7 +4582,7 @@
       </c>
       <c r="C32" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A32,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>49</v>
@@ -3418,7 +4598,7 @@
       </c>
       <c r="C33" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A33,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>49</v>
@@ -3434,7 +4614,7 @@
       </c>
       <c r="C34" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A34,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>49</v>
@@ -3450,7 +4630,7 @@
       </c>
       <c r="C35" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A35,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>49</v>
@@ -3466,7 +4646,7 @@
       </c>
       <c r="C36" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A36,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>49</v>
@@ -3482,7 +4662,7 @@
       </c>
       <c r="C37" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A37,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>49</v>
@@ -3498,7 +4678,7 @@
       </c>
       <c r="C38" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A38,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>49</v>
@@ -3514,7 +4694,7 @@
       </c>
       <c r="C39" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A39,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>49</v>
@@ -3530,7 +4710,7 @@
       </c>
       <c r="C40" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A40,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>49</v>
@@ -3546,7 +4726,7 @@
       </c>
       <c r="C41" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A41,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>49</v>
@@ -3562,7 +4742,7 @@
       </c>
       <c r="C42" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A42,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>49</v>
@@ -3578,7 +4758,7 @@
       </c>
       <c r="C43" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A43,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>49</v>
@@ -3594,7 +4774,7 @@
       </c>
       <c r="C44" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A44,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>49</v>
@@ -3610,7 +4790,7 @@
       </c>
       <c r="C45" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A45,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>49</v>
@@ -3626,7 +4806,7 @@
       </c>
       <c r="C46" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A46,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>49</v>
@@ -3642,7 +4822,7 @@
       </c>
       <c r="C47" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A47,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>49</v>
@@ -3658,7 +4838,7 @@
       </c>
       <c r="C48" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A48,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>49</v>
@@ -3674,7 +4854,7 @@
       </c>
       <c r="C49" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C49" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A49,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>49</v>
@@ -3690,7 +4870,7 @@
       </c>
       <c r="C50" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C50" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A50,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>49</v>
@@ -3706,7 +4886,7 @@
       </c>
       <c r="C51" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A51,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>49</v>
@@ -3722,7 +4902,7 @@
       </c>
       <c r="C52" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C52" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A52,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>49</v>
@@ -3738,7 +4918,7 @@
       </c>
       <c r="C53" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C53" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A53,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>49</v>
@@ -3754,7 +4934,7 @@
       </c>
       <c r="C54" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A54,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>49</v>
@@ -3770,7 +4950,7 @@
       </c>
       <c r="C55" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C55" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A55,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>49</v>
@@ -3786,7 +4966,7 @@
       </c>
       <c r="C56" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C56" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A56,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>49</v>
@@ -3802,7 +4982,7 @@
       </c>
       <c r="C57" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A57,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>49</v>
@@ -3818,7 +4998,7 @@
       </c>
       <c r="C58" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A58,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>49</v>
@@ -3834,7 +5014,7 @@
       </c>
       <c r="C59" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C59" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A59,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>49</v>
@@ -3850,7 +5030,7 @@
       </c>
       <c r="C60" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C60" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A60,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>49</v>
@@ -3866,7 +5046,7 @@
       </c>
       <c r="C61" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C61" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A61,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>49</v>
@@ -3882,7 +5062,7 @@
       </c>
       <c r="C62" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C62" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A62,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>49</v>
@@ -3898,7 +5078,7 @@
       </c>
       <c r="C63" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C63" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A63,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>49</v>
@@ -3914,7 +5094,7 @@
       </c>
       <c r="C64" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C64" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A64,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>49</v>
@@ -3930,7 +5110,7 @@
       </c>
       <c r="C65" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C65" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A65,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>49</v>
@@ -3946,7 +5126,7 @@
       </c>
       <c r="C66" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C66" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A66,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>49</v>
@@ -3962,7 +5142,7 @@
       </c>
       <c r="C67" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C67" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A67,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>49</v>
@@ -3978,7 +5158,7 @@
       </c>
       <c r="C68" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C68" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A68,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>49</v>
@@ -3994,7 +5174,7 @@
       </c>
       <c r="C69" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C69" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A69,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>49</v>
@@ -4010,7 +5190,7 @@
       </c>
       <c r="C70" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C70" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A70,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>49</v>
@@ -4026,7 +5206,7 @@
       </c>
       <c r="C71" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C71" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A71,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>49</v>
@@ -4042,7 +5222,7 @@
       </c>
       <c r="C72" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C72" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A72,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>49</v>
@@ -4058,7 +5238,7 @@
       </c>
       <c r="C73" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C73" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A73,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>49</v>
@@ -4074,7 +5254,7 @@
       </c>
       <c r="C74" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C74" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A74,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>49</v>
@@ -4090,7 +5270,7 @@
       </c>
       <c r="C75" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C75" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A75,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>50</v>
@@ -4106,7 +5286,7 @@
       </c>
       <c r="C76" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C76" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A76,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>50</v>
@@ -4122,7 +5302,7 @@
       </c>
       <c r="C77" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C77" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A77,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>50</v>
@@ -4138,7 +5318,7 @@
       </c>
       <c r="C78" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C78" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A78,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>50</v>
@@ -4154,7 +5334,7 @@
       </c>
       <c r="C79" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C79" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A79,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>50</v>
@@ -4170,7 +5350,7 @@
       </c>
       <c r="C80" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C80" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A80,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>50</v>
@@ -4186,7 +5366,7 @@
       </c>
       <c r="C81" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C81" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A81,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>50</v>
@@ -4202,7 +5382,7 @@
       </c>
       <c r="C82" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C82" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A82,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>50</v>
@@ -4218,7 +5398,7 @@
       </c>
       <c r="C83" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C83" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A83,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>50</v>
@@ -4234,7 +5414,7 @@
       </c>
       <c r="C84" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C84" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A84,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>51</v>
@@ -4250,7 +5430,7 @@
       </c>
       <c r="C85" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C85" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A85,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>51</v>
@@ -4266,7 +5446,7 @@
       </c>
       <c r="C86" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C86" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A86,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>51</v>
@@ -4282,7 +5462,7 @@
       </c>
       <c r="C87" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C87" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A87,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>51</v>
@@ -4298,7 +5478,7 @@
       </c>
       <c r="C88" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C88" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A88,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>51</v>
@@ -4314,7 +5494,7 @@
       </c>
       <c r="C89" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C89" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A89,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>52</v>
@@ -4330,7 +5510,7 @@
       </c>
       <c r="C90" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C90" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A90,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>47</v>
@@ -4378,7 +5558,7 @@
       </c>
       <c r="C93" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C93" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A93,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>49</v>
@@ -4394,7 +5574,7 @@
       </c>
       <c r="C94" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C94" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A94,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>49</v>
@@ -4410,7 +5590,7 @@
       </c>
       <c r="C95" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C95" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A95,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>49</v>
@@ -4426,7 +5606,7 @@
       </c>
       <c r="C96" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C96" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A96,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>49</v>
@@ -4442,7 +5622,7 @@
       </c>
       <c r="C97" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C97" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A97,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>49</v>
@@ -4458,7 +5638,7 @@
       </c>
       <c r="C98" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C98" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A98,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>49</v>
@@ -4474,7 +5654,7 @@
       </c>
       <c r="C99" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C99" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A99,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>49</v>
@@ -4490,7 +5670,7 @@
       </c>
       <c r="C100" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C100" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A100,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>49</v>
@@ -4506,7 +5686,7 @@
       </c>
       <c r="C101" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C101" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A101,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>51</v>
@@ -4522,7 +5702,7 @@
       </c>
       <c r="C102" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C102" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A102,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>47</v>
@@ -4538,7 +5718,7 @@
       </c>
       <c r="C103" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C103" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A103,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>47</v>
@@ -4554,7 +5734,7 @@
       </c>
       <c r="C104" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="C104" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A104,[1]欄位定義!A:A,0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>47</v>
@@ -4635,11 +5815,11 @@
       </c>
       <c r="F2" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($D2,[1]欄位定義!$A:$A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G2" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D2,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>46</v>
@@ -4665,11 +5845,11 @@
       </c>
       <c r="F3" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D3,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G3" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D3,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>46</v>
@@ -4695,11 +5875,11 @@
       </c>
       <c r="F4" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D4,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G4" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D4,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>46</v>
@@ -4725,11 +5905,11 @@
       </c>
       <c r="F5" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D5,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G5" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D5,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>46</v>
@@ -4755,11 +5935,11 @@
       </c>
       <c r="F6" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D6,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G6" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D6,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>46</v>
@@ -4785,11 +5965,11 @@
       </c>
       <c r="F7" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D7,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G7" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D7,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>46</v>
@@ -4815,11 +5995,11 @@
       </c>
       <c r="F8" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D8,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G8" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D8,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>47</v>
@@ -4845,11 +6025,11 @@
       </c>
       <c r="F9" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D9,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G9" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D9,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>47</v>
@@ -4875,11 +6055,11 @@
       </c>
       <c r="F10" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D10,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G10" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D10,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>47</v>
@@ -4905,11 +6085,11 @@
       </c>
       <c r="F11" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D11,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G11" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D11,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>47</v>
@@ -4935,11 +6115,11 @@
       </c>
       <c r="F12" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D12,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G12" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D12,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>48</v>
@@ -4965,11 +6145,11 @@
       </c>
       <c r="F13" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D13,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G13" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D13,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>48</v>
@@ -4995,11 +6175,11 @@
       </c>
       <c r="F14" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D14,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G14" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D14,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>48</v>
@@ -5025,11 +6205,11 @@
       </c>
       <c r="F15" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D15,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G15" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D15,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>49</v>
@@ -5055,11 +6235,11 @@
       </c>
       <c r="F16" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D16,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G16" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D16,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>49</v>
@@ -5085,11 +6265,11 @@
       </c>
       <c r="F17" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D17,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G17" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D17,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>49</v>
@@ -5115,11 +6295,11 @@
       </c>
       <c r="F18" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D18,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G18" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D18,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>49</v>
@@ -5145,11 +6325,11 @@
       </c>
       <c r="F19" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D19,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G19" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D19,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>49</v>
@@ -5175,11 +6355,11 @@
       </c>
       <c r="F20" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D20,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G20" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D20,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>49</v>
@@ -5205,11 +6385,11 @@
       </c>
       <c r="F21" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D21,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G21" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D21,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>49</v>
@@ -5235,11 +6415,11 @@
       </c>
       <c r="F22" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D22,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G22" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D22,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>49</v>
@@ -5265,11 +6445,11 @@
       </c>
       <c r="F23" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D23,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G23" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D23,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>49</v>
@@ -5295,11 +6475,11 @@
       </c>
       <c r="F24" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D24,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G24" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D24,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>49</v>
@@ -5325,11 +6505,11 @@
       </c>
       <c r="F25" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D25,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G25" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D25,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>49</v>
@@ -5355,11 +6535,11 @@
       </c>
       <c r="F26" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D26,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G26" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D26,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>49</v>
@@ -5385,11 +6565,11 @@
       </c>
       <c r="F27" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D27,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G27" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D27,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>49</v>
@@ -5415,11 +6595,11 @@
       </c>
       <c r="F28" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D28,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G28" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D28,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>49</v>
@@ -5445,11 +6625,11 @@
       </c>
       <c r="F29" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D29,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G29" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D29,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>49</v>
@@ -5475,11 +6655,11 @@
       </c>
       <c r="F30" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D30,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G30" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D30,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>49</v>
@@ -5505,11 +6685,11 @@
       </c>
       <c r="F31" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D31,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G31" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D31,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>49</v>
@@ -5535,11 +6715,11 @@
       </c>
       <c r="F32" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D32,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G32" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D32,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>49</v>
@@ -5565,11 +6745,11 @@
       </c>
       <c r="F33" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D33,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G33" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D33,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>49</v>
@@ -5595,11 +6775,11 @@
       </c>
       <c r="F34" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D34,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G34" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D34,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>49</v>
@@ -5625,11 +6805,11 @@
       </c>
       <c r="F35" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D35,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G35" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D35,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>49</v>
@@ -5655,11 +6835,11 @@
       </c>
       <c r="F36" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D36,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G36" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D36,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>49</v>
@@ -5685,11 +6865,11 @@
       </c>
       <c r="F37" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D37,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G37" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D37,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>49</v>
@@ -5715,11 +6895,11 @@
       </c>
       <c r="F38" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D38,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G38" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D38,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>49</v>
@@ -5745,11 +6925,11 @@
       </c>
       <c r="F39" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D39,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G39" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D39,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>49</v>
@@ -5775,11 +6955,11 @@
       </c>
       <c r="F40" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D40,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G40" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D40,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>49</v>
@@ -5805,11 +6985,11 @@
       </c>
       <c r="F41" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D41,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G41" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D41,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>49</v>
@@ -5835,11 +7015,11 @@
       </c>
       <c r="F42" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D42,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G42" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D42,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>49</v>
@@ -5865,11 +7045,11 @@
       </c>
       <c r="F43" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D43,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G43" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D43,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>49</v>
@@ -5895,11 +7075,11 @@
       </c>
       <c r="F44" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D44,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G44" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D44,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>49</v>
@@ -5925,11 +7105,11 @@
       </c>
       <c r="F45" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D45,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G45" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D45,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>49</v>
@@ -5955,11 +7135,11 @@
       </c>
       <c r="F46" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D46,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G46" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D46,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>49</v>
@@ -5985,11 +7165,11 @@
       </c>
       <c r="F47" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D47,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G47" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D47,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>49</v>
@@ -6015,11 +7195,11 @@
       </c>
       <c r="F48" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D48,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G48" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D48,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>49</v>
@@ -6045,11 +7225,11 @@
       </c>
       <c r="F49" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D49,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G49" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D49,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>49</v>
@@ -6075,11 +7255,11 @@
       </c>
       <c r="F50" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D50,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G50" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D50,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>49</v>
@@ -6105,11 +7285,11 @@
       </c>
       <c r="F51" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D51,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G51" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D51,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>49</v>
@@ -6135,11 +7315,11 @@
       </c>
       <c r="F52" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D52,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G52" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D52,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>49</v>
@@ -6165,11 +7345,11 @@
       </c>
       <c r="F53" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D53,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G53" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D53,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>49</v>
@@ -6195,11 +7375,11 @@
       </c>
       <c r="F54" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D54,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G54" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D54,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>49</v>
@@ -6225,11 +7405,11 @@
       </c>
       <c r="F55" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D55,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G55" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D55,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>49</v>
@@ -6255,11 +7435,11 @@
       </c>
       <c r="F56" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D56,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G56" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D56,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>49</v>
@@ -6285,11 +7465,11 @@
       </c>
       <c r="F57" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D57,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G57" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D57,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>49</v>
@@ -6315,11 +7495,11 @@
       </c>
       <c r="F58" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D58,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G58" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D58,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>49</v>
@@ -6345,11 +7525,11 @@
       </c>
       <c r="F59" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D59,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G59" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D59,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>49</v>
@@ -6375,11 +7555,11 @@
       </c>
       <c r="F60" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D60,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G60" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D60,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>49</v>
@@ -6405,11 +7585,11 @@
       </c>
       <c r="F61" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D61,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G61" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D61,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>49</v>
@@ -6435,11 +7615,11 @@
       </c>
       <c r="F62" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D62,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G62" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D62,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>49</v>
@@ -6465,11 +7645,11 @@
       </c>
       <c r="F63" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D63,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G63" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D63,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>49</v>
@@ -6495,11 +7675,11 @@
       </c>
       <c r="F64" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F64" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D64,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G64" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D64,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>49</v>
@@ -6525,11 +7705,11 @@
       </c>
       <c r="F65" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F65" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D65,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G65" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G65" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D65,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>49</v>
@@ -6555,11 +7735,11 @@
       </c>
       <c r="F66" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D66,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G66" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G66" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D66,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>49</v>
@@ -6585,11 +7765,11 @@
       </c>
       <c r="F67" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D67,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G67" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D67,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>49</v>
@@ -6615,11 +7795,11 @@
       </c>
       <c r="F68" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D68,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G68" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D68,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>49</v>
@@ -6645,11 +7825,11 @@
       </c>
       <c r="F69" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D69,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G69" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D69,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>49</v>
@@ -6675,11 +7855,11 @@
       </c>
       <c r="F70" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D70,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G70" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D70,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>49</v>
@@ -6705,11 +7885,11 @@
       </c>
       <c r="F71" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D71,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G71" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D71,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>49</v>
@@ -6735,11 +7915,11 @@
       </c>
       <c r="F72" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D72,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G72" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D72,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>49</v>
@@ -6765,11 +7945,11 @@
       </c>
       <c r="F73" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D73,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G73" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D73,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>49</v>
@@ -6795,11 +7975,11 @@
       </c>
       <c r="F74" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D74,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G74" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D74,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>49</v>
@@ -6825,11 +8005,11 @@
       </c>
       <c r="F75" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D75,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G75" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D75,[1]欄位定義!$A:$A, 0))</f>
-        <v>EGY</v>
+        <v>MACRO</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>50</v>
@@ -6855,11 +8035,11 @@
       </c>
       <c r="F76" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D76,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G76" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D76,[1]欄位定義!$A:$A, 0))</f>
-        <v>STB</v>
+        <v>MACRO</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>50</v>
@@ -6885,11 +8065,11 @@
       </c>
       <c r="F77" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D77,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G77" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G77" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D77,[1]欄位定義!$A:$A, 0))</f>
-        <v>STB</v>
+        <v>MACRO</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>50</v>
@@ -6915,11 +8095,11 @@
       </c>
       <c r="F78" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D78,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G78" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G78" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D78,[1]欄位定義!$A:$A, 0))</f>
-        <v>STB</v>
+        <v>MACRO</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>50</v>
@@ -6945,11 +8125,11 @@
       </c>
       <c r="F79" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D79,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G79" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G79" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D79,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>50</v>
@@ -6975,11 +8155,11 @@
       </c>
       <c r="F80" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D80,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G80" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D80,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>50</v>
@@ -7005,11 +8185,11 @@
       </c>
       <c r="F81" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D81,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G81" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D81,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>50</v>
@@ -7035,11 +8215,11 @@
       </c>
       <c r="F82" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D82,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G82" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D82,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>50</v>
@@ -7065,11 +8245,11 @@
       </c>
       <c r="F83" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D83,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G83" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D83,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>50</v>
@@ -7095,11 +8275,11 @@
       </c>
       <c r="F84" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D84,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G84" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D84,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H84" s="14" t="s">
         <v>51</v>
@@ -7125,11 +8305,11 @@
       </c>
       <c r="F85" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D85,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G85" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D85,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>51</v>
@@ -7155,11 +8335,11 @@
       </c>
       <c r="F86" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D86,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G86" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D86,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>51</v>
@@ -7185,11 +8365,11 @@
       </c>
       <c r="F87" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D87,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G87" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D87,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>51</v>
@@ -7215,11 +8395,11 @@
       </c>
       <c r="F88" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D88,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G88" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D88,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>51</v>
@@ -7245,11 +8425,11 @@
       </c>
       <c r="F89" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D89,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G89" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D89,[1]欄位定義!$A:$A, 0))</f>
-        <v>SF</v>
+        <v>MACRO</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>52</v>
@@ -7275,11 +8455,11 @@
       </c>
       <c r="F90" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F90" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D90,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G90" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G90" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D90,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>46</v>
@@ -7305,11 +8485,11 @@
       </c>
       <c r="F91" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F91" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D91,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G91" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G91" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D91,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>46</v>
@@ -7335,11 +8515,11 @@
       </c>
       <c r="F92" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F92" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D92,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G92" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G92" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D92,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>46</v>
@@ -7365,11 +8545,11 @@
       </c>
       <c r="F93" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D93,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G93" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D93,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>46</v>
@@ -7395,11 +8575,11 @@
       </c>
       <c r="F94" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D94,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G94" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D94,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H94" s="18" t="s">
         <v>46</v>
@@ -7425,11 +8605,11 @@
       </c>
       <c r="F95" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D95,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G95" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D95,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>46</v>
@@ -7455,11 +8635,11 @@
       </c>
       <c r="F96" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D96,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G96" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D96,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H96" s="14" t="s">
         <v>47</v>
@@ -7485,11 +8665,11 @@
       </c>
       <c r="F97" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D97,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G97" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D97,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H97" s="14" t="s">
         <v>47</v>
@@ -7515,11 +8695,11 @@
       </c>
       <c r="F98" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D98,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G98" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D98,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>47</v>
@@ -7545,11 +8725,11 @@
       </c>
       <c r="F99" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D99,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G99" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D99,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H99" s="14" t="s">
         <v>47</v>
@@ -7575,11 +8755,11 @@
       </c>
       <c r="F100" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D100,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G100" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D100,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H100" s="14" t="s">
         <v>48</v>
@@ -7605,11 +8785,11 @@
       </c>
       <c r="F101" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D101,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G101" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D101,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H101" s="14" t="s">
         <v>48</v>
@@ -7635,11 +8815,11 @@
       </c>
       <c r="F102" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F102" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D102,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G102" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D102,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H102" s="14" t="s">
         <v>48</v>
@@ -7665,11 +8845,11 @@
       </c>
       <c r="F103" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F103" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D103,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G103" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D103,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H103" s="14" t="s">
         <v>49</v>
@@ -7695,11 +8875,11 @@
       </c>
       <c r="F104" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F104" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D104,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G104" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G104" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D104,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H104" s="14" t="s">
         <v>49</v>
@@ -7725,11 +8905,11 @@
       </c>
       <c r="F105" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F105" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D105,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G105" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G105" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D105,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>49</v>
@@ -7755,11 +8935,11 @@
       </c>
       <c r="F106" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D106,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G106" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D106,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>49</v>
@@ -7785,11 +8965,11 @@
       </c>
       <c r="F107" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D107,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G107" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D107,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>49</v>
@@ -7815,11 +8995,11 @@
       </c>
       <c r="F108" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D108,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G108" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D108,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>49</v>
@@ -7845,11 +9025,11 @@
       </c>
       <c r="F109" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D109,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G109" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D109,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H109" s="14" t="s">
         <v>49</v>
@@ -7875,11 +9055,11 @@
       </c>
       <c r="F110" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D110,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G110" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D110,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H110" s="14" t="s">
         <v>49</v>
@@ -7905,11 +9085,11 @@
       </c>
       <c r="F111" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D111,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G111" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D111,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H111" s="14" t="s">
         <v>49</v>
@@ -7935,11 +9115,11 @@
       </c>
       <c r="F112" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D112,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G112" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D112,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>49</v>
@@ -7965,11 +9145,11 @@
       </c>
       <c r="F113" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D113,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G113" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D113,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H113" s="14" t="s">
         <v>49</v>
@@ -7995,11 +9175,11 @@
       </c>
       <c r="F114" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F114" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D114,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G114" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D114,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H114" s="14" t="s">
         <v>49</v>
@@ -8025,11 +9205,11 @@
       </c>
       <c r="F115" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F115" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D115,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G115" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D115,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H115" s="14" t="s">
         <v>49</v>
@@ -8055,11 +9235,11 @@
       </c>
       <c r="F116" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F116" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D116,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G116" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G116" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D116,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H116" s="14" t="s">
         <v>49</v>
@@ -8085,11 +9265,11 @@
       </c>
       <c r="F117" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F117" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D117,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G117" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G117" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D117,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H117" s="14" t="s">
         <v>49</v>
@@ -8115,11 +9295,11 @@
       </c>
       <c r="F118" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F118" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D118,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G118" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G118" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D118,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H118" s="14" t="s">
         <v>49</v>
@@ -8145,11 +9325,11 @@
       </c>
       <c r="F119" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D119,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G119" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G119" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D119,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>49</v>
@@ -8175,11 +9355,11 @@
       </c>
       <c r="F120" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F120" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D120,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G120" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G120" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D120,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>49</v>
@@ -8205,11 +9385,11 @@
       </c>
       <c r="F121" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F121" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D121,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G121" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G121" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D121,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H121" s="14" t="s">
         <v>49</v>
@@ -8235,11 +9415,11 @@
       </c>
       <c r="F122" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F122" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D122,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G122" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G122" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D122,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H122" s="14" t="s">
         <v>49</v>
@@ -8265,11 +9445,11 @@
       </c>
       <c r="F123" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F123" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D123,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G123" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D123,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H123" s="14" t="s">
         <v>49</v>
@@ -8295,11 +9475,11 @@
       </c>
       <c r="F124" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F124" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D124,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G124" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G124" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D124,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H124" s="14" t="s">
         <v>49</v>
@@ -8325,11 +9505,11 @@
       </c>
       <c r="F125" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F125" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D125,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G125" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G125" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D125,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H125" s="14" t="s">
         <v>49</v>
@@ -8355,11 +9535,11 @@
       </c>
       <c r="F126" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F126" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D126,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G126" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G126" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D126,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H126" s="14" t="s">
         <v>49</v>
@@ -8385,11 +9565,11 @@
       </c>
       <c r="F127" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F127" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D127,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G127" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G127" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D127,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H127" s="14" t="s">
         <v>49</v>
@@ -8415,11 +9595,11 @@
       </c>
       <c r="F128" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F128" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D128,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G128" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G128" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D128,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H128" s="14" t="s">
         <v>49</v>
@@ -8445,11 +9625,11 @@
       </c>
       <c r="F129" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F129" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D129,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G129" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G129" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D129,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H129" s="14" t="s">
         <v>49</v>
@@ -8475,11 +9655,11 @@
       </c>
       <c r="F130" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F130" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D130,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G130" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G130" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D130,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H130" s="14" t="s">
         <v>49</v>
@@ -8505,11 +9685,11 @@
       </c>
       <c r="F131" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F131" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D131,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G131" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G131" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D131,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H131" s="14" t="s">
         <v>49</v>
@@ -8535,11 +9715,11 @@
       </c>
       <c r="F132" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F132" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D132,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G132" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G132" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D132,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H132" s="14" t="s">
         <v>49</v>
@@ -8565,11 +9745,11 @@
       </c>
       <c r="F133" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F133" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D133,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G133" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D133,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H133" s="14" t="s">
         <v>49</v>
@@ -8595,11 +9775,11 @@
       </c>
       <c r="F134" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F134" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D134,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G134" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G134" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D134,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H134" s="14" t="s">
         <v>49</v>
@@ -8625,11 +9805,11 @@
       </c>
       <c r="F135" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F135" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D135,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G135" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G135" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D135,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H135" s="14" t="s">
         <v>49</v>
@@ -8655,11 +9835,11 @@
       </c>
       <c r="F136" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F136" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D136,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G136" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G136" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D136,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H136" s="14" t="s">
         <v>49</v>
@@ -8685,11 +9865,11 @@
       </c>
       <c r="F137" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F137" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D137,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G137" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G137" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D137,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H137" s="14" t="s">
         <v>49</v>
@@ -8715,11 +9895,11 @@
       </c>
       <c r="F138" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F138" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D138,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G138" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G138" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D138,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H138" s="14" t="s">
         <v>49</v>
@@ -8745,11 +9925,11 @@
       </c>
       <c r="F139" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F139" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D139,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G139" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G139" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D139,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H139" s="14" t="s">
         <v>49</v>
@@ -8775,11 +9955,11 @@
       </c>
       <c r="F140" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F140" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D140,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G140" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G140" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D140,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H140" s="14" t="s">
         <v>49</v>
@@ -8805,11 +9985,11 @@
       </c>
       <c r="F141" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F141" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D141,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G141" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G141" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D141,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H141" s="14" t="s">
         <v>49</v>
@@ -8835,11 +10015,11 @@
       </c>
       <c r="F142" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F142" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D142,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G142" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G142" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D142,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H142" s="14" t="s">
         <v>49</v>
@@ -8865,11 +10045,11 @@
       </c>
       <c r="F143" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F143" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D143,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G143" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D143,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H143" s="14" t="s">
         <v>49</v>
@@ -8895,11 +10075,11 @@
       </c>
       <c r="F144" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F144" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D144,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G144" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G144" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D144,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H144" s="14" t="s">
         <v>49</v>
@@ -8925,11 +10105,11 @@
       </c>
       <c r="F145" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F145" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D145,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G145" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G145" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D145,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H145" s="14" t="s">
         <v>49</v>
@@ -8955,11 +10135,11 @@
       </c>
       <c r="F146" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F146" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D146,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G146" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G146" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D146,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H146" s="14" t="s">
         <v>49</v>
@@ -8985,11 +10165,11 @@
       </c>
       <c r="F147" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F147" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D147,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G147" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G147" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D147,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H147" s="14" t="s">
         <v>49</v>
@@ -9015,11 +10195,11 @@
       </c>
       <c r="F148" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F148" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D148,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G148" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G148" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D148,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H148" s="14" t="s">
         <v>49</v>
@@ -9045,11 +10225,11 @@
       </c>
       <c r="F149" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F149" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D149,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G149" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G149" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D149,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H149" s="14" t="s">
         <v>49</v>
@@ -9075,11 +10255,11 @@
       </c>
       <c r="F150" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F150" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D150,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G150" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G150" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D150,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H150" s="14" t="s">
         <v>49</v>
@@ -9105,11 +10285,11 @@
       </c>
       <c r="F151" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F151" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D151,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G151" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G151" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D151,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H151" s="14" t="s">
         <v>49</v>
@@ -9135,11 +10315,11 @@
       </c>
       <c r="F152" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F152" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D152,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G152" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G152" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D152,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H152" s="14" t="s">
         <v>49</v>
@@ -9165,11 +10345,11 @@
       </c>
       <c r="F153" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F153" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D153,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G153" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D153,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H153" s="14" t="s">
         <v>49</v>
@@ -9195,11 +10375,11 @@
       </c>
       <c r="F154" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F154" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D154,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G154" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G154" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D154,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H154" s="14" t="s">
         <v>49</v>
@@ -9225,11 +10405,11 @@
       </c>
       <c r="F155" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F155" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D155,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G155" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G155" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D155,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H155" s="14" t="s">
         <v>49</v>
@@ -9255,11 +10435,11 @@
       </c>
       <c r="F156" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F156" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D156,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G156" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G156" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D156,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H156" s="14" t="s">
         <v>49</v>
@@ -9285,11 +10465,11 @@
       </c>
       <c r="F157" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F157" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D157,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G157" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G157" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D157,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H157" s="14" t="s">
         <v>49</v>
@@ -9315,11 +10495,11 @@
       </c>
       <c r="F158" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F158" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D158,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G158" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G158" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D158,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H158" s="14" t="s">
         <v>49</v>
@@ -9345,11 +10525,11 @@
       </c>
       <c r="F159" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F159" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D159,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G159" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G159" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D159,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H159" s="14" t="s">
         <v>49</v>
@@ -9375,11 +10555,11 @@
       </c>
       <c r="F160" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F160" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D160,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G160" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G160" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D160,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H160" s="14" t="s">
         <v>49</v>
@@ -9405,11 +10585,11 @@
       </c>
       <c r="F161" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F161" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D161,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G161" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G161" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D161,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H161" s="14" t="s">
         <v>49</v>
@@ -9435,11 +10615,11 @@
       </c>
       <c r="F162" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F162" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D162,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G162" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G162" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D162,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H162" s="14" t="s">
         <v>49</v>
@@ -9465,11 +10645,11 @@
       </c>
       <c r="F163" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F163" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D163,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G163" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G163" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D163,[1]欄位定義!$A:$A, 0))</f>
-        <v>EGY</v>
+        <v>MACRO</v>
       </c>
       <c r="H163" s="14" t="s">
         <v>50</v>
@@ -9495,11 +10675,11 @@
       </c>
       <c r="F164" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F164" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D164,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G164" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G164" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D164,[1]欄位定義!$A:$A, 0))</f>
-        <v>STB</v>
+        <v>MACRO</v>
       </c>
       <c r="H164" s="14" t="s">
         <v>50</v>
@@ -9525,11 +10705,11 @@
       </c>
       <c r="F165" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F165" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D165,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G165" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G165" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D165,[1]欄位定義!$A:$A, 0))</f>
-        <v>STB</v>
+        <v>MACRO</v>
       </c>
       <c r="H165" s="14" t="s">
         <v>50</v>
@@ -9555,11 +10735,11 @@
       </c>
       <c r="F166" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F166" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D166,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G166" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G166" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D166,[1]欄位定義!$A:$A, 0))</f>
-        <v>STB</v>
+        <v>MACRO</v>
       </c>
       <c r="H166" s="14" t="s">
         <v>50</v>
@@ -9585,11 +10765,11 @@
       </c>
       <c r="F167" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F167" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D167,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G167" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G167" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D167,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H167" s="14" t="s">
         <v>50</v>
@@ -9615,11 +10795,11 @@
       </c>
       <c r="F168" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F168" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D168,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G168" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G168" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D168,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H168" s="14" t="s">
         <v>50</v>
@@ -9645,11 +10825,11 @@
       </c>
       <c r="F169" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F169" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D169,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G169" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G169" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D169,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H169" s="14" t="s">
         <v>50</v>
@@ -9675,11 +10855,11 @@
       </c>
       <c r="F170" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F170" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D170,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G170" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G170" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D170,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H170" s="14" t="s">
         <v>50</v>
@@ -9705,11 +10885,11 @@
       </c>
       <c r="F171" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F171" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D171,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G171" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G171" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D171,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H171" s="14" t="s">
         <v>50</v>
@@ -9735,11 +10915,11 @@
       </c>
       <c r="F172" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F172" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D172,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G172" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G172" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D172,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H172" s="14" t="s">
         <v>51</v>
@@ -9765,11 +10945,11 @@
       </c>
       <c r="F173" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F173" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D173,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G173" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G173" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D173,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H173" s="14" t="s">
         <v>51</v>
@@ -9795,11 +10975,11 @@
       </c>
       <c r="F174" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F174" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D174,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G174" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G174" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D174,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H174" s="14" t="s">
         <v>51</v>
@@ -9825,11 +11005,11 @@
       </c>
       <c r="F175" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F175" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D175,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G175" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G175" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D175,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H175" s="14" t="s">
         <v>51</v>
@@ -9855,11 +11035,11 @@
       </c>
       <c r="F176" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F176" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D176,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G176" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G176" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D176,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H176" s="14" t="s">
         <v>51</v>
@@ -9885,11 +11065,11 @@
       </c>
       <c r="F177" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F177" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D177,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G177" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G177" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D177,[1]欄位定義!$A:$A, 0))</f>
-        <v>SF</v>
+        <v>MACRO</v>
       </c>
       <c r="H177" s="14" t="s">
         <v>52</v>
@@ -9915,11 +11095,11 @@
       </c>
       <c r="F178" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F178" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D178,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G178" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G178" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D178,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H178" s="18" t="s">
         <v>46</v>
@@ -9945,11 +11125,11 @@
       </c>
       <c r="F179" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F179" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D179,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G179" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G179" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D179,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H179" s="18" t="s">
         <v>46</v>
@@ -9975,11 +11155,11 @@
       </c>
       <c r="F180" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F180" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D180,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G180" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G180" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D180,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H180" s="18" t="s">
         <v>46</v>
@@ -10005,11 +11185,11 @@
       </c>
       <c r="F181" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F181" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D181,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G181" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G181" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D181,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H181" s="18" t="s">
         <v>46</v>
@@ -10035,11 +11215,11 @@
       </c>
       <c r="F182" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F182" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D182,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G182" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G182" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D182,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H182" s="18" t="s">
         <v>46</v>
@@ -10065,11 +11245,11 @@
       </c>
       <c r="F183" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F183" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D183,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G183" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G183" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D183,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H183" s="18" t="s">
         <v>46</v>
@@ -10095,11 +11275,11 @@
       </c>
       <c r="F184" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F184" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D184,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G184" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G184" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D184,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H184" s="14" t="s">
         <v>47</v>
@@ -10125,11 +11305,11 @@
       </c>
       <c r="F185" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F185" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D185,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G185" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G185" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D185,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H185" s="14" t="s">
         <v>47</v>
@@ -10155,11 +11335,11 @@
       </c>
       <c r="F186" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F186" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D186,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G186" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G186" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D186,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H186" s="14" t="s">
         <v>47</v>
@@ -10185,11 +11365,11 @@
       </c>
       <c r="F187" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F187" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D187,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G187" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G187" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D187,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H187" s="14" t="s">
         <v>47</v>
@@ -10215,11 +11395,11 @@
       </c>
       <c r="F188" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F188" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D188,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G188" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G188" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D188,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H188" s="14" t="s">
         <v>48</v>
@@ -10245,11 +11425,11 @@
       </c>
       <c r="F189" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F189" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D189,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G189" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G189" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D189,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H189" s="14" t="s">
         <v>48</v>
@@ -10275,11 +11455,11 @@
       </c>
       <c r="F190" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F190" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D190,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G190" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G190" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D190,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H190" s="14" t="s">
         <v>48</v>
@@ -10305,11 +11485,11 @@
       </c>
       <c r="F191" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F191" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D191,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G191" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G191" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D191,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H191" s="14" t="s">
         <v>49</v>
@@ -10335,11 +11515,11 @@
       </c>
       <c r="F192" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F192" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D192,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G192" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G192" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D192,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H192" s="14" t="s">
         <v>49</v>
@@ -10365,11 +11545,11 @@
       </c>
       <c r="F193" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F193" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D193,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G193" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G193" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D193,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H193" s="14" t="s">
         <v>49</v>
@@ -10395,11 +11575,11 @@
       </c>
       <c r="F194" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F194" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D194,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G194" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G194" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D194,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H194" s="14" t="s">
         <v>49</v>
@@ -10425,11 +11605,11 @@
       </c>
       <c r="F195" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F195" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D195,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G195" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G195" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D195,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H195" s="14" t="s">
         <v>49</v>
@@ -10455,11 +11635,11 @@
       </c>
       <c r="F196" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F196" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D196,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G196" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G196" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D196,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H196" s="14" t="s">
         <v>49</v>
@@ -10485,11 +11665,11 @@
       </c>
       <c r="F197" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F197" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D197,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G197" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G197" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D197,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H197" s="14" t="s">
         <v>49</v>
@@ -10515,11 +11695,11 @@
       </c>
       <c r="F198" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F198" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D198,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G198" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G198" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D198,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H198" s="14" t="s">
         <v>49</v>
@@ -10545,11 +11725,11 @@
       </c>
       <c r="F199" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F199" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D199,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G199" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G199" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D199,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H199" s="14" t="s">
         <v>49</v>
@@ -10575,11 +11755,11 @@
       </c>
       <c r="F200" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F200" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D200,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G200" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G200" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D200,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H200" s="14" t="s">
         <v>49</v>
@@ -10605,11 +11785,11 @@
       </c>
       <c r="F201" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F201" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D201,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G201" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G201" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D201,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H201" s="14" t="s">
         <v>49</v>
@@ -10635,11 +11815,11 @@
       </c>
       <c r="F202" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F202" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D202,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G202" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G202" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D202,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H202" s="14" t="s">
         <v>49</v>
@@ -10665,11 +11845,11 @@
       </c>
       <c r="F203" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F203" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D203,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G203" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G203" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D203,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H203" s="14" t="s">
         <v>49</v>
@@ -10695,11 +11875,11 @@
       </c>
       <c r="F204" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F204" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D204,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G204" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G204" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D204,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H204" s="14" t="s">
         <v>49</v>
@@ -10725,11 +11905,11 @@
       </c>
       <c r="F205" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F205" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D205,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G205" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G205" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D205,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H205" s="14" t="s">
         <v>49</v>
@@ -10755,11 +11935,11 @@
       </c>
       <c r="F206" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F206" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D206,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G206" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G206" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D206,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H206" s="14" t="s">
         <v>49</v>
@@ -10785,11 +11965,11 @@
       </c>
       <c r="F207" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F207" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D207,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G207" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G207" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D207,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H207" s="14" t="s">
         <v>49</v>
@@ -10815,11 +11995,11 @@
       </c>
       <c r="F208" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F208" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D208,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_ntd</v>
       </c>
       <c r="G208" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G208" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D208,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H208" s="14" t="s">
         <v>49</v>
@@ -10845,11 +12025,11 @@
       </c>
       <c r="F209" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F209" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D209,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G209" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G209" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D209,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H209" s="14" t="s">
         <v>49</v>
@@ -10875,11 +12055,11 @@
       </c>
       <c r="F210" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F210" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D210,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G210" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G210" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D210,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H210" s="14" t="s">
         <v>49</v>
@@ -10905,11 +12085,11 @@
       </c>
       <c r="F211" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F211" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D211,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G211" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G211" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D211,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H211" s="14" t="s">
         <v>49</v>
@@ -10935,11 +12115,11 @@
       </c>
       <c r="F212" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F212" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D212,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G212" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G212" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D212,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H212" s="14" t="s">
         <v>49</v>
@@ -10965,11 +12145,11 @@
       </c>
       <c r="F213" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F213" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D213,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G213" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G213" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D213,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H213" s="14" t="s">
         <v>49</v>
@@ -10995,11 +12175,11 @@
       </c>
       <c r="F214" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F214" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D214,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G214" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G214" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D214,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H214" s="14" t="s">
         <v>49</v>
@@ -11025,11 +12205,11 @@
       </c>
       <c r="F215" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F215" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D215,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G215" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G215" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D215,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H215" s="14" t="s">
         <v>49</v>
@@ -11055,11 +12235,11 @@
       </c>
       <c r="F216" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F216" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D216,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G216" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G216" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D216,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H216" s="14" t="s">
         <v>49</v>
@@ -11085,11 +12265,11 @@
       </c>
       <c r="F217" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F217" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D217,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G217" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G217" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D217,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H217" s="14" t="s">
         <v>49</v>
@@ -11115,11 +12295,11 @@
       </c>
       <c r="F218" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F218" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D218,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G218" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G218" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D218,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H218" s="14" t="s">
         <v>49</v>
@@ -11145,11 +12325,11 @@
       </c>
       <c r="F219" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F219" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D219,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G219" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G219" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D219,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H219" s="14" t="s">
         <v>49</v>
@@ -11175,11 +12355,11 @@
       </c>
       <c r="F220" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F220" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D220,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G220" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G220" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D220,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H220" s="14" t="s">
         <v>49</v>
@@ -11205,11 +12385,11 @@
       </c>
       <c r="F221" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F221" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D221,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G221" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G221" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D221,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H221" s="14" t="s">
         <v>49</v>
@@ -11235,11 +12415,11 @@
       </c>
       <c r="F222" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F222" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D222,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_amt_usd</v>
       </c>
       <c r="G222" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G222" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D222,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H222" s="14" t="s">
         <v>49</v>
@@ -11265,11 +12445,11 @@
       </c>
       <c r="F223" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F223" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D223,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G223" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G223" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D223,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H223" s="14" t="s">
         <v>49</v>
@@ -11295,11 +12475,11 @@
       </c>
       <c r="F224" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F224" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D224,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G224" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G224" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D224,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H224" s="14" t="s">
         <v>49</v>
@@ -11325,11 +12505,11 @@
       </c>
       <c r="F225" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F225" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D225,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G225" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G225" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D225,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H225" s="14" t="s">
         <v>49</v>
@@ -11355,11 +12535,11 @@
       </c>
       <c r="F226" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F226" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D226,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G226" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G226" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D226,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H226" s="14" t="s">
         <v>49</v>
@@ -11385,11 +12565,11 @@
       </c>
       <c r="F227" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F227" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D227,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G227" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G227" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D227,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H227" s="14" t="s">
         <v>49</v>
@@ -11415,11 +12595,11 @@
       </c>
       <c r="F228" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F228" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D228,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G228" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G228" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D228,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H228" s="14" t="s">
         <v>49</v>
@@ -11445,11 +12625,11 @@
       </c>
       <c r="F229" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F229" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D229,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G229" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G229" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D229,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H229" s="14" t="s">
         <v>49</v>
@@ -11475,11 +12655,11 @@
       </c>
       <c r="F230" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F230" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D230,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G230" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G230" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D230,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H230" s="14" t="s">
         <v>49</v>
@@ -11505,11 +12685,11 @@
       </c>
       <c r="F231" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F231" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D231,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G231" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G231" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D231,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H231" s="14" t="s">
         <v>49</v>
@@ -11535,11 +12715,11 @@
       </c>
       <c r="F232" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F232" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D232,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G232" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G232" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D232,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H232" s="14" t="s">
         <v>49</v>
@@ -11565,11 +12745,11 @@
       </c>
       <c r="F233" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F233" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D233,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G233" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G233" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D233,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H233" s="14" t="s">
         <v>49</v>
@@ -11595,11 +12775,11 @@
       </c>
       <c r="F234" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F234" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D234,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G234" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G234" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D234,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H234" s="14" t="s">
         <v>49</v>
@@ -11625,11 +12805,11 @@
       </c>
       <c r="F235" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F235" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D235,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G235" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G235" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D235,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H235" s="14" t="s">
         <v>49</v>
@@ -11655,11 +12835,11 @@
       </c>
       <c r="F236" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F236" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D236,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_ntd</v>
       </c>
       <c r="G236" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G236" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D236,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H236" s="14" t="s">
         <v>49</v>
@@ -11685,11 +12865,11 @@
       </c>
       <c r="F237" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F237" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D237,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G237" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G237" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D237,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H237" s="14" t="s">
         <v>49</v>
@@ -11715,11 +12895,11 @@
       </c>
       <c r="F238" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F238" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D238,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G238" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G238" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D238,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H238" s="14" t="s">
         <v>49</v>
@@ -11745,11 +12925,11 @@
       </c>
       <c r="F239" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F239" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D239,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G239" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G239" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D239,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H239" s="14" t="s">
         <v>49</v>
@@ -11775,11 +12955,11 @@
       </c>
       <c r="F240" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F240" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D240,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G240" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G240" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D240,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H240" s="14" t="s">
         <v>49</v>
@@ -11805,11 +12985,11 @@
       </c>
       <c r="F241" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F241" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D241,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G241" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G241" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D241,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H241" s="14" t="s">
         <v>49</v>
@@ -11835,11 +13015,11 @@
       </c>
       <c r="F242" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F242" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D242,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G242" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G242" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D242,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H242" s="14" t="s">
         <v>49</v>
@@ -11865,11 +13045,11 @@
       </c>
       <c r="F243" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F243" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D243,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G243" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G243" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D243,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H243" s="14" t="s">
         <v>49</v>
@@ -11895,11 +13075,11 @@
       </c>
       <c r="F244" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F244" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D244,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G244" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G244" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D244,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H244" s="14" t="s">
         <v>49</v>
@@ -11925,11 +13105,11 @@
       </c>
       <c r="F245" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F245" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D245,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G245" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G245" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D245,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H245" s="14" t="s">
         <v>49</v>
@@ -11955,11 +13135,11 @@
       </c>
       <c r="F246" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F246" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D246,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G246" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G246" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D246,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H246" s="14" t="s">
         <v>49</v>
@@ -11985,11 +13165,11 @@
       </c>
       <c r="F247" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F247" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D247,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G247" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G247" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D247,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H247" s="14" t="s">
         <v>49</v>
@@ -12015,11 +13195,11 @@
       </c>
       <c r="F248" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F248" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D248,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G248" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G248" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D248,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H248" s="14" t="s">
         <v>49</v>
@@ -12045,11 +13225,11 @@
       </c>
       <c r="F249" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F249" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D249,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G249" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G249" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D249,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H249" s="14" t="s">
         <v>49</v>
@@ -12075,11 +13255,11 @@
       </c>
       <c r="F250" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F250" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D250,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>tw_ic_month_yoy_rate_usd</v>
       </c>
       <c r="G250" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G250" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D250,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW_TECH</v>
+        <v>MACRO</v>
       </c>
       <c r="H250" s="14" t="s">
         <v>49</v>
@@ -12105,11 +13285,11 @@
       </c>
       <c r="F251" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F251" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D251,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G251" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G251" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D251,[1]欄位定義!$A:$A, 0))</f>
-        <v>EGY</v>
+        <v>MACRO</v>
       </c>
       <c r="H251" s="14" t="s">
         <v>50</v>
@@ -12135,11 +13315,11 @@
       </c>
       <c r="F252" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F252" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D252,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G252" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G252" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D252,[1]欄位定義!$A:$A, 0))</f>
-        <v>STB</v>
+        <v>MACRO</v>
       </c>
       <c r="H252" s="14" t="s">
         <v>50</v>
@@ -12165,11 +13345,11 @@
       </c>
       <c r="F253" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F253" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D253,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G253" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G253" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D253,[1]欄位定義!$A:$A, 0))</f>
-        <v>STB</v>
+        <v>MACRO</v>
       </c>
       <c r="H253" s="14" t="s">
         <v>50</v>
@@ -12195,11 +13375,11 @@
       </c>
       <c r="F254" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F254" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D254,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G254" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G254" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D254,[1]欄位定義!$A:$A, 0))</f>
-        <v>STB</v>
+        <v>MACRO</v>
       </c>
       <c r="H254" s="14" t="s">
         <v>50</v>
@@ -12225,11 +13405,11 @@
       </c>
       <c r="F255" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F255" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D255,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G255" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G255" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D255,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H255" s="14" t="s">
         <v>50</v>
@@ -12255,11 +13435,11 @@
       </c>
       <c r="F256" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F256" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D256,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G256" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G256" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D256,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H256" s="14" t="s">
         <v>50</v>
@@ -12285,11 +13465,11 @@
       </c>
       <c r="F257" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F257" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D257,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G257" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G257" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D257,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H257" s="14" t="s">
         <v>50</v>
@@ -12315,11 +13495,11 @@
       </c>
       <c r="F258" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F258" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D258,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G258" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G258" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D258,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H258" s="14" t="s">
         <v>50</v>
@@ -12345,11 +13525,11 @@
       </c>
       <c r="F259" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F259" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D259,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G259" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G259" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D259,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H259" s="14" t="s">
         <v>50</v>
@@ -12375,11 +13555,11 @@
       </c>
       <c r="F260" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F260" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D260,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G260" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G260" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D260,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H260" s="14" t="s">
         <v>51</v>
@@ -12405,11 +13585,11 @@
       </c>
       <c r="F261" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F261" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D261,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G261" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G261" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D261,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H261" s="14" t="s">
         <v>51</v>
@@ -12435,11 +13615,11 @@
       </c>
       <c r="F262" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F262" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D262,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G262" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G262" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D262,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H262" s="14" t="s">
         <v>51</v>
@@ -12465,11 +13645,11 @@
       </c>
       <c r="F263" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F263" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D263,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G263" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G263" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D263,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H263" s="14" t="s">
         <v>51</v>
@@ -12495,11 +13675,11 @@
       </c>
       <c r="F264" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F264" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D264,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G264" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G264" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D264,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H264" s="14" t="s">
         <v>51</v>
@@ -12525,11 +13705,11 @@
       </c>
       <c r="F265" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F265" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D265,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G265" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G265" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D265,[1]欄位定義!$A:$A, 0))</f>
-        <v>SF</v>
+        <v>MACRO</v>
       </c>
       <c r="H265" s="14" t="s">
         <v>52</v>
@@ -12555,11 +13735,11 @@
       </c>
       <c r="F266" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F266" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D266,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G266" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G266" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D266,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H266" s="14" t="s">
         <v>47</v>
@@ -12645,11 +13825,11 @@
       </c>
       <c r="F269" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F269" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D269,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G269" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G269" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D269,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H269" s="14" t="s">
         <v>48</v>
@@ -12675,11 +13855,11 @@
       </c>
       <c r="F270" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F270" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D270,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G270" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G270" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D270,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H270" s="14" t="s">
         <v>48</v>
@@ -12705,11 +13885,11 @@
       </c>
       <c r="F271" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F271" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D271,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G271" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G271" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D271,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H271" s="14" t="s">
         <v>49</v>
@@ -12735,11 +13915,11 @@
       </c>
       <c r="F272" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F272" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D272,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G272" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G272" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D272,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H272" s="14" t="s">
         <v>49</v>
@@ -12765,11 +13945,11 @@
       </c>
       <c r="F273" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F273" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D273,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G273" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G273" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D273,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H273" s="14" t="s">
         <v>49</v>
@@ -12795,11 +13975,11 @@
       </c>
       <c r="F274" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F274" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D274,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G274" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G274" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D274,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H274" s="14" t="s">
         <v>49</v>
@@ -12825,11 +14005,11 @@
       </c>
       <c r="F275" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F275" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D275,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G275" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G275" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D275,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H275" s="14" t="s">
         <v>49</v>
@@ -12855,11 +14035,11 @@
       </c>
       <c r="F276" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F276" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D276,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G276" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G276" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D276,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H276" s="14" t="s">
         <v>49</v>
@@ -12885,11 +14065,11 @@
       </c>
       <c r="F277" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F277" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D277,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G277" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G277" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D277,[1]欄位定義!$A:$A, 0))</f>
-        <v>IND</v>
+        <v>MACRO</v>
       </c>
       <c r="H277" s="14" t="s">
         <v>49</v>
@@ -12915,11 +14095,11 @@
       </c>
       <c r="F278" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F278" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D278,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G278" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G278" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D278,[1]欄位定義!$A:$A, 0))</f>
-        <v>IND</v>
+        <v>MACRO</v>
       </c>
       <c r="H278" s="14" t="s">
         <v>49</v>
@@ -12945,11 +14125,11 @@
       </c>
       <c r="F279" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F279" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D279,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G279" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G279" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D279,[1]欄位定義!$A:$A, 0))</f>
-        <v>VN</v>
+        <v>MACRO</v>
       </c>
       <c r="H279" s="14" t="s">
         <v>49</v>
@@ -12975,11 +14155,11 @@
       </c>
       <c r="F280" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F280" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D280,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G280" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G280" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D280,[1]欄位定義!$A:$A, 0))</f>
-        <v>VN</v>
+        <v>MACRO</v>
       </c>
       <c r="H280" s="14" t="s">
         <v>49</v>
@@ -13005,11 +14185,11 @@
       </c>
       <c r="F281" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F281" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D281,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G281" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G281" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D281,[1]欄位定義!$A:$A, 0))</f>
-        <v>THAI</v>
+        <v>MACRO</v>
       </c>
       <c r="H281" s="14" t="s">
         <v>49</v>
@@ -13035,11 +14215,11 @@
       </c>
       <c r="F282" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F282" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D282,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G282" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G282" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D282,[1]欄位定義!$A:$A, 0))</f>
-        <v>THAI</v>
+        <v>MACRO</v>
       </c>
       <c r="H282" s="14" t="s">
         <v>49</v>
@@ -13065,11 +14245,11 @@
       </c>
       <c r="F283" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F283" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D283,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G283" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G283" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D283,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H283" s="14" t="s">
         <v>51</v>
@@ -13095,11 +14275,11 @@
       </c>
       <c r="F284" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F284" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D284,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G284" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G284" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D284,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H284" s="14" t="s">
         <v>47</v>
@@ -13185,11 +14365,11 @@
       </c>
       <c r="F287" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F287" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D287,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G287" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G287" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D287,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H287" s="14" t="s">
         <v>48</v>
@@ -13215,11 +14395,11 @@
       </c>
       <c r="F288" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F288" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D288,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G288" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G288" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D288,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H288" s="14" t="s">
         <v>48</v>
@@ -13245,11 +14425,11 @@
       </c>
       <c r="F289" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F289" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D289,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G289" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G289" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D289,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H289" s="14" t="s">
         <v>49</v>
@@ -13275,11 +14455,11 @@
       </c>
       <c r="F290" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F290" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D290,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G290" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G290" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D290,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H290" s="14" t="s">
         <v>49</v>
@@ -13305,11 +14485,11 @@
       </c>
       <c r="F291" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F291" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D291,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G291" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G291" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D291,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H291" s="14" t="s">
         <v>49</v>
@@ -13335,11 +14515,11 @@
       </c>
       <c r="F292" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F292" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D292,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G292" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G292" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D292,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H292" s="14" t="s">
         <v>49</v>
@@ -13365,11 +14545,11 @@
       </c>
       <c r="F293" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F293" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D293,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G293" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G293" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D293,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H293" s="14" t="s">
         <v>49</v>
@@ -13395,11 +14575,11 @@
       </c>
       <c r="F294" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F294" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D294,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G294" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G294" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D294,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H294" s="14" t="s">
         <v>49</v>
@@ -13425,11 +14605,11 @@
       </c>
       <c r="F295" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F295" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D295,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G295" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G295" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D295,[1]欄位定義!$A:$A, 0))</f>
-        <v>IND</v>
+        <v>MACRO</v>
       </c>
       <c r="H295" s="14" t="s">
         <v>49</v>
@@ -13455,11 +14635,11 @@
       </c>
       <c r="F296" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F296" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D296,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G296" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G296" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D296,[1]欄位定義!$A:$A, 0))</f>
-        <v>IND</v>
+        <v>MACRO</v>
       </c>
       <c r="H296" s="14" t="s">
         <v>49</v>
@@ -13485,11 +14665,11 @@
       </c>
       <c r="F297" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F297" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D297,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G297" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G297" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D297,[1]欄位定義!$A:$A, 0))</f>
-        <v>VN</v>
+        <v>MACRO</v>
       </c>
       <c r="H297" s="14" t="s">
         <v>49</v>
@@ -13515,11 +14695,11 @@
       </c>
       <c r="F298" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F298" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D298,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G298" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G298" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D298,[1]欄位定義!$A:$A, 0))</f>
-        <v>VN</v>
+        <v>MACRO</v>
       </c>
       <c r="H298" s="14" t="s">
         <v>49</v>
@@ -13545,11 +14725,11 @@
       </c>
       <c r="F299" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F299" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D299,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G299" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G299" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D299,[1]欄位定義!$A:$A, 0))</f>
-        <v>THAI</v>
+        <v>MACRO</v>
       </c>
       <c r="H299" s="14" t="s">
         <v>49</v>
@@ -13575,11 +14755,11 @@
       </c>
       <c r="F300" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F300" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D300,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G300" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G300" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D300,[1]欄位定義!$A:$A, 0))</f>
-        <v>THAI</v>
+        <v>MACRO</v>
       </c>
       <c r="H300" s="14" t="s">
         <v>49</v>
@@ -13605,11 +14785,11 @@
       </c>
       <c r="F301" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F301" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D301,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G301" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G301" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D301,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H301" s="14" t="s">
         <v>51</v>
@@ -13635,11 +14815,11 @@
       </c>
       <c r="F302" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F302" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D302,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G302" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G302" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D302,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H302" s="18" t="s">
         <v>46</v>
@@ -13665,11 +14845,11 @@
       </c>
       <c r="F303" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F303" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D303,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G303" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G303" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D303,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H303" s="18" t="s">
         <v>46</v>
@@ -13695,11 +14875,11 @@
       </c>
       <c r="F304" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F304" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D304,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G304" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G304" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D304,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H304" s="18" t="s">
         <v>46</v>
@@ -13725,11 +14905,11 @@
       </c>
       <c r="F305" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F305" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D305,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G305" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G305" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D305,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H305" s="18" t="s">
         <v>46</v>
@@ -13755,11 +14935,11 @@
       </c>
       <c r="F306" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F306" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D306,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G306" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G306" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D306,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H306" s="18" t="s">
         <v>46</v>
@@ -13785,11 +14965,11 @@
       </c>
       <c r="F307" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F307" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D307,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G307" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G307" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D307,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H307" s="18" t="s">
         <v>46</v>
@@ -13875,11 +15055,11 @@
       </c>
       <c r="F310" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F310" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D310,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G310" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G310" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D310,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H310" s="14" t="s">
         <v>48</v>
@@ -13905,11 +15085,11 @@
       </c>
       <c r="F311" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F311" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D311,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G311" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G311" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D311,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H311" s="14" t="s">
         <v>48</v>
@@ -13935,11 +15115,11 @@
       </c>
       <c r="F312" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F312" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D312,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G312" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G312" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D312,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H312" s="14" t="s">
         <v>49</v>
@@ -13965,11 +15145,11 @@
       </c>
       <c r="F313" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F313" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D313,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G313" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G313" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D313,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H313" s="14" t="s">
         <v>49</v>
@@ -13995,11 +15175,11 @@
       </c>
       <c r="F314" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F314" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D314,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G314" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G314" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D314,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H314" s="14" t="s">
         <v>49</v>
@@ -14025,11 +15205,11 @@
       </c>
       <c r="F315" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F315" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D315,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G315" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G315" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D315,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H315" s="14" t="s">
         <v>49</v>
@@ -14055,11 +15235,11 @@
       </c>
       <c r="F316" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F316" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D316,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G316" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G316" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D316,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H316" s="18" t="s">
         <v>46</v>
@@ -14085,11 +15265,11 @@
       </c>
       <c r="F317" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F317" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D317,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G317" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G317" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D317,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H317" s="18" t="s">
         <v>46</v>
@@ -14115,11 +15295,11 @@
       </c>
       <c r="F318" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F318" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D318,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G318" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G318" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D318,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H318" s="18" t="s">
         <v>46</v>
@@ -14145,11 +15325,11 @@
       </c>
       <c r="F319" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F319" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D319,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G319" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G319" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D319,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H319" s="18" t="s">
         <v>46</v>
@@ -14175,11 +15355,11 @@
       </c>
       <c r="F320" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F320" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D320,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G320" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G320" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D320,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H320" s="18" t="s">
         <v>46</v>
@@ -14205,11 +15385,11 @@
       </c>
       <c r="F321" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F321" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D321,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G321" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G321" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D321,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H321" s="18" t="s">
         <v>46</v>
@@ -14295,11 +15475,11 @@
       </c>
       <c r="F324" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F324" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D324,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G324" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G324" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D324,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H324" s="14" t="s">
         <v>48</v>
@@ -14325,11 +15505,11 @@
       </c>
       <c r="F325" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F325" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D325,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G325" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G325" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D325,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H325" s="14" t="s">
         <v>48</v>
@@ -14355,11 +15535,11 @@
       </c>
       <c r="F326" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F326" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D326,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G326" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G326" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D326,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H326" s="14" t="s">
         <v>49</v>
@@ -14385,11 +15565,11 @@
       </c>
       <c r="F327" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F327" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D327,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G327" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G327" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D327,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H327" s="14" t="s">
         <v>49</v>
@@ -14415,11 +15595,11 @@
       </c>
       <c r="F328" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F328" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D328,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G328" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G328" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D328,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H328" s="14" t="s">
         <v>49</v>
@@ -14445,11 +15625,11 @@
       </c>
       <c r="F329" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F329" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D329,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G329" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G329" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D329,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H329" s="14" t="s">
         <v>49</v>
@@ -14475,11 +15655,11 @@
       </c>
       <c r="F330" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F330" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D330,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G330" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G330" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D330,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H330" s="18" t="s">
         <v>46</v>
@@ -14505,11 +15685,11 @@
       </c>
       <c r="F331" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F331" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D331,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G331" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G331" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D331,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H331" s="18" t="s">
         <v>46</v>
@@ -14535,11 +15715,11 @@
       </c>
       <c r="F332" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F332" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D332,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G332" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G332" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D332,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H332" s="18" t="s">
         <v>46</v>
@@ -14565,11 +15745,11 @@
       </c>
       <c r="F333" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F333" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D333,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G333" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G333" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D333,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H333" s="18" t="s">
         <v>46</v>
@@ -14595,11 +15775,11 @@
       </c>
       <c r="F334" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F334" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D334,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G334" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G334" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D334,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H334" s="18" t="s">
         <v>46</v>
@@ -14625,11 +15805,11 @@
       </c>
       <c r="F335" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F335" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D335,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G335" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G335" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D335,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H335" s="18" t="s">
         <v>46</v>
@@ -14715,11 +15895,11 @@
       </c>
       <c r="F338" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F338" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D338,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G338" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G338" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D338,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H338" s="14" t="s">
         <v>48</v>
@@ -14745,11 +15925,11 @@
       </c>
       <c r="F339" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F339" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D339,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G339" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G339" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D339,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H339" s="14" t="s">
         <v>48</v>
@@ -14775,11 +15955,11 @@
       </c>
       <c r="F340" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F340" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D340,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G340" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G340" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D340,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H340" s="14" t="s">
         <v>49</v>
@@ -14805,11 +15985,11 @@
       </c>
       <c r="F341" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F341" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D341,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G341" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G341" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D341,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H341" s="14" t="s">
         <v>49</v>
@@ -14835,11 +16015,11 @@
       </c>
       <c r="F342" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F342" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D342,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G342" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G342" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D342,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H342" s="14" t="s">
         <v>49</v>
@@ -14865,11 +16045,11 @@
       </c>
       <c r="F343" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F343" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D343,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G343" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G343" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D343,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H343" s="14" t="s">
         <v>49</v>
@@ -14895,11 +16075,11 @@
       </c>
       <c r="F344" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F344" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D344,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G344" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G344" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D344,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H344" s="18" t="s">
         <v>46</v>
@@ -14925,11 +16105,11 @@
       </c>
       <c r="F345" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F345" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D345,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G345" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G345" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D345,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H345" s="18" t="s">
         <v>46</v>
@@ -14955,11 +16135,11 @@
       </c>
       <c r="F346" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F346" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D346,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G346" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G346" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D346,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H346" s="18" t="s">
         <v>46</v>
@@ -14985,11 +16165,11 @@
       </c>
       <c r="F347" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F347" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D347,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G347" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G347" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D347,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H347" s="18" t="s">
         <v>46</v>
@@ -15015,11 +16195,11 @@
       </c>
       <c r="F348" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F348" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D348,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G348" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G348" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D348,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H348" s="18" t="s">
         <v>46</v>
@@ -15045,11 +16225,11 @@
       </c>
       <c r="F349" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F349" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D349,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G349" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G349" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D349,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H349" s="18" t="s">
         <v>46</v>
@@ -15135,11 +16315,11 @@
       </c>
       <c r="F352" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F352" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D352,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G352" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G352" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D352,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H352" s="14" t="s">
         <v>48</v>
@@ -15165,11 +16345,11 @@
       </c>
       <c r="F353" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F353" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D353,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G353" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G353" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D353,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H353" s="14" t="s">
         <v>48</v>
@@ -15195,11 +16375,11 @@
       </c>
       <c r="F354" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F354" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D354,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G354" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G354" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D354,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H354" s="14" t="s">
         <v>49</v>
@@ -15225,11 +16405,11 @@
       </c>
       <c r="F355" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F355" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D355,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G355" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G355" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D355,[1]欄位定義!$A:$A, 0))</f>
-        <v>TW</v>
+        <v>MACRO</v>
       </c>
       <c r="H355" s="14" t="s">
         <v>49</v>
@@ -15255,11 +16435,11 @@
       </c>
       <c r="F356" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F356" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D356,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G356" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G356" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D356,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H356" s="14" t="s">
         <v>49</v>
@@ -15285,11 +16465,11 @@
       </c>
       <c r="F357" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F357" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D357,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G357" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G357" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D357,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H357" s="14" t="s">
         <v>49</v>
@@ -15315,11 +16495,11 @@
       </c>
       <c r="F358" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F358" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D358,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G358" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G358" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D358,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H358" s="14" t="s">
         <v>47</v>
@@ -15345,11 +16525,11 @@
       </c>
       <c r="F359" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F359" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D359,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G359" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G359" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D359,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H359" s="14" t="s">
         <v>47</v>
@@ -15375,11 +16555,11 @@
       </c>
       <c r="F360" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F360" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D360,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G360" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G360" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D360,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H360" s="14" t="s">
         <v>47</v>
@@ -15405,11 +16585,11 @@
       </c>
       <c r="F361" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F361" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D361,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G361" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G361" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D361,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H361" s="14" t="s">
         <v>47</v>
@@ -15435,11 +16615,11 @@
       </c>
       <c r="F362" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F362" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D362,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G362" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G362" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D362,[1]欄位定義!$A:$A, 0))</f>
-        <v>US</v>
+        <v>MACRO</v>
       </c>
       <c r="H362" s="14" t="s">
         <v>47</v>
@@ -15465,11 +16645,11 @@
       </c>
       <c r="F363" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F363" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D363,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G363" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G363" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D363,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H363" s="14" t="s">
         <v>47</v>
@@ -15495,11 +16675,11 @@
       </c>
       <c r="F364" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="F364" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH(D364,[1]欄位定義!A:A, 0))</f>
-        <v>MACRO</v>
+        <v>ai_pd_historyprice</v>
       </c>
       <c r="G364" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="G364" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($D364,[1]欄位定義!$A:$A, 0))</f>
-        <v>CN</v>
+        <v>MACRO</v>
       </c>
       <c r="H364" s="14" t="s">
         <v>47</v>

--- a/_docs/target_feature_map.xlsx
+++ b/_docs/target_feature_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DF968E-279B-41B7-9A27-9913302202B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3325C1FC-2E75-46A5-B347-88DCCE9087F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="600" windowWidth="28710" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="標的列表" sheetId="8" r:id="rId1"/>
@@ -5756,7 +5756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A20B21-7A58-476E-A2E1-1A7FB48D904A}">
   <dimension ref="A1:N364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C364"/>
     </sheetView>
   </sheetViews>
@@ -5844,9 +5844,9 @@
         <f t="array" aca="1" ref="F2" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B2,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G2" s="16" cm="1">
+      <c r="G2" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B2,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>8</v>
@@ -5867,9 +5867,9 @@
         <f t="array" aca="1" ref="L2" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H2,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M2" s="14" cm="1">
+      <c r="M2" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H2,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>46</v>
@@ -5898,9 +5898,9 @@
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B3,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G3" s="16" cm="1">
+      <c r="G3" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B3,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>9</v>
@@ -5921,9 +5921,9 @@
         <f t="array" aca="1" ref="L3" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H3,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M3" s="14" cm="1">
+      <c r="M3" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H3,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>46</v>
@@ -5952,9 +5952,9 @@
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B4,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G4" s="16" cm="1">
+      <c r="G4" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B4,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>10</v>
@@ -5975,9 +5975,9 @@
         <f t="array" aca="1" ref="L4" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H4,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M4" s="14" cm="1">
+      <c r="M4" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H4,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>46</v>
@@ -6006,9 +6006,9 @@
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B5,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G5" s="16" cm="1">
+      <c r="G5" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B5,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>11</v>
@@ -6029,9 +6029,9 @@
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H5,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M5" s="14" cm="1">
+      <c r="M5" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H5,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>46</v>
@@ -6060,9 +6060,9 @@
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B6,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G6" s="16" cm="1">
+      <c r="G6" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B6,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>12</v>
@@ -6083,9 +6083,9 @@
         <f t="array" aca="1" ref="L6" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H6,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M6" s="14" cm="1">
+      <c r="M6" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H6,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>46</v>
@@ -6114,9 +6114,9 @@
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B7,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G7" s="16" cm="1">
+      <c r="G7" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B7,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>13</v>
@@ -6137,9 +6137,9 @@
         <f t="array" aca="1" ref="L7" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H7,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M7" s="14" cm="1">
+      <c r="M7" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H7,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>46</v>
@@ -6168,9 +6168,9 @@
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B8,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G8" s="16" cm="1">
+      <c r="G8" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B8,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>17</v>
@@ -6191,9 +6191,9 @@
         <f t="array" aca="1" ref="L8" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H8,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M8" s="14" cm="1">
+      <c r="M8" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H8,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>47</v>
@@ -6222,9 +6222,9 @@
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B9,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G9" s="16" cm="1">
+      <c r="G9" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B9,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>18</v>
@@ -6245,9 +6245,9 @@
         <f t="array" aca="1" ref="L9" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H9,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M9" s="14" cm="1">
+      <c r="M9" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H9,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>47</v>
@@ -6276,9 +6276,9 @@
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B10,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G10" s="16" cm="1">
+      <c r="G10" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B10,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>23</v>
@@ -6299,9 +6299,9 @@
         <f t="array" aca="1" ref="L10" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H10,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M10" s="14" cm="1">
+      <c r="M10" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H10,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>47</v>
@@ -6330,9 +6330,9 @@
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B11,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G11" s="16" cm="1">
+      <c r="G11" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B11,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>24</v>
@@ -6353,9 +6353,9 @@
         <f t="array" aca="1" ref="L11" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H11,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M11" s="14" cm="1">
+      <c r="M11" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H11,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>47</v>
@@ -6384,9 +6384,9 @@
         <f t="array" aca="1" ref="F12" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B12,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G12" s="16" cm="1">
+      <c r="G12" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B12,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>4</v>
@@ -6407,9 +6407,9 @@
         <f t="array" aca="1" ref="L12" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H12,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M12" s="14" cm="1">
+      <c r="M12" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H12,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>48</v>
@@ -6438,9 +6438,9 @@
         <f t="array" aca="1" ref="F13" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B13,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G13" s="16" cm="1">
+      <c r="G13" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B13,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>5</v>
@@ -6461,9 +6461,9 @@
         <f t="array" aca="1" ref="L13" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H13,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M13" s="14" cm="1">
+      <c r="M13" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H13,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>48</v>
@@ -6492,9 +6492,9 @@
         <f t="array" aca="1" ref="F14" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B14,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G14" s="16" cm="1">
+      <c r="G14" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B14,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>6</v>
@@ -6515,9 +6515,9 @@
         <f t="array" aca="1" ref="L14" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H14,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M14" s="14" cm="1">
+      <c r="M14" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H14,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>48</v>
@@ -6546,9 +6546,9 @@
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B15,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G15" s="16" cm="1">
+      <c r="G15" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B15,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>25</v>
@@ -6569,9 +6569,9 @@
         <f t="array" aca="1" ref="L15" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H15,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M15" s="14" cm="1">
+      <c r="M15" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H15,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>49</v>
@@ -6600,9 +6600,9 @@
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B16,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G16" s="16" cm="1">
+      <c r="G16" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B16,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>26</v>
@@ -6623,9 +6623,9 @@
         <f t="array" aca="1" ref="L16" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H16,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M16" s="14" cm="1">
+      <c r="M16" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H16,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>49</v>
@@ -6654,9 +6654,9 @@
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B17,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G17" s="16" cm="1">
+      <c r="G17" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B17,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>27</v>
@@ -6677,9 +6677,9 @@
         <f t="array" aca="1" ref="L17" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H17,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M17" s="14" cm="1">
+      <c r="M17" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H17,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>49</v>
@@ -6708,9 +6708,9 @@
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B18,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G18" s="16" cm="1">
+      <c r="G18" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B18,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>28</v>
@@ -6731,9 +6731,9 @@
         <f t="array" aca="1" ref="L18" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H18,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M18" s="14" cm="1">
+      <c r="M18" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H18,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>49</v>
@@ -6762,9 +6762,9 @@
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B19,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G19" s="16" cm="1">
+      <c r="G19" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B19,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>104</v>
@@ -6785,9 +6785,9 @@
         <f t="array" aca="1" ref="L19" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H19,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M19" s="14" cm="1">
+      <c r="M19" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H19,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>49</v>
@@ -6816,9 +6816,9 @@
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B20,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G20" s="16" cm="1">
+      <c r="G20" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B20,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>105</v>
@@ -6839,9 +6839,9 @@
         <f t="array" aca="1" ref="L20" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H20,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M20" s="14" cm="1">
+      <c r="M20" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H20,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>49</v>
@@ -6870,9 +6870,9 @@
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B21,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G21" s="16" cm="1">
+      <c r="G21" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B21,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>106</v>
@@ -6893,9 +6893,9 @@
         <f t="array" aca="1" ref="L21" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H21,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M21" s="14" cm="1">
+      <c r="M21" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H21,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N21" s="14" t="s">
         <v>49</v>
@@ -6924,9 +6924,9 @@
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B22,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G22" s="16" cm="1">
+      <c r="G22" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B22,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>107</v>
@@ -6947,9 +6947,9 @@
         <f t="array" aca="1" ref="L22" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H22,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M22" s="14" cm="1">
+      <c r="M22" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H22,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>49</v>
@@ -6978,9 +6978,9 @@
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B23,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G23" s="16" cm="1">
+      <c r="G23" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B23,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>108</v>
@@ -7001,9 +7001,9 @@
         <f t="array" aca="1" ref="L23" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H23,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M23" s="14" cm="1">
+      <c r="M23" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H23,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>49</v>
@@ -7032,9 +7032,9 @@
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B24,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G24" s="16" cm="1">
+      <c r="G24" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B24,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>109</v>
@@ -7055,9 +7055,9 @@
         <f t="array" aca="1" ref="L24" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H24,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M24" s="14" cm="1">
+      <c r="M24" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H24,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>49</v>
@@ -7086,9 +7086,9 @@
         <f t="array" aca="1" ref="F25" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B25,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G25" s="16" cm="1">
+      <c r="G25" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B25,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>110</v>
@@ -7109,9 +7109,9 @@
         <f t="array" aca="1" ref="L25" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H25,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M25" s="14" cm="1">
+      <c r="M25" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H25,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>49</v>
@@ -7140,9 +7140,9 @@
         <f t="array" aca="1" ref="F26" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B26,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G26" s="16" cm="1">
+      <c r="G26" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B26,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>111</v>
@@ -7163,9 +7163,9 @@
         <f t="array" aca="1" ref="L26" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H26,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M26" s="14" cm="1">
+      <c r="M26" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H26,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N26" s="14" t="s">
         <v>49</v>
@@ -7194,9 +7194,9 @@
         <f t="array" aca="1" ref="F27" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B27,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G27" s="16" cm="1">
+      <c r="G27" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B27,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>112</v>
@@ -7217,9 +7217,9 @@
         <f t="array" aca="1" ref="L27" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H27,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M27" s="14" cm="1">
+      <c r="M27" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H27,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N27" s="14" t="s">
         <v>49</v>
@@ -7248,9 +7248,9 @@
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B28,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G28" s="16" cm="1">
+      <c r="G28" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B28,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>113</v>
@@ -7271,9 +7271,9 @@
         <f t="array" aca="1" ref="L28" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H28,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M28" s="14" cm="1">
+      <c r="M28" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H28,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N28" s="14" t="s">
         <v>49</v>
@@ -7302,9 +7302,9 @@
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B29,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G29" s="16" cm="1">
+      <c r="G29" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B29,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>114</v>
@@ -7325,9 +7325,9 @@
         <f t="array" aca="1" ref="L29" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H29,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M29" s="14" cm="1">
+      <c r="M29" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H29,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N29" s="14" t="s">
         <v>49</v>
@@ -7356,9 +7356,9 @@
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B30,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G30" s="16" cm="1">
+      <c r="G30" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B30,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>115</v>
@@ -7379,9 +7379,9 @@
         <f t="array" aca="1" ref="L30" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H30,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M30" s="14" cm="1">
+      <c r="M30" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H30,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N30" s="14" t="s">
         <v>49</v>
@@ -7410,9 +7410,9 @@
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B31,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G31" s="16" cm="1">
+      <c r="G31" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B31,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>116</v>
@@ -7433,9 +7433,9 @@
         <f t="array" aca="1" ref="L31" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H31,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M31" s="14" cm="1">
+      <c r="M31" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H31,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>49</v>
@@ -7464,9 +7464,9 @@
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B32,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G32" s="16" cm="1">
+      <c r="G32" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B32,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>117</v>
@@ -7487,9 +7487,9 @@
         <f t="array" aca="1" ref="L32" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H32,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M32" s="14" cm="1">
+      <c r="M32" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H32,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N32" s="14" t="s">
         <v>49</v>
@@ -7518,9 +7518,9 @@
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B33,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G33" s="16" cm="1">
+      <c r="G33" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B33,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>118</v>
@@ -7541,9 +7541,9 @@
         <f t="array" aca="1" ref="L33" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H33,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M33" s="14" cm="1">
+      <c r="M33" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H33,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N33" s="14" t="s">
         <v>49</v>
@@ -7572,9 +7572,9 @@
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B34,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G34" s="16" cm="1">
+      <c r="G34" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B34,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>119</v>
@@ -7595,9 +7595,9 @@
         <f t="array" aca="1" ref="L34" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H34,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M34" s="14" cm="1">
+      <c r="M34" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H34,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N34" s="14" t="s">
         <v>49</v>
@@ -7626,9 +7626,9 @@
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B35,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G35" s="16" cm="1">
+      <c r="G35" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B35,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>120</v>
@@ -7649,9 +7649,9 @@
         <f t="array" aca="1" ref="L35" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H35,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M35" s="14" cm="1">
+      <c r="M35" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H35,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>49</v>
@@ -7680,9 +7680,9 @@
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B36,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G36" s="16" cm="1">
+      <c r="G36" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B36,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>121</v>
@@ -7703,9 +7703,9 @@
         <f t="array" aca="1" ref="L36" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H36,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M36" s="14" cm="1">
+      <c r="M36" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H36,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N36" s="14" t="s">
         <v>49</v>
@@ -7734,9 +7734,9 @@
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B37,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G37" s="16" cm="1">
+      <c r="G37" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B37,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>122</v>
@@ -7757,9 +7757,9 @@
         <f t="array" aca="1" ref="L37" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H37,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M37" s="14" cm="1">
+      <c r="M37" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H37,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N37" s="14" t="s">
         <v>49</v>
@@ -7788,9 +7788,9 @@
         <f t="array" aca="1" ref="F38" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B38,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G38" s="16" cm="1">
+      <c r="G38" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B38,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>123</v>
@@ -7811,9 +7811,9 @@
         <f t="array" aca="1" ref="L38" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H38,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M38" s="14" cm="1">
+      <c r="M38" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H38,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N38" s="14" t="s">
         <v>49</v>
@@ -7842,9 +7842,9 @@
         <f t="array" aca="1" ref="F39" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B39,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G39" s="16" cm="1">
+      <c r="G39" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B39,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>124</v>
@@ -7865,9 +7865,9 @@
         <f t="array" aca="1" ref="L39" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H39,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M39" s="14" cm="1">
+      <c r="M39" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H39,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N39" s="14" t="s">
         <v>49</v>
@@ -7896,9 +7896,9 @@
         <f t="array" aca="1" ref="F40" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B40,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G40" s="16" cm="1">
+      <c r="G40" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B40,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H40" s="19" t="s">
         <v>125</v>
@@ -7919,9 +7919,9 @@
         <f t="array" aca="1" ref="L40" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H40,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M40" s="14" cm="1">
+      <c r="M40" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H40,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N40" s="14" t="s">
         <v>49</v>
@@ -7950,9 +7950,9 @@
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B41,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G41" s="16" cm="1">
+      <c r="G41" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B41,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>126</v>
@@ -7973,9 +7973,9 @@
         <f t="array" aca="1" ref="L41" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H41,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M41" s="14" cm="1">
+      <c r="M41" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H41,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N41" s="14" t="s">
         <v>49</v>
@@ -8004,9 +8004,9 @@
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B42,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G42" s="16" cm="1">
+      <c r="G42" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B42,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>127</v>
@@ -8027,9 +8027,9 @@
         <f t="array" aca="1" ref="L42" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H42,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M42" s="14" cm="1">
+      <c r="M42" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H42,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N42" s="14" t="s">
         <v>49</v>
@@ -8058,9 +8058,9 @@
         <f t="array" aca="1" ref="F43" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B43,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G43" s="16" cm="1">
+      <c r="G43" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B43,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>128</v>
@@ -8081,9 +8081,9 @@
         <f t="array" aca="1" ref="L43" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H43,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M43" s="14" cm="1">
+      <c r="M43" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H43,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N43" s="14" t="s">
         <v>49</v>
@@ -8112,9 +8112,9 @@
         <f t="array" aca="1" ref="F44" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B44,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G44" s="16" cm="1">
+      <c r="G44" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B44,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>129</v>
@@ -8135,9 +8135,9 @@
         <f t="array" aca="1" ref="L44" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H44,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M44" s="14" cm="1">
+      <c r="M44" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H44,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N44" s="14" t="s">
         <v>49</v>
@@ -8166,9 +8166,9 @@
         <f t="array" aca="1" ref="F45" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B45,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G45" s="16" cm="1">
+      <c r="G45" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B45,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>130</v>
@@ -8189,9 +8189,9 @@
         <f t="array" aca="1" ref="L45" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H45,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M45" s="14" cm="1">
+      <c r="M45" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H45,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N45" s="14" t="s">
         <v>49</v>
@@ -8220,9 +8220,9 @@
         <f t="array" aca="1" ref="F46" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B46,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G46" s="16" cm="1">
+      <c r="G46" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B46,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>131</v>
@@ -8243,9 +8243,9 @@
         <f t="array" aca="1" ref="L46" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H46,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M46" s="14" cm="1">
+      <c r="M46" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H46,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N46" s="14" t="s">
         <v>49</v>
@@ -8274,9 +8274,9 @@
         <f t="array" aca="1" ref="F47" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B47,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G47" s="16" cm="1">
+      <c r="G47" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B47,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>75</v>
@@ -8297,9 +8297,9 @@
         <f t="array" aca="1" ref="L47" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H47,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M47" s="14" cm="1">
+      <c r="M47" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H47,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N47" s="14" t="s">
         <v>49</v>
@@ -8328,9 +8328,9 @@
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B48,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G48" s="16" cm="1">
+      <c r="G48" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B48,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H48" s="19" t="s">
         <v>76</v>
@@ -8351,9 +8351,9 @@
         <f t="array" aca="1" ref="L48" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H48,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M48" s="14" cm="1">
+      <c r="M48" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M48" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H48,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N48" s="14" t="s">
         <v>49</v>
@@ -8382,9 +8382,9 @@
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B49,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G49" s="16" cm="1">
+      <c r="G49" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B49,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H49" s="19" t="s">
         <v>77</v>
@@ -8405,9 +8405,9 @@
         <f t="array" aca="1" ref="L49" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H49,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M49" s="14" cm="1">
+      <c r="M49" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M49" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H49,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N49" s="14" t="s">
         <v>49</v>
@@ -8436,9 +8436,9 @@
         <f t="array" aca="1" ref="F50" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B50,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G50" s="16" cm="1">
+      <c r="G50" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B50,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H50" s="19" t="s">
         <v>78</v>
@@ -8459,9 +8459,9 @@
         <f t="array" aca="1" ref="L50" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H50,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M50" s="14" cm="1">
+      <c r="M50" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M50" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H50,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N50" s="14" t="s">
         <v>49</v>
@@ -8490,9 +8490,9 @@
         <f t="array" aca="1" ref="F51" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B51,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G51" s="16" cm="1">
+      <c r="G51" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B51,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H51" s="19" t="s">
         <v>79</v>
@@ -8513,9 +8513,9 @@
         <f t="array" aca="1" ref="L51" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H51,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M51" s="14" cm="1">
+      <c r="M51" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M51" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H51,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N51" s="14" t="s">
         <v>49</v>
@@ -8544,9 +8544,9 @@
         <f t="array" aca="1" ref="F52" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B52,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G52" s="16" cm="1">
+      <c r="G52" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B52,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>80</v>
@@ -8567,9 +8567,9 @@
         <f t="array" aca="1" ref="L52" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H52,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M52" s="14" cm="1">
+      <c r="M52" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M52" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H52,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N52" s="14" t="s">
         <v>49</v>
@@ -8598,9 +8598,9 @@
         <f t="array" aca="1" ref="F53" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B53,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G53" s="16" cm="1">
+      <c r="G53" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B53,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>81</v>
@@ -8621,9 +8621,9 @@
         <f t="array" aca="1" ref="L53" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H53,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M53" s="14" cm="1">
+      <c r="M53" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M53" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H53,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N53" s="14" t="s">
         <v>49</v>
@@ -8652,9 +8652,9 @@
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B54,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G54" s="16" cm="1">
+      <c r="G54" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B54,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>82</v>
@@ -8675,9 +8675,9 @@
         <f t="array" aca="1" ref="L54" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H54,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M54" s="14" cm="1">
+      <c r="M54" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M54" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H54,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N54" s="14" t="s">
         <v>49</v>
@@ -8706,9 +8706,9 @@
         <f t="array" aca="1" ref="F55" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B55,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G55" s="16" cm="1">
+      <c r="G55" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B55,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>83</v>
@@ -8729,9 +8729,9 @@
         <f t="array" aca="1" ref="L55" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H55,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M55" s="14" cm="1">
+      <c r="M55" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M55" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H55,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N55" s="14" t="s">
         <v>49</v>
@@ -8760,9 +8760,9 @@
         <f t="array" aca="1" ref="F56" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B56,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G56" s="16" cm="1">
+      <c r="G56" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B56,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>84</v>
@@ -8783,9 +8783,9 @@
         <f t="array" aca="1" ref="L56" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H56,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M56" s="14" cm="1">
+      <c r="M56" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M56" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H56,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N56" s="14" t="s">
         <v>49</v>
@@ -8814,9 +8814,9 @@
         <f t="array" aca="1" ref="F57" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B57,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G57" s="16" cm="1">
+      <c r="G57" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B57,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H57" s="19" t="s">
         <v>85</v>
@@ -8837,9 +8837,9 @@
         <f t="array" aca="1" ref="L57" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H57,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M57" s="14" cm="1">
+      <c r="M57" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H57,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N57" s="14" t="s">
         <v>49</v>
@@ -8868,9 +8868,9 @@
         <f t="array" aca="1" ref="F58" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B58,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G58" s="16" cm="1">
+      <c r="G58" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B58,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>86</v>
@@ -8891,9 +8891,9 @@
         <f t="array" aca="1" ref="L58" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H58,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M58" s="14" cm="1">
+      <c r="M58" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M58" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H58,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N58" s="14" t="s">
         <v>49</v>
@@ -8922,9 +8922,9 @@
         <f t="array" aca="1" ref="F59" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B59,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G59" s="16" cm="1">
+      <c r="G59" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B59,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>87</v>
@@ -8945,9 +8945,9 @@
         <f t="array" aca="1" ref="L59" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H59,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M59" s="14" cm="1">
+      <c r="M59" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M59" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H59,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N59" s="14" t="s">
         <v>49</v>
@@ -8976,9 +8976,9 @@
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B60,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G60" s="16" cm="1">
+      <c r="G60" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B60,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>88</v>
@@ -8999,9 +8999,9 @@
         <f t="array" aca="1" ref="L60" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H60,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M60" s="14" cm="1">
+      <c r="M60" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M60" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H60,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N60" s="14" t="s">
         <v>49</v>
@@ -9030,9 +9030,9 @@
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B61,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G61" s="16" cm="1">
+      <c r="G61" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B61,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>89</v>
@@ -9053,9 +9053,9 @@
         <f t="array" aca="1" ref="L61" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H61,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M61" s="14" cm="1">
+      <c r="M61" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M61" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H61,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N61" s="14" t="s">
         <v>49</v>
@@ -9084,9 +9084,9 @@
         <f t="array" aca="1" ref="F62" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B62,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G62" s="16" cm="1">
+      <c r="G62" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B62,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>90</v>
@@ -9107,9 +9107,9 @@
         <f t="array" aca="1" ref="L62" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H62,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M62" s="14" cm="1">
+      <c r="M62" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M62" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H62,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N62" s="14" t="s">
         <v>49</v>
@@ -9138,9 +9138,9 @@
         <f t="array" aca="1" ref="F63" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B63,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G63" s="16" cm="1">
+      <c r="G63" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B63,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>91</v>
@@ -9161,9 +9161,9 @@
         <f t="array" aca="1" ref="L63" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H63,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M63" s="14" cm="1">
+      <c r="M63" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M63" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H63,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N63" s="14" t="s">
         <v>49</v>
@@ -9192,9 +9192,9 @@
         <f t="array" aca="1" ref="F64" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B64,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G64" s="16" cm="1">
+      <c r="G64" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B64,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>92</v>
@@ -9215,9 +9215,9 @@
         <f t="array" aca="1" ref="L64" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H64,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M64" s="14" cm="1">
+      <c r="M64" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M64" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H64,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N64" s="14" t="s">
         <v>49</v>
@@ -9246,9 +9246,9 @@
         <f t="array" aca="1" ref="F65" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B65,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G65" s="16" cm="1">
+      <c r="G65" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G65" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B65,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>93</v>
@@ -9269,9 +9269,9 @@
         <f t="array" aca="1" ref="L65" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H65,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M65" s="14" cm="1">
+      <c r="M65" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M65" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H65,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N65" s="14" t="s">
         <v>49</v>
@@ -9300,9 +9300,9 @@
         <f t="array" aca="1" ref="F66" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B66,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G66" s="16" cm="1">
+      <c r="G66" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G66" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B66,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>94</v>
@@ -9323,9 +9323,9 @@
         <f t="array" aca="1" ref="L66" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H66,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M66" s="14" cm="1">
+      <c r="M66" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M66" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H66,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N66" s="14" t="s">
         <v>49</v>
@@ -9354,9 +9354,9 @@
         <f t="array" aca="1" ref="F67" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B67,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G67" s="16" cm="1">
+      <c r="G67" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B67,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H67" s="19" t="s">
         <v>95</v>
@@ -9377,9 +9377,9 @@
         <f t="array" aca="1" ref="L67" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H67,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M67" s="14" cm="1">
+      <c r="M67" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M67" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H67,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N67" s="14" t="s">
         <v>49</v>
@@ -9408,9 +9408,9 @@
         <f t="array" aca="1" ref="F68" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B68,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G68" s="16" cm="1">
+      <c r="G68" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B68,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H68" s="19" t="s">
         <v>96</v>
@@ -9431,9 +9431,9 @@
         <f t="array" aca="1" ref="L68" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H68,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M68" s="14" cm="1">
+      <c r="M68" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M68" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H68,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N68" s="14" t="s">
         <v>49</v>
@@ -9462,9 +9462,9 @@
         <f t="array" aca="1" ref="F69" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B69,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G69" s="16" cm="1">
+      <c r="G69" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B69,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H69" s="19" t="s">
         <v>97</v>
@@ -9485,9 +9485,9 @@
         <f t="array" aca="1" ref="L69" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H69,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M69" s="14" cm="1">
+      <c r="M69" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M69" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H69,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N69" s="14" t="s">
         <v>49</v>
@@ -9516,9 +9516,9 @@
         <f t="array" aca="1" ref="F70" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B70,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G70" s="16" cm="1">
+      <c r="G70" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B70,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H70" s="19" t="s">
         <v>98</v>
@@ -9539,9 +9539,9 @@
         <f t="array" aca="1" ref="L70" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H70,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M70" s="14" cm="1">
+      <c r="M70" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M70" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H70,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N70" s="14" t="s">
         <v>49</v>
@@ -9570,9 +9570,9 @@
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B71,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G71" s="16" cm="1">
+      <c r="G71" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B71,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H71" s="19" t="s">
         <v>99</v>
@@ -9593,9 +9593,9 @@
         <f t="array" aca="1" ref="L71" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H71,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M71" s="14" cm="1">
+      <c r="M71" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M71" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H71,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N71" s="14" t="s">
         <v>49</v>
@@ -9624,9 +9624,9 @@
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B72,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G72" s="16" cm="1">
+      <c r="G72" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B72,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H72" s="19" t="s">
         <v>100</v>
@@ -9647,9 +9647,9 @@
         <f t="array" aca="1" ref="L72" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H72,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M72" s="14" cm="1">
+      <c r="M72" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M72" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H72,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N72" s="14" t="s">
         <v>49</v>
@@ -9678,9 +9678,9 @@
         <f t="array" aca="1" ref="F73" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B73,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G73" s="16" cm="1">
+      <c r="G73" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B73,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H73" s="19" t="s">
         <v>101</v>
@@ -9701,9 +9701,9 @@
         <f t="array" aca="1" ref="L73" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H73,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M73" s="14" cm="1">
+      <c r="M73" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M73" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H73,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N73" s="14" t="s">
         <v>49</v>
@@ -9732,9 +9732,9 @@
         <f t="array" aca="1" ref="F74" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B74,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G74" s="16" cm="1">
+      <c r="G74" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B74,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H74" s="19" t="s">
         <v>102</v>
@@ -9755,9 +9755,9 @@
         <f t="array" aca="1" ref="L74" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H74,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M74" s="14" cm="1">
+      <c r="M74" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M74" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H74,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N74" s="14" t="s">
         <v>49</v>
@@ -9786,9 +9786,9 @@
         <f t="array" aca="1" ref="F75" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B75,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G75" s="16" cm="1">
+      <c r="G75" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B75,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H75" s="19" t="s">
         <v>0</v>
@@ -9809,9 +9809,9 @@
         <f t="array" aca="1" ref="L75" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H75,[1]欄位定義!$A:$A, 0))</f>
         <v>EGY</v>
       </c>
-      <c r="M75" s="14" cm="1">
+      <c r="M75" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M75" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H75,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N75" s="14" t="s">
         <v>50</v>
@@ -9840,9 +9840,9 @@
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B76,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G76" s="16" cm="1">
+      <c r="G76" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B76,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H76" s="19" t="s">
         <v>1</v>
@@ -9863,9 +9863,9 @@
         <f t="array" aca="1" ref="L76" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H76,[1]欄位定義!$A:$A, 0))</f>
         <v>STB</v>
       </c>
-      <c r="M76" s="14" cm="1">
+      <c r="M76" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M76" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H76,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N76" s="14" t="s">
         <v>50</v>
@@ -9894,9 +9894,9 @@
         <f t="array" aca="1" ref="F77" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B77,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G77" s="16" cm="1">
+      <c r="G77" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G77" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B77,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H77" s="19" t="s">
         <v>2</v>
@@ -9917,9 +9917,9 @@
         <f t="array" aca="1" ref="L77" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H77,[1]欄位定義!$A:$A, 0))</f>
         <v>STB</v>
       </c>
-      <c r="M77" s="14" cm="1">
+      <c r="M77" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M77" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H77,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N77" s="14" t="s">
         <v>50</v>
@@ -9948,9 +9948,9 @@
         <f t="array" aca="1" ref="F78" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B78,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G78" s="16" cm="1">
+      <c r="G78" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G78" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B78,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H78" s="19" t="s">
         <v>3</v>
@@ -9971,9 +9971,9 @@
         <f t="array" aca="1" ref="L78" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H78,[1]欄位定義!$A:$A, 0))</f>
         <v>STB</v>
       </c>
-      <c r="M78" s="14" cm="1">
+      <c r="M78" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M78" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H78,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N78" s="14" t="s">
         <v>50</v>
@@ -10002,9 +10002,9 @@
         <f t="array" aca="1" ref="F79" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B79,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G79" s="16" cm="1">
+      <c r="G79" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G79" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B79,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H79" s="19" t="s">
         <v>16</v>
@@ -10025,9 +10025,9 @@
         <f t="array" aca="1" ref="L79" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H79,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M79" s="14" cm="1">
+      <c r="M79" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M79" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H79,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N79" s="14" t="s">
         <v>50</v>
@@ -10056,9 +10056,9 @@
         <f t="array" aca="1" ref="F80" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B80,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G80" s="16" cm="1">
+      <c r="G80" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B80,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>22</v>
@@ -10079,9 +10079,9 @@
         <f t="array" aca="1" ref="L80" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H80,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M80" s="14" cm="1">
+      <c r="M80" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M80" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H80,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N80" s="14" t="s">
         <v>50</v>
@@ -10110,9 +10110,9 @@
         <f t="array" aca="1" ref="F81" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B81,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G81" s="16" cm="1">
+      <c r="G81" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B81,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H81" s="19" t="s">
         <v>31</v>
@@ -10133,9 +10133,9 @@
         <f t="array" aca="1" ref="L81" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H81,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M81" s="14" cm="1">
+      <c r="M81" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M81" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H81,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N81" s="14" t="s">
         <v>50</v>
@@ -10164,9 +10164,9 @@
         <f t="array" aca="1" ref="F82" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B82,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G82" s="16" cm="1">
+      <c r="G82" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B82,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H82" s="19" t="s">
         <v>32</v>
@@ -10187,9 +10187,9 @@
         <f t="array" aca="1" ref="L82" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H82,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M82" s="14" cm="1">
+      <c r="M82" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M82" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H82,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N82" s="14" t="s">
         <v>50</v>
@@ -10218,9 +10218,9 @@
         <f t="array" aca="1" ref="F83" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B83,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G83" s="16" cm="1">
+      <c r="G83" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B83,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H83" s="19" t="s">
         <v>33</v>
@@ -10241,9 +10241,9 @@
         <f t="array" aca="1" ref="L83" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H83,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M83" s="14" cm="1">
+      <c r="M83" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M83" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H83,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N83" s="14" t="s">
         <v>50</v>
@@ -10272,9 +10272,9 @@
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B84,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G84" s="16" cm="1">
+      <c r="G84" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B84,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H84" s="19" t="s">
         <v>7</v>
@@ -10295,9 +10295,9 @@
         <f t="array" aca="1" ref="L84" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H84,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M84" s="14" cm="1">
+      <c r="M84" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M84" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H84,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N84" s="14" t="s">
         <v>51</v>
@@ -10326,9 +10326,9 @@
         <f t="array" aca="1" ref="F85" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B85,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G85" s="16" cm="1">
+      <c r="G85" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B85,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H85" s="19" t="s">
         <v>14</v>
@@ -10349,9 +10349,9 @@
         <f t="array" aca="1" ref="L85" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H85,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M85" s="14" cm="1">
+      <c r="M85" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M85" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H85,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N85" s="14" t="s">
         <v>51</v>
@@ -10380,9 +10380,9 @@
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B86,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G86" s="16" cm="1">
+      <c r="G86" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B86,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H86" s="19" t="s">
         <v>15</v>
@@ -10403,9 +10403,9 @@
         <f t="array" aca="1" ref="L86" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H86,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M86" s="14" cm="1">
+      <c r="M86" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M86" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H86,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N86" s="14" t="s">
         <v>51</v>
@@ -10434,9 +10434,9 @@
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B87,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G87" s="16" cm="1">
+      <c r="G87" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B87,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H87" s="19" t="s">
         <v>20</v>
@@ -10457,9 +10457,9 @@
         <f t="array" aca="1" ref="L87" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H87,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M87" s="14" cm="1">
+      <c r="M87" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M87" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H87,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N87" s="14" t="s">
         <v>51</v>
@@ -10488,9 +10488,9 @@
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B88,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G88" s="16" cm="1">
+      <c r="G88" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B88,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H88" s="19" t="s">
         <v>21</v>
@@ -10511,9 +10511,9 @@
         <f t="array" aca="1" ref="L88" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H88,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M88" s="14" cm="1">
+      <c r="M88" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M88" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H88,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N88" s="14" t="s">
         <v>51</v>
@@ -10542,9 +10542,9 @@
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B89,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G89" s="16" cm="1">
+      <c r="G89" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B89,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H89" s="20" t="s">
         <v>38</v>
@@ -10565,9 +10565,9 @@
         <f t="array" aca="1" ref="L89" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H89,[1]欄位定義!$A:$A, 0))</f>
         <v>SF</v>
       </c>
-      <c r="M89" s="14" cm="1">
+      <c r="M89" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M89" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H89,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N89" s="14" t="s">
         <v>52</v>
@@ -10596,9 +10596,9 @@
         <f t="array" aca="1" ref="F90" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B90,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G90" s="16" cm="1">
+      <c r="G90" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G90" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B90,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H90" s="19" t="s">
         <v>8</v>
@@ -10619,9 +10619,9 @@
         <f t="array" aca="1" ref="L90" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H90,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M90" s="14" cm="1">
+      <c r="M90" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M90" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H90,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N90" s="18" t="s">
         <v>46</v>
@@ -10650,9 +10650,9 @@
         <f t="array" aca="1" ref="F91" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B91,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G91" s="16" cm="1">
+      <c r="G91" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G91" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B91,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H91" s="19" t="s">
         <v>9</v>
@@ -10673,9 +10673,9 @@
         <f t="array" aca="1" ref="L91" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H91,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M91" s="14" cm="1">
+      <c r="M91" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M91" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H91,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N91" s="18" t="s">
         <v>46</v>
@@ -10704,9 +10704,9 @@
         <f t="array" aca="1" ref="F92" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B92,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G92" s="16" cm="1">
+      <c r="G92" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G92" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B92,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H92" s="19" t="s">
         <v>10</v>
@@ -10727,9 +10727,9 @@
         <f t="array" aca="1" ref="L92" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H92,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M92" s="14" cm="1">
+      <c r="M92" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M92" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H92,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N92" s="18" t="s">
         <v>46</v>
@@ -10758,9 +10758,9 @@
         <f t="array" aca="1" ref="F93" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B93,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G93" s="16" cm="1">
+      <c r="G93" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B93,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H93" s="19" t="s">
         <v>11</v>
@@ -10781,9 +10781,9 @@
         <f t="array" aca="1" ref="L93" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H93,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M93" s="14" cm="1">
+      <c r="M93" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M93" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H93,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N93" s="18" t="s">
         <v>46</v>
@@ -10812,9 +10812,9 @@
         <f t="array" aca="1" ref="F94" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B94,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G94" s="16" cm="1">
+      <c r="G94" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B94,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H94" s="19" t="s">
         <v>12</v>
@@ -10835,9 +10835,9 @@
         <f t="array" aca="1" ref="L94" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H94,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M94" s="14" cm="1">
+      <c r="M94" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M94" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H94,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N94" s="18" t="s">
         <v>46</v>
@@ -10866,9 +10866,9 @@
         <f t="array" aca="1" ref="F95" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B95,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G95" s="16" cm="1">
+      <c r="G95" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B95,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H95" s="19" t="s">
         <v>13</v>
@@ -10889,9 +10889,9 @@
         <f t="array" aca="1" ref="L95" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H95,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M95" s="14" cm="1">
+      <c r="M95" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M95" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H95,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N95" s="18" t="s">
         <v>46</v>
@@ -10920,9 +10920,9 @@
         <f t="array" aca="1" ref="F96" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B96,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G96" s="16" cm="1">
+      <c r="G96" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B96,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H96" s="19" t="s">
         <v>17</v>
@@ -10943,9 +10943,9 @@
         <f t="array" aca="1" ref="L96" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H96,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M96" s="14" cm="1">
+      <c r="M96" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M96" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H96,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N96" s="14" t="s">
         <v>47</v>
@@ -10974,9 +10974,9 @@
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B97,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G97" s="16" cm="1">
+      <c r="G97" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B97,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H97" s="19" t="s">
         <v>18</v>
@@ -10997,9 +10997,9 @@
         <f t="array" aca="1" ref="L97" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H97,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M97" s="14" cm="1">
+      <c r="M97" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M97" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H97,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N97" s="14" t="s">
         <v>47</v>
@@ -11028,9 +11028,9 @@
         <f t="array" aca="1" ref="F98" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B98,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G98" s="16" cm="1">
+      <c r="G98" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B98,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H98" s="19" t="s">
         <v>23</v>
@@ -11051,9 +11051,9 @@
         <f t="array" aca="1" ref="L98" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H98,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M98" s="14" cm="1">
+      <c r="M98" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M98" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H98,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N98" s="14" t="s">
         <v>47</v>
@@ -11082,9 +11082,9 @@
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B99,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G99" s="16" cm="1">
+      <c r="G99" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B99,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H99" s="19" t="s">
         <v>24</v>
@@ -11105,9 +11105,9 @@
         <f t="array" aca="1" ref="L99" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H99,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M99" s="14" cm="1">
+      <c r="M99" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M99" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H99,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N99" s="14" t="s">
         <v>47</v>
@@ -11136,9 +11136,9 @@
         <f t="array" aca="1" ref="F100" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B100,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G100" s="16" cm="1">
+      <c r="G100" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B100,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H100" s="19" t="s">
         <v>4</v>
@@ -11159,9 +11159,9 @@
         <f t="array" aca="1" ref="L100" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H100,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M100" s="14" cm="1">
+      <c r="M100" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M100" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H100,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N100" s="14" t="s">
         <v>48</v>
@@ -11190,9 +11190,9 @@
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B101,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G101" s="16" cm="1">
+      <c r="G101" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B101,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H101" s="19" t="s">
         <v>5</v>
@@ -11213,9 +11213,9 @@
         <f t="array" aca="1" ref="L101" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H101,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M101" s="14" cm="1">
+      <c r="M101" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M101" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H101,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N101" s="14" t="s">
         <v>48</v>
@@ -11244,9 +11244,9 @@
         <f t="array" aca="1" ref="F102" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B102,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G102" s="16" cm="1">
+      <c r="G102" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B102,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H102" s="19" t="s">
         <v>6</v>
@@ -11267,9 +11267,9 @@
         <f t="array" aca="1" ref="L102" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H102,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M102" s="14" cm="1">
+      <c r="M102" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M102" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H102,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N102" s="14" t="s">
         <v>48</v>
@@ -11298,9 +11298,9 @@
         <f t="array" aca="1" ref="F103" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B103,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G103" s="16" cm="1">
+      <c r="G103" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B103,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H103" s="19" t="s">
         <v>25</v>
@@ -11321,9 +11321,9 @@
         <f t="array" aca="1" ref="L103" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H103,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M103" s="14" cm="1">
+      <c r="M103" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M103" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H103,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N103" s="14" t="s">
         <v>49</v>
@@ -11352,9 +11352,9 @@
         <f t="array" aca="1" ref="F104" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B104,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G104" s="16" cm="1">
+      <c r="G104" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G104" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B104,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H104" s="19" t="s">
         <v>26</v>
@@ -11375,9 +11375,9 @@
         <f t="array" aca="1" ref="L104" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H104,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M104" s="14" cm="1">
+      <c r="M104" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M104" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H104,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N104" s="14" t="s">
         <v>49</v>
@@ -11406,9 +11406,9 @@
         <f t="array" aca="1" ref="F105" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B105,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G105" s="16" cm="1">
+      <c r="G105" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G105" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B105,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H105" s="19" t="s">
         <v>27</v>
@@ -11429,9 +11429,9 @@
         <f t="array" aca="1" ref="L105" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H105,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M105" s="14" cm="1">
+      <c r="M105" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M105" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H105,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N105" s="14" t="s">
         <v>49</v>
@@ -11460,9 +11460,9 @@
         <f t="array" aca="1" ref="F106" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B106,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G106" s="16" cm="1">
+      <c r="G106" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B106,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H106" s="19" t="s">
         <v>28</v>
@@ -11483,9 +11483,9 @@
         <f t="array" aca="1" ref="L106" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H106,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M106" s="14" cm="1">
+      <c r="M106" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M106" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H106,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N106" s="14" t="s">
         <v>49</v>
@@ -11514,9 +11514,9 @@
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B107,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G107" s="16" cm="1">
+      <c r="G107" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B107,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H107" s="19" t="s">
         <v>104</v>
@@ -11537,9 +11537,9 @@
         <f t="array" aca="1" ref="L107" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H107,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M107" s="14" cm="1">
+      <c r="M107" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M107" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H107,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N107" s="14" t="s">
         <v>49</v>
@@ -11568,9 +11568,9 @@
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B108,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G108" s="16" cm="1">
+      <c r="G108" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B108,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H108" s="19" t="s">
         <v>105</v>
@@ -11591,9 +11591,9 @@
         <f t="array" aca="1" ref="L108" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H108,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M108" s="14" cm="1">
+      <c r="M108" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M108" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H108,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N108" s="14" t="s">
         <v>49</v>
@@ -11622,9 +11622,9 @@
         <f t="array" aca="1" ref="F109" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B109,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G109" s="16" cm="1">
+      <c r="G109" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B109,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>106</v>
@@ -11645,9 +11645,9 @@
         <f t="array" aca="1" ref="L109" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H109,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M109" s="14" cm="1">
+      <c r="M109" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M109" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H109,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N109" s="14" t="s">
         <v>49</v>
@@ -11676,9 +11676,9 @@
         <f t="array" aca="1" ref="F110" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B110,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G110" s="16" cm="1">
+      <c r="G110" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B110,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H110" s="19" t="s">
         <v>107</v>
@@ -11699,9 +11699,9 @@
         <f t="array" aca="1" ref="L110" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H110,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M110" s="14" cm="1">
+      <c r="M110" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M110" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H110,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N110" s="14" t="s">
         <v>49</v>
@@ -11730,9 +11730,9 @@
         <f t="array" aca="1" ref="F111" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B111,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G111" s="16" cm="1">
+      <c r="G111" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B111,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>108</v>
@@ -11753,9 +11753,9 @@
         <f t="array" aca="1" ref="L111" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H111,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M111" s="14" cm="1">
+      <c r="M111" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M111" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H111,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N111" s="14" t="s">
         <v>49</v>
@@ -11784,9 +11784,9 @@
         <f t="array" aca="1" ref="F112" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B112,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G112" s="16" cm="1">
+      <c r="G112" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B112,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H112" s="19" t="s">
         <v>109</v>
@@ -11807,9 +11807,9 @@
         <f t="array" aca="1" ref="L112" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H112,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M112" s="14" cm="1">
+      <c r="M112" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M112" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H112,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N112" s="14" t="s">
         <v>49</v>
@@ -11838,9 +11838,9 @@
         <f t="array" aca="1" ref="F113" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B113,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G113" s="16" cm="1">
+      <c r="G113" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B113,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>110</v>
@@ -11861,9 +11861,9 @@
         <f t="array" aca="1" ref="L113" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H113,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M113" s="14" cm="1">
+      <c r="M113" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M113" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H113,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N113" s="14" t="s">
         <v>49</v>
@@ -11892,9 +11892,9 @@
         <f t="array" aca="1" ref="F114" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B114,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G114" s="16" cm="1">
+      <c r="G114" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B114,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H114" s="19" t="s">
         <v>111</v>
@@ -11915,9 +11915,9 @@
         <f t="array" aca="1" ref="L114" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H114,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M114" s="14" cm="1">
+      <c r="M114" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M114" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H114,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N114" s="14" t="s">
         <v>49</v>
@@ -11946,9 +11946,9 @@
         <f t="array" aca="1" ref="F115" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B115,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G115" s="16" cm="1">
+      <c r="G115" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B115,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H115" s="19" t="s">
         <v>112</v>
@@ -11969,9 +11969,9 @@
         <f t="array" aca="1" ref="L115" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H115,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M115" s="14" cm="1">
+      <c r="M115" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M115" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H115,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N115" s="14" t="s">
         <v>49</v>
@@ -12000,9 +12000,9 @@
         <f t="array" aca="1" ref="F116" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B116,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G116" s="16" cm="1">
+      <c r="G116" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G116" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B116,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H116" s="19" t="s">
         <v>113</v>
@@ -12023,9 +12023,9 @@
         <f t="array" aca="1" ref="L116" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H116,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M116" s="14" cm="1">
+      <c r="M116" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M116" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H116,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N116" s="14" t="s">
         <v>49</v>
@@ -12054,9 +12054,9 @@
         <f t="array" aca="1" ref="F117" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B117,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G117" s="16" cm="1">
+      <c r="G117" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G117" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B117,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>114</v>
@@ -12077,9 +12077,9 @@
         <f t="array" aca="1" ref="L117" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H117,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M117" s="14" cm="1">
+      <c r="M117" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M117" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H117,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N117" s="14" t="s">
         <v>49</v>
@@ -12108,9 +12108,9 @@
         <f t="array" aca="1" ref="F118" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B118,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G118" s="16" cm="1">
+      <c r="G118" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G118" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B118,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H118" s="19" t="s">
         <v>115</v>
@@ -12131,9 +12131,9 @@
         <f t="array" aca="1" ref="L118" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H118,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M118" s="14" cm="1">
+      <c r="M118" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M118" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H118,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N118" s="14" t="s">
         <v>49</v>
@@ -12162,9 +12162,9 @@
         <f t="array" aca="1" ref="F119" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B119,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G119" s="16" cm="1">
+      <c r="G119" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G119" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B119,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H119" s="19" t="s">
         <v>116</v>
@@ -12185,9 +12185,9 @@
         <f t="array" aca="1" ref="L119" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H119,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M119" s="14" cm="1">
+      <c r="M119" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M119" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H119,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N119" s="14" t="s">
         <v>49</v>
@@ -12216,9 +12216,9 @@
         <f t="array" aca="1" ref="F120" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B120,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G120" s="16" cm="1">
+      <c r="G120" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G120" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B120,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H120" s="19" t="s">
         <v>117</v>
@@ -12239,9 +12239,9 @@
         <f t="array" aca="1" ref="L120" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H120,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M120" s="14" cm="1">
+      <c r="M120" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M120" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H120,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N120" s="14" t="s">
         <v>49</v>
@@ -12270,9 +12270,9 @@
         <f t="array" aca="1" ref="F121" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B121,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G121" s="16" cm="1">
+      <c r="G121" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G121" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B121,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H121" s="19" t="s">
         <v>118</v>
@@ -12293,9 +12293,9 @@
         <f t="array" aca="1" ref="L121" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H121,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M121" s="14" cm="1">
+      <c r="M121" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M121" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H121,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N121" s="14" t="s">
         <v>49</v>
@@ -12324,9 +12324,9 @@
         <f t="array" aca="1" ref="F122" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B122,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G122" s="16" cm="1">
+      <c r="G122" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G122" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B122,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H122" s="19" t="s">
         <v>119</v>
@@ -12347,9 +12347,9 @@
         <f t="array" aca="1" ref="L122" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H122,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M122" s="14" cm="1">
+      <c r="M122" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M122" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H122,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N122" s="14" t="s">
         <v>49</v>
@@ -12378,9 +12378,9 @@
         <f t="array" aca="1" ref="F123" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B123,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G123" s="16" cm="1">
+      <c r="G123" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B123,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H123" s="19" t="s">
         <v>120</v>
@@ -12401,9 +12401,9 @@
         <f t="array" aca="1" ref="L123" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H123,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M123" s="14" cm="1">
+      <c r="M123" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M123" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H123,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N123" s="14" t="s">
         <v>49</v>
@@ -12432,9 +12432,9 @@
         <f t="array" aca="1" ref="F124" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B124,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G124" s="16" cm="1">
+      <c r="G124" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G124" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B124,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H124" s="19" t="s">
         <v>121</v>
@@ -12455,9 +12455,9 @@
         <f t="array" aca="1" ref="L124" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H124,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M124" s="14" cm="1">
+      <c r="M124" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M124" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H124,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N124" s="14" t="s">
         <v>49</v>
@@ -12486,9 +12486,9 @@
         <f t="array" aca="1" ref="F125" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B125,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G125" s="16" cm="1">
+      <c r="G125" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G125" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B125,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H125" s="19" t="s">
         <v>122</v>
@@ -12509,9 +12509,9 @@
         <f t="array" aca="1" ref="L125" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H125,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M125" s="14" cm="1">
+      <c r="M125" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M125" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H125,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N125" s="14" t="s">
         <v>49</v>
@@ -12540,9 +12540,9 @@
         <f t="array" aca="1" ref="F126" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B126,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G126" s="16" cm="1">
+      <c r="G126" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G126" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B126,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H126" s="19" t="s">
         <v>123</v>
@@ -12563,9 +12563,9 @@
         <f t="array" aca="1" ref="L126" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H126,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M126" s="14" cm="1">
+      <c r="M126" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M126" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H126,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N126" s="14" t="s">
         <v>49</v>
@@ -12594,9 +12594,9 @@
         <f t="array" aca="1" ref="F127" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B127,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G127" s="16" cm="1">
+      <c r="G127" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G127" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B127,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H127" s="19" t="s">
         <v>124</v>
@@ -12617,9 +12617,9 @@
         <f t="array" aca="1" ref="L127" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H127,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M127" s="14" cm="1">
+      <c r="M127" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M127" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H127,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N127" s="14" t="s">
         <v>49</v>
@@ -12648,9 +12648,9 @@
         <f t="array" aca="1" ref="F128" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B128,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G128" s="16" cm="1">
+      <c r="G128" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G128" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B128,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H128" s="19" t="s">
         <v>125</v>
@@ -12671,9 +12671,9 @@
         <f t="array" aca="1" ref="L128" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H128,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M128" s="14" cm="1">
+      <c r="M128" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M128" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H128,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N128" s="14" t="s">
         <v>49</v>
@@ -12702,9 +12702,9 @@
         <f t="array" aca="1" ref="F129" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B129,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G129" s="16" cm="1">
+      <c r="G129" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G129" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B129,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H129" s="19" t="s">
         <v>126</v>
@@ -12725,9 +12725,9 @@
         <f t="array" aca="1" ref="L129" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H129,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M129" s="14" cm="1">
+      <c r="M129" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M129" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H129,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N129" s="14" t="s">
         <v>49</v>
@@ -12756,9 +12756,9 @@
         <f t="array" aca="1" ref="F130" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B130,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G130" s="16" cm="1">
+      <c r="G130" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G130" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B130,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H130" s="19" t="s">
         <v>127</v>
@@ -12779,9 +12779,9 @@
         <f t="array" aca="1" ref="L130" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H130,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M130" s="14" cm="1">
+      <c r="M130" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M130" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H130,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N130" s="14" t="s">
         <v>49</v>
@@ -12810,9 +12810,9 @@
         <f t="array" aca="1" ref="F131" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B131,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G131" s="16" cm="1">
+      <c r="G131" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G131" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B131,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H131" s="19" t="s">
         <v>128</v>
@@ -12833,9 +12833,9 @@
         <f t="array" aca="1" ref="L131" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H131,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M131" s="14" cm="1">
+      <c r="M131" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M131" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H131,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N131" s="14" t="s">
         <v>49</v>
@@ -12864,9 +12864,9 @@
         <f t="array" aca="1" ref="F132" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B132,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G132" s="16" cm="1">
+      <c r="G132" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G132" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B132,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H132" s="19" t="s">
         <v>129</v>
@@ -12887,9 +12887,9 @@
         <f t="array" aca="1" ref="L132" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H132,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M132" s="14" cm="1">
+      <c r="M132" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M132" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H132,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N132" s="14" t="s">
         <v>49</v>
@@ -12918,9 +12918,9 @@
         <f t="array" aca="1" ref="F133" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B133,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G133" s="16" cm="1">
+      <c r="G133" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B133,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H133" s="19" t="s">
         <v>130</v>
@@ -12941,9 +12941,9 @@
         <f t="array" aca="1" ref="L133" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H133,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M133" s="14" cm="1">
+      <c r="M133" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M133" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H133,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N133" s="14" t="s">
         <v>49</v>
@@ -12972,9 +12972,9 @@
         <f t="array" aca="1" ref="F134" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B134,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G134" s="16" cm="1">
+      <c r="G134" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G134" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B134,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H134" s="19" t="s">
         <v>131</v>
@@ -12995,9 +12995,9 @@
         <f t="array" aca="1" ref="L134" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H134,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M134" s="14" cm="1">
+      <c r="M134" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M134" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H134,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N134" s="14" t="s">
         <v>49</v>
@@ -13026,9 +13026,9 @@
         <f t="array" aca="1" ref="F135" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B135,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G135" s="16" cm="1">
+      <c r="G135" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G135" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B135,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H135" s="19" t="s">
         <v>75</v>
@@ -13049,9 +13049,9 @@
         <f t="array" aca="1" ref="L135" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H135,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M135" s="14" cm="1">
+      <c r="M135" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M135" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H135,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N135" s="14" t="s">
         <v>49</v>
@@ -13080,9 +13080,9 @@
         <f t="array" aca="1" ref="F136" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B136,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G136" s="16" cm="1">
+      <c r="G136" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G136" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B136,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H136" s="19" t="s">
         <v>76</v>
@@ -13103,9 +13103,9 @@
         <f t="array" aca="1" ref="L136" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H136,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M136" s="14" cm="1">
+      <c r="M136" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M136" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H136,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N136" s="14" t="s">
         <v>49</v>
@@ -13134,9 +13134,9 @@
         <f t="array" aca="1" ref="F137" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B137,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G137" s="16" cm="1">
+      <c r="G137" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G137" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B137,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H137" s="19" t="s">
         <v>77</v>
@@ -13157,9 +13157,9 @@
         <f t="array" aca="1" ref="L137" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H137,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M137" s="14" cm="1">
+      <c r="M137" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M137" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H137,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N137" s="14" t="s">
         <v>49</v>
@@ -13188,9 +13188,9 @@
         <f t="array" aca="1" ref="F138" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B138,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G138" s="16" cm="1">
+      <c r="G138" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G138" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B138,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H138" s="19" t="s">
         <v>78</v>
@@ -13211,9 +13211,9 @@
         <f t="array" aca="1" ref="L138" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H138,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M138" s="14" cm="1">
+      <c r="M138" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M138" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H138,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N138" s="14" t="s">
         <v>49</v>
@@ -13242,9 +13242,9 @@
         <f t="array" aca="1" ref="F139" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B139,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G139" s="16" cm="1">
+      <c r="G139" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G139" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B139,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H139" s="19" t="s">
         <v>79</v>
@@ -13265,9 +13265,9 @@
         <f t="array" aca="1" ref="L139" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H139,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M139" s="14" cm="1">
+      <c r="M139" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M139" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H139,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N139" s="14" t="s">
         <v>49</v>
@@ -13296,9 +13296,9 @@
         <f t="array" aca="1" ref="F140" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B140,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G140" s="16" cm="1">
+      <c r="G140" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G140" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B140,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H140" s="19" t="s">
         <v>80</v>
@@ -13319,9 +13319,9 @@
         <f t="array" aca="1" ref="L140" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H140,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M140" s="14" cm="1">
+      <c r="M140" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M140" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H140,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N140" s="14" t="s">
         <v>49</v>
@@ -13350,9 +13350,9 @@
         <f t="array" aca="1" ref="F141" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B141,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G141" s="16" cm="1">
+      <c r="G141" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G141" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B141,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H141" s="19" t="s">
         <v>81</v>
@@ -13373,9 +13373,9 @@
         <f t="array" aca="1" ref="L141" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H141,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M141" s="14" cm="1">
+      <c r="M141" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M141" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H141,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N141" s="14" t="s">
         <v>49</v>
@@ -13404,9 +13404,9 @@
         <f t="array" aca="1" ref="F142" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B142,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G142" s="16" cm="1">
+      <c r="G142" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G142" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B142,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H142" s="19" t="s">
         <v>82</v>
@@ -13427,9 +13427,9 @@
         <f t="array" aca="1" ref="L142" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H142,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M142" s="14" cm="1">
+      <c r="M142" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M142" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H142,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N142" s="14" t="s">
         <v>49</v>
@@ -13458,9 +13458,9 @@
         <f t="array" aca="1" ref="F143" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B143,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G143" s="16" cm="1">
+      <c r="G143" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B143,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H143" s="19" t="s">
         <v>83</v>
@@ -13481,9 +13481,9 @@
         <f t="array" aca="1" ref="L143" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H143,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M143" s="14" cm="1">
+      <c r="M143" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M143" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H143,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N143" s="14" t="s">
         <v>49</v>
@@ -13512,9 +13512,9 @@
         <f t="array" aca="1" ref="F144" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B144,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G144" s="16" cm="1">
+      <c r="G144" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G144" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B144,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H144" s="19" t="s">
         <v>84</v>
@@ -13535,9 +13535,9 @@
         <f t="array" aca="1" ref="L144" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H144,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M144" s="14" cm="1">
+      <c r="M144" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M144" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H144,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N144" s="14" t="s">
         <v>49</v>
@@ -13566,9 +13566,9 @@
         <f t="array" aca="1" ref="F145" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B145,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G145" s="16" cm="1">
+      <c r="G145" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G145" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B145,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H145" s="19" t="s">
         <v>85</v>
@@ -13589,9 +13589,9 @@
         <f t="array" aca="1" ref="L145" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H145,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M145" s="14" cm="1">
+      <c r="M145" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M145" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H145,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N145" s="14" t="s">
         <v>49</v>
@@ -13620,9 +13620,9 @@
         <f t="array" aca="1" ref="F146" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B146,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G146" s="16" cm="1">
+      <c r="G146" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G146" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B146,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H146" s="19" t="s">
         <v>86</v>
@@ -13643,9 +13643,9 @@
         <f t="array" aca="1" ref="L146" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H146,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M146" s="14" cm="1">
+      <c r="M146" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M146" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H146,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N146" s="14" t="s">
         <v>49</v>
@@ -13674,9 +13674,9 @@
         <f t="array" aca="1" ref="F147" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B147,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G147" s="16" cm="1">
+      <c r="G147" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G147" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B147,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H147" s="19" t="s">
         <v>87</v>
@@ -13697,9 +13697,9 @@
         <f t="array" aca="1" ref="L147" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H147,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M147" s="14" cm="1">
+      <c r="M147" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M147" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H147,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N147" s="14" t="s">
         <v>49</v>
@@ -13728,9 +13728,9 @@
         <f t="array" aca="1" ref="F148" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B148,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G148" s="16" cm="1">
+      <c r="G148" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G148" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B148,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H148" s="19" t="s">
         <v>88</v>
@@ -13751,9 +13751,9 @@
         <f t="array" aca="1" ref="L148" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H148,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M148" s="14" cm="1">
+      <c r="M148" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M148" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H148,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N148" s="14" t="s">
         <v>49</v>
@@ -13782,9 +13782,9 @@
         <f t="array" aca="1" ref="F149" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B149,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G149" s="16" cm="1">
+      <c r="G149" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G149" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B149,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H149" s="19" t="s">
         <v>89</v>
@@ -13805,9 +13805,9 @@
         <f t="array" aca="1" ref="L149" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H149,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M149" s="14" cm="1">
+      <c r="M149" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M149" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H149,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N149" s="14" t="s">
         <v>49</v>
@@ -13836,9 +13836,9 @@
         <f t="array" aca="1" ref="F150" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B150,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G150" s="16" cm="1">
+      <c r="G150" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G150" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B150,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H150" s="19" t="s">
         <v>90</v>
@@ -13859,9 +13859,9 @@
         <f t="array" aca="1" ref="L150" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H150,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M150" s="14" cm="1">
+      <c r="M150" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M150" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H150,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N150" s="14" t="s">
         <v>49</v>
@@ -13890,9 +13890,9 @@
         <f t="array" aca="1" ref="F151" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B151,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G151" s="16" cm="1">
+      <c r="G151" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G151" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B151,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H151" s="19" t="s">
         <v>91</v>
@@ -13913,9 +13913,9 @@
         <f t="array" aca="1" ref="L151" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H151,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M151" s="14" cm="1">
+      <c r="M151" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M151" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H151,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N151" s="14" t="s">
         <v>49</v>
@@ -13944,9 +13944,9 @@
         <f t="array" aca="1" ref="F152" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B152,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G152" s="16" cm="1">
+      <c r="G152" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G152" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B152,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H152" s="19" t="s">
         <v>92</v>
@@ -13967,9 +13967,9 @@
         <f t="array" aca="1" ref="L152" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H152,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M152" s="14" cm="1">
+      <c r="M152" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M152" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H152,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N152" s="14" t="s">
         <v>49</v>
@@ -13998,9 +13998,9 @@
         <f t="array" aca="1" ref="F153" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B153,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G153" s="16" cm="1">
+      <c r="G153" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B153,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H153" s="19" t="s">
         <v>93</v>
@@ -14021,9 +14021,9 @@
         <f t="array" aca="1" ref="L153" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H153,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M153" s="14" cm="1">
+      <c r="M153" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M153" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H153,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N153" s="14" t="s">
         <v>49</v>
@@ -14052,9 +14052,9 @@
         <f t="array" aca="1" ref="F154" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B154,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G154" s="16" cm="1">
+      <c r="G154" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G154" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B154,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H154" s="19" t="s">
         <v>94</v>
@@ -14075,9 +14075,9 @@
         <f t="array" aca="1" ref="L154" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H154,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M154" s="14" cm="1">
+      <c r="M154" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M154" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H154,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N154" s="14" t="s">
         <v>49</v>
@@ -14106,9 +14106,9 @@
         <f t="array" aca="1" ref="F155" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B155,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G155" s="16" cm="1">
+      <c r="G155" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G155" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B155,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H155" s="19" t="s">
         <v>95</v>
@@ -14129,9 +14129,9 @@
         <f t="array" aca="1" ref="L155" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H155,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M155" s="14" cm="1">
+      <c r="M155" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M155" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H155,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N155" s="14" t="s">
         <v>49</v>
@@ -14160,9 +14160,9 @@
         <f t="array" aca="1" ref="F156" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B156,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G156" s="16" cm="1">
+      <c r="G156" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G156" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B156,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H156" s="19" t="s">
         <v>96</v>
@@ -14183,9 +14183,9 @@
         <f t="array" aca="1" ref="L156" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H156,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M156" s="14" cm="1">
+      <c r="M156" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M156" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H156,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N156" s="14" t="s">
         <v>49</v>
@@ -14214,9 +14214,9 @@
         <f t="array" aca="1" ref="F157" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B157,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G157" s="16" cm="1">
+      <c r="G157" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G157" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B157,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H157" s="19" t="s">
         <v>97</v>
@@ -14237,9 +14237,9 @@
         <f t="array" aca="1" ref="L157" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H157,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M157" s="14" cm="1">
+      <c r="M157" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M157" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H157,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N157" s="14" t="s">
         <v>49</v>
@@ -14268,9 +14268,9 @@
         <f t="array" aca="1" ref="F158" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B158,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G158" s="16" cm="1">
+      <c r="G158" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G158" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B158,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H158" s="19" t="s">
         <v>98</v>
@@ -14291,9 +14291,9 @@
         <f t="array" aca="1" ref="L158" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H158,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M158" s="14" cm="1">
+      <c r="M158" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M158" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H158,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N158" s="14" t="s">
         <v>49</v>
@@ -14322,9 +14322,9 @@
         <f t="array" aca="1" ref="F159" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B159,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G159" s="16" cm="1">
+      <c r="G159" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G159" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B159,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H159" s="19" t="s">
         <v>99</v>
@@ -14345,9 +14345,9 @@
         <f t="array" aca="1" ref="L159" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H159,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M159" s="14" cm="1">
+      <c r="M159" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M159" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H159,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N159" s="14" t="s">
         <v>49</v>
@@ -14376,9 +14376,9 @@
         <f t="array" aca="1" ref="F160" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B160,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G160" s="16" cm="1">
+      <c r="G160" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G160" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B160,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H160" s="19" t="s">
         <v>100</v>
@@ -14399,9 +14399,9 @@
         <f t="array" aca="1" ref="L160" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H160,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M160" s="14" cm="1">
+      <c r="M160" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M160" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H160,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N160" s="14" t="s">
         <v>49</v>
@@ -14430,9 +14430,9 @@
         <f t="array" aca="1" ref="F161" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B161,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G161" s="16" cm="1">
+      <c r="G161" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G161" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B161,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H161" s="19" t="s">
         <v>101</v>
@@ -14453,9 +14453,9 @@
         <f t="array" aca="1" ref="L161" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H161,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M161" s="14" cm="1">
+      <c r="M161" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M161" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H161,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N161" s="14" t="s">
         <v>49</v>
@@ -14484,9 +14484,9 @@
         <f t="array" aca="1" ref="F162" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B162,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G162" s="16" cm="1">
+      <c r="G162" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G162" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B162,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H162" s="19" t="s">
         <v>102</v>
@@ -14507,9 +14507,9 @@
         <f t="array" aca="1" ref="L162" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H162,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M162" s="14" cm="1">
+      <c r="M162" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M162" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H162,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N162" s="14" t="s">
         <v>49</v>
@@ -14538,9 +14538,9 @@
         <f t="array" aca="1" ref="F163" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B163,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G163" s="16" cm="1">
+      <c r="G163" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G163" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B163,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H163" s="19" t="s">
         <v>0</v>
@@ -14561,9 +14561,9 @@
         <f t="array" aca="1" ref="L163" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H163,[1]欄位定義!$A:$A, 0))</f>
         <v>EGY</v>
       </c>
-      <c r="M163" s="14" cm="1">
+      <c r="M163" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M163" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H163,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N163" s="14" t="s">
         <v>50</v>
@@ -14592,9 +14592,9 @@
         <f t="array" aca="1" ref="F164" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B164,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G164" s="16" cm="1">
+      <c r="G164" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G164" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B164,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H164" s="19" t="s">
         <v>1</v>
@@ -14615,9 +14615,9 @@
         <f t="array" aca="1" ref="L164" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H164,[1]欄位定義!$A:$A, 0))</f>
         <v>STB</v>
       </c>
-      <c r="M164" s="14" cm="1">
+      <c r="M164" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M164" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H164,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N164" s="14" t="s">
         <v>50</v>
@@ -14646,9 +14646,9 @@
         <f t="array" aca="1" ref="F165" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B165,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G165" s="16" cm="1">
+      <c r="G165" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G165" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B165,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H165" s="19" t="s">
         <v>2</v>
@@ -14669,9 +14669,9 @@
         <f t="array" aca="1" ref="L165" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H165,[1]欄位定義!$A:$A, 0))</f>
         <v>STB</v>
       </c>
-      <c r="M165" s="14" cm="1">
+      <c r="M165" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M165" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H165,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N165" s="14" t="s">
         <v>50</v>
@@ -14700,9 +14700,9 @@
         <f t="array" aca="1" ref="F166" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B166,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G166" s="16" cm="1">
+      <c r="G166" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G166" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B166,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H166" s="19" t="s">
         <v>3</v>
@@ -14723,9 +14723,9 @@
         <f t="array" aca="1" ref="L166" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H166,[1]欄位定義!$A:$A, 0))</f>
         <v>STB</v>
       </c>
-      <c r="M166" s="14" cm="1">
+      <c r="M166" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M166" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H166,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N166" s="14" t="s">
         <v>50</v>
@@ -14754,9 +14754,9 @@
         <f t="array" aca="1" ref="F167" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B167,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G167" s="16" cm="1">
+      <c r="G167" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G167" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B167,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H167" s="19" t="s">
         <v>16</v>
@@ -14777,9 +14777,9 @@
         <f t="array" aca="1" ref="L167" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H167,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M167" s="14" cm="1">
+      <c r="M167" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M167" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H167,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N167" s="14" t="s">
         <v>50</v>
@@ -14808,9 +14808,9 @@
         <f t="array" aca="1" ref="F168" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B168,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G168" s="16" cm="1">
+      <c r="G168" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G168" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B168,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H168" s="19" t="s">
         <v>22</v>
@@ -14831,9 +14831,9 @@
         <f t="array" aca="1" ref="L168" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H168,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M168" s="14" cm="1">
+      <c r="M168" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M168" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H168,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N168" s="14" t="s">
         <v>50</v>
@@ -14862,9 +14862,9 @@
         <f t="array" aca="1" ref="F169" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B169,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G169" s="16" cm="1">
+      <c r="G169" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G169" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B169,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H169" s="19" t="s">
         <v>31</v>
@@ -14885,9 +14885,9 @@
         <f t="array" aca="1" ref="L169" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H169,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M169" s="14" cm="1">
+      <c r="M169" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M169" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H169,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N169" s="14" t="s">
         <v>50</v>
@@ -14916,9 +14916,9 @@
         <f t="array" aca="1" ref="F170" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B170,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G170" s="16" cm="1">
+      <c r="G170" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G170" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B170,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H170" s="19" t="s">
         <v>32</v>
@@ -14939,9 +14939,9 @@
         <f t="array" aca="1" ref="L170" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H170,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M170" s="14" cm="1">
+      <c r="M170" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M170" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H170,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N170" s="14" t="s">
         <v>50</v>
@@ -14970,9 +14970,9 @@
         <f t="array" aca="1" ref="F171" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B171,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G171" s="16" cm="1">
+      <c r="G171" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G171" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B171,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H171" s="19" t="s">
         <v>33</v>
@@ -14993,9 +14993,9 @@
         <f t="array" aca="1" ref="L171" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H171,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M171" s="14" cm="1">
+      <c r="M171" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M171" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H171,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N171" s="14" t="s">
         <v>50</v>
@@ -15024,9 +15024,9 @@
         <f t="array" aca="1" ref="F172" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B172,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G172" s="16" cm="1">
+      <c r="G172" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G172" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B172,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H172" s="19" t="s">
         <v>7</v>
@@ -15047,9 +15047,9 @@
         <f t="array" aca="1" ref="L172" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H172,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M172" s="14" cm="1">
+      <c r="M172" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M172" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H172,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N172" s="14" t="s">
         <v>51</v>
@@ -15078,9 +15078,9 @@
         <f t="array" aca="1" ref="F173" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B173,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G173" s="16" cm="1">
+      <c r="G173" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G173" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B173,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H173" s="19" t="s">
         <v>14</v>
@@ -15101,9 +15101,9 @@
         <f t="array" aca="1" ref="L173" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H173,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M173" s="14" cm="1">
+      <c r="M173" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M173" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H173,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N173" s="14" t="s">
         <v>51</v>
@@ -15132,9 +15132,9 @@
         <f t="array" aca="1" ref="F174" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B174,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G174" s="16" cm="1">
+      <c r="G174" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G174" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B174,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H174" s="19" t="s">
         <v>15</v>
@@ -15155,9 +15155,9 @@
         <f t="array" aca="1" ref="L174" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H174,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M174" s="14" cm="1">
+      <c r="M174" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M174" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H174,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N174" s="14" t="s">
         <v>51</v>
@@ -15186,9 +15186,9 @@
         <f t="array" aca="1" ref="F175" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B175,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G175" s="16" cm="1">
+      <c r="G175" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G175" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B175,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H175" s="19" t="s">
         <v>20</v>
@@ -15209,9 +15209,9 @@
         <f t="array" aca="1" ref="L175" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H175,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M175" s="14" cm="1">
+      <c r="M175" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M175" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H175,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N175" s="14" t="s">
         <v>51</v>
@@ -15240,9 +15240,9 @@
         <f t="array" aca="1" ref="F176" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B176,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G176" s="16" cm="1">
+      <c r="G176" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G176" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B176,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H176" s="19" t="s">
         <v>21</v>
@@ -15263,9 +15263,9 @@
         <f t="array" aca="1" ref="L176" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H176,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M176" s="14" cm="1">
+      <c r="M176" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M176" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H176,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N176" s="14" t="s">
         <v>51</v>
@@ -15294,9 +15294,9 @@
         <f t="array" aca="1" ref="F177" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B177,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G177" s="16" cm="1">
+      <c r="G177" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G177" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B177,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H177" s="20" t="s">
         <v>38</v>
@@ -15317,9 +15317,9 @@
         <f t="array" aca="1" ref="L177" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H177,[1]欄位定義!$A:$A, 0))</f>
         <v>SF</v>
       </c>
-      <c r="M177" s="14" cm="1">
+      <c r="M177" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M177" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H177,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N177" s="14" t="s">
         <v>52</v>
@@ -15348,9 +15348,9 @@
         <f t="array" aca="1" ref="F178" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B178,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G178" s="16" cm="1">
+      <c r="G178" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G178" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B178,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>8</v>
@@ -15371,9 +15371,9 @@
         <f t="array" aca="1" ref="L178" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H178,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M178" s="14" cm="1">
+      <c r="M178" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M178" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H178,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N178" s="18" t="s">
         <v>46</v>
@@ -15402,9 +15402,9 @@
         <f t="array" aca="1" ref="F179" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B179,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G179" s="16" cm="1">
+      <c r="G179" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G179" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B179,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H179" s="19" t="s">
         <v>9</v>
@@ -15425,9 +15425,9 @@
         <f t="array" aca="1" ref="L179" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H179,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M179" s="14" cm="1">
+      <c r="M179" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M179" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H179,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N179" s="18" t="s">
         <v>46</v>
@@ -15456,9 +15456,9 @@
         <f t="array" aca="1" ref="F180" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B180,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G180" s="16" cm="1">
+      <c r="G180" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G180" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B180,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H180" s="19" t="s">
         <v>10</v>
@@ -15479,9 +15479,9 @@
         <f t="array" aca="1" ref="L180" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H180,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M180" s="14" cm="1">
+      <c r="M180" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M180" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H180,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N180" s="18" t="s">
         <v>46</v>
@@ -15510,9 +15510,9 @@
         <f t="array" aca="1" ref="F181" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B181,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G181" s="16" cm="1">
+      <c r="G181" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G181" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B181,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H181" s="19" t="s">
         <v>11</v>
@@ -15533,9 +15533,9 @@
         <f t="array" aca="1" ref="L181" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H181,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M181" s="14" cm="1">
+      <c r="M181" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M181" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H181,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N181" s="18" t="s">
         <v>46</v>
@@ -15564,9 +15564,9 @@
         <f t="array" aca="1" ref="F182" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B182,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G182" s="16" cm="1">
+      <c r="G182" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G182" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B182,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H182" s="19" t="s">
         <v>12</v>
@@ -15587,9 +15587,9 @@
         <f t="array" aca="1" ref="L182" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H182,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M182" s="14" cm="1">
+      <c r="M182" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M182" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H182,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N182" s="18" t="s">
         <v>46</v>
@@ -15618,9 +15618,9 @@
         <f t="array" aca="1" ref="F183" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B183,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G183" s="16" cm="1">
+      <c r="G183" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G183" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B183,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H183" s="19" t="s">
         <v>13</v>
@@ -15641,9 +15641,9 @@
         <f t="array" aca="1" ref="L183" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H183,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M183" s="14" cm="1">
+      <c r="M183" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M183" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H183,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N183" s="18" t="s">
         <v>46</v>
@@ -15672,9 +15672,9 @@
         <f t="array" aca="1" ref="F184" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B184,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G184" s="16" cm="1">
+      <c r="G184" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G184" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B184,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H184" s="19" t="s">
         <v>17</v>
@@ -15695,9 +15695,9 @@
         <f t="array" aca="1" ref="L184" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H184,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M184" s="14" cm="1">
+      <c r="M184" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M184" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H184,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N184" s="14" t="s">
         <v>47</v>
@@ -15726,9 +15726,9 @@
         <f t="array" aca="1" ref="F185" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B185,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G185" s="16" cm="1">
+      <c r="G185" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G185" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B185,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H185" s="19" t="s">
         <v>18</v>
@@ -15749,9 +15749,9 @@
         <f t="array" aca="1" ref="L185" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H185,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M185" s="14" cm="1">
+      <c r="M185" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M185" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H185,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N185" s="14" t="s">
         <v>47</v>
@@ -15780,9 +15780,9 @@
         <f t="array" aca="1" ref="F186" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B186,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G186" s="16" cm="1">
+      <c r="G186" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G186" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B186,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H186" s="19" t="s">
         <v>23</v>
@@ -15803,9 +15803,9 @@
         <f t="array" aca="1" ref="L186" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H186,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M186" s="14" cm="1">
+      <c r="M186" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M186" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H186,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N186" s="14" t="s">
         <v>47</v>
@@ -15834,9 +15834,9 @@
         <f t="array" aca="1" ref="F187" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B187,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G187" s="16" cm="1">
+      <c r="G187" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G187" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B187,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H187" s="19" t="s">
         <v>24</v>
@@ -15857,9 +15857,9 @@
         <f t="array" aca="1" ref="L187" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H187,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M187" s="14" cm="1">
+      <c r="M187" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M187" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H187,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N187" s="14" t="s">
         <v>47</v>
@@ -15888,9 +15888,9 @@
         <f t="array" aca="1" ref="F188" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B188,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G188" s="16" cm="1">
+      <c r="G188" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G188" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B188,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H188" s="19" t="s">
         <v>4</v>
@@ -15911,9 +15911,9 @@
         <f t="array" aca="1" ref="L188" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H188,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M188" s="14" cm="1">
+      <c r="M188" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M188" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H188,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N188" s="14" t="s">
         <v>48</v>
@@ -15942,9 +15942,9 @@
         <f t="array" aca="1" ref="F189" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B189,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G189" s="16" cm="1">
+      <c r="G189" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G189" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B189,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H189" s="19" t="s">
         <v>5</v>
@@ -15965,9 +15965,9 @@
         <f t="array" aca="1" ref="L189" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H189,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M189" s="14" cm="1">
+      <c r="M189" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M189" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H189,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N189" s="14" t="s">
         <v>48</v>
@@ -15996,9 +15996,9 @@
         <f t="array" aca="1" ref="F190" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B190,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G190" s="16" cm="1">
+      <c r="G190" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G190" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B190,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H190" s="19" t="s">
         <v>6</v>
@@ -16019,9 +16019,9 @@
         <f t="array" aca="1" ref="L190" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H190,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M190" s="14" cm="1">
+      <c r="M190" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M190" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H190,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N190" s="14" t="s">
         <v>48</v>
@@ -16050,9 +16050,9 @@
         <f t="array" aca="1" ref="F191" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B191,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G191" s="16" cm="1">
+      <c r="G191" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G191" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B191,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H191" s="19" t="s">
         <v>25</v>
@@ -16073,9 +16073,9 @@
         <f t="array" aca="1" ref="L191" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H191,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M191" s="14" cm="1">
+      <c r="M191" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M191" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H191,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N191" s="14" t="s">
         <v>49</v>
@@ -16104,9 +16104,9 @@
         <f t="array" aca="1" ref="F192" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B192,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G192" s="16" cm="1">
+      <c r="G192" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G192" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B192,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H192" s="19" t="s">
         <v>26</v>
@@ -16127,9 +16127,9 @@
         <f t="array" aca="1" ref="L192" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H192,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M192" s="14" cm="1">
+      <c r="M192" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M192" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H192,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N192" s="14" t="s">
         <v>49</v>
@@ -16158,9 +16158,9 @@
         <f t="array" aca="1" ref="F193" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B193,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G193" s="16" cm="1">
+      <c r="G193" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G193" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B193,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H193" s="19" t="s">
         <v>27</v>
@@ -16181,9 +16181,9 @@
         <f t="array" aca="1" ref="L193" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H193,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M193" s="14" cm="1">
+      <c r="M193" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M193" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H193,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N193" s="14" t="s">
         <v>49</v>
@@ -16212,9 +16212,9 @@
         <f t="array" aca="1" ref="F194" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B194,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G194" s="16" cm="1">
+      <c r="G194" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G194" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B194,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H194" s="19" t="s">
         <v>28</v>
@@ -16235,9 +16235,9 @@
         <f t="array" aca="1" ref="L194" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H194,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M194" s="14" cm="1">
+      <c r="M194" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M194" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H194,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N194" s="14" t="s">
         <v>49</v>
@@ -16266,9 +16266,9 @@
         <f t="array" aca="1" ref="F195" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B195,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G195" s="16" cm="1">
+      <c r="G195" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G195" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B195,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H195" s="19" t="s">
         <v>104</v>
@@ -16289,9 +16289,9 @@
         <f t="array" aca="1" ref="L195" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H195,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M195" s="14" cm="1">
+      <c r="M195" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M195" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H195,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N195" s="14" t="s">
         <v>49</v>
@@ -16320,9 +16320,9 @@
         <f t="array" aca="1" ref="F196" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B196,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G196" s="16" cm="1">
+      <c r="G196" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G196" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B196,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H196" s="19" t="s">
         <v>105</v>
@@ -16343,9 +16343,9 @@
         <f t="array" aca="1" ref="L196" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H196,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M196" s="14" cm="1">
+      <c r="M196" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M196" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H196,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N196" s="14" t="s">
         <v>49</v>
@@ -16374,9 +16374,9 @@
         <f t="array" aca="1" ref="F197" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B197,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G197" s="16" cm="1">
+      <c r="G197" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G197" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B197,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H197" s="19" t="s">
         <v>106</v>
@@ -16397,9 +16397,9 @@
         <f t="array" aca="1" ref="L197" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H197,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M197" s="14" cm="1">
+      <c r="M197" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M197" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H197,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N197" s="14" t="s">
         <v>49</v>
@@ -16428,9 +16428,9 @@
         <f t="array" aca="1" ref="F198" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B198,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G198" s="16" cm="1">
+      <c r="G198" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G198" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B198,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H198" s="19" t="s">
         <v>107</v>
@@ -16451,9 +16451,9 @@
         <f t="array" aca="1" ref="L198" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H198,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M198" s="14" cm="1">
+      <c r="M198" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M198" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H198,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N198" s="14" t="s">
         <v>49</v>
@@ -16482,9 +16482,9 @@
         <f t="array" aca="1" ref="F199" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B199,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G199" s="16" cm="1">
+      <c r="G199" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G199" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B199,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H199" s="19" t="s">
         <v>108</v>
@@ -16505,9 +16505,9 @@
         <f t="array" aca="1" ref="L199" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H199,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M199" s="14" cm="1">
+      <c r="M199" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M199" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H199,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N199" s="14" t="s">
         <v>49</v>
@@ -16536,9 +16536,9 @@
         <f t="array" aca="1" ref="F200" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B200,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G200" s="16" cm="1">
+      <c r="G200" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G200" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B200,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H200" s="19" t="s">
         <v>109</v>
@@ -16559,9 +16559,9 @@
         <f t="array" aca="1" ref="L200" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H200,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M200" s="14" cm="1">
+      <c r="M200" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M200" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H200,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N200" s="14" t="s">
         <v>49</v>
@@ -16590,9 +16590,9 @@
         <f t="array" aca="1" ref="F201" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B201,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G201" s="16" cm="1">
+      <c r="G201" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G201" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B201,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H201" s="19" t="s">
         <v>110</v>
@@ -16613,9 +16613,9 @@
         <f t="array" aca="1" ref="L201" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H201,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M201" s="14" cm="1">
+      <c r="M201" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M201" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H201,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N201" s="14" t="s">
         <v>49</v>
@@ -16644,9 +16644,9 @@
         <f t="array" aca="1" ref="F202" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B202,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G202" s="16" cm="1">
+      <c r="G202" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G202" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B202,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H202" s="19" t="s">
         <v>111</v>
@@ -16667,9 +16667,9 @@
         <f t="array" aca="1" ref="L202" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H202,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M202" s="14" cm="1">
+      <c r="M202" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M202" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H202,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N202" s="14" t="s">
         <v>49</v>
@@ -16698,9 +16698,9 @@
         <f t="array" aca="1" ref="F203" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B203,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G203" s="16" cm="1">
+      <c r="G203" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G203" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B203,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H203" s="19" t="s">
         <v>112</v>
@@ -16721,9 +16721,9 @@
         <f t="array" aca="1" ref="L203" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H203,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M203" s="14" cm="1">
+      <c r="M203" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M203" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H203,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N203" s="14" t="s">
         <v>49</v>
@@ -16752,9 +16752,9 @@
         <f t="array" aca="1" ref="F204" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B204,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G204" s="16" cm="1">
+      <c r="G204" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G204" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B204,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H204" s="19" t="s">
         <v>113</v>
@@ -16775,9 +16775,9 @@
         <f t="array" aca="1" ref="L204" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H204,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M204" s="14" cm="1">
+      <c r="M204" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M204" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H204,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N204" s="14" t="s">
         <v>49</v>
@@ -16806,9 +16806,9 @@
         <f t="array" aca="1" ref="F205" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B205,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G205" s="16" cm="1">
+      <c r="G205" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G205" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B205,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H205" s="19" t="s">
         <v>114</v>
@@ -16829,9 +16829,9 @@
         <f t="array" aca="1" ref="L205" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H205,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M205" s="14" cm="1">
+      <c r="M205" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M205" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H205,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N205" s="14" t="s">
         <v>49</v>
@@ -16860,9 +16860,9 @@
         <f t="array" aca="1" ref="F206" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B206,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G206" s="16" cm="1">
+      <c r="G206" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G206" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B206,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H206" s="19" t="s">
         <v>115</v>
@@ -16883,9 +16883,9 @@
         <f t="array" aca="1" ref="L206" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H206,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M206" s="14" cm="1">
+      <c r="M206" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M206" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H206,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N206" s="14" t="s">
         <v>49</v>
@@ -16914,9 +16914,9 @@
         <f t="array" aca="1" ref="F207" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B207,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G207" s="16" cm="1">
+      <c r="G207" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G207" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B207,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H207" s="19" t="s">
         <v>116</v>
@@ -16937,9 +16937,9 @@
         <f t="array" aca="1" ref="L207" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H207,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M207" s="14" cm="1">
+      <c r="M207" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M207" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H207,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N207" s="14" t="s">
         <v>49</v>
@@ -16968,9 +16968,9 @@
         <f t="array" aca="1" ref="F208" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B208,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G208" s="16" cm="1">
+      <c r="G208" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G208" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B208,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H208" s="19" t="s">
         <v>117</v>
@@ -16991,9 +16991,9 @@
         <f t="array" aca="1" ref="L208" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H208,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M208" s="14" cm="1">
+      <c r="M208" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M208" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H208,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N208" s="14" t="s">
         <v>49</v>
@@ -17022,9 +17022,9 @@
         <f t="array" aca="1" ref="F209" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B209,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G209" s="16" cm="1">
+      <c r="G209" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G209" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B209,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H209" s="19" t="s">
         <v>118</v>
@@ -17045,9 +17045,9 @@
         <f t="array" aca="1" ref="L209" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H209,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M209" s="14" cm="1">
+      <c r="M209" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M209" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H209,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N209" s="14" t="s">
         <v>49</v>
@@ -17076,9 +17076,9 @@
         <f t="array" aca="1" ref="F210" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B210,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G210" s="16" cm="1">
+      <c r="G210" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G210" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B210,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H210" s="19" t="s">
         <v>119</v>
@@ -17099,9 +17099,9 @@
         <f t="array" aca="1" ref="L210" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H210,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M210" s="14" cm="1">
+      <c r="M210" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M210" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H210,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N210" s="14" t="s">
         <v>49</v>
@@ -17130,9 +17130,9 @@
         <f t="array" aca="1" ref="F211" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B211,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G211" s="16" cm="1">
+      <c r="G211" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G211" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B211,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H211" s="19" t="s">
         <v>120</v>
@@ -17153,9 +17153,9 @@
         <f t="array" aca="1" ref="L211" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H211,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M211" s="14" cm="1">
+      <c r="M211" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M211" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H211,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N211" s="14" t="s">
         <v>49</v>
@@ -17184,9 +17184,9 @@
         <f t="array" aca="1" ref="F212" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B212,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G212" s="16" cm="1">
+      <c r="G212" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G212" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B212,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H212" s="19" t="s">
         <v>121</v>
@@ -17207,9 +17207,9 @@
         <f t="array" aca="1" ref="L212" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H212,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M212" s="14" cm="1">
+      <c r="M212" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M212" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H212,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N212" s="14" t="s">
         <v>49</v>
@@ -17238,9 +17238,9 @@
         <f t="array" aca="1" ref="F213" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B213,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G213" s="16" cm="1">
+      <c r="G213" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G213" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B213,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H213" s="19" t="s">
         <v>122</v>
@@ -17261,9 +17261,9 @@
         <f t="array" aca="1" ref="L213" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H213,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M213" s="14" cm="1">
+      <c r="M213" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M213" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H213,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N213" s="14" t="s">
         <v>49</v>
@@ -17292,9 +17292,9 @@
         <f t="array" aca="1" ref="F214" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B214,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G214" s="16" cm="1">
+      <c r="G214" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G214" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B214,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H214" s="19" t="s">
         <v>123</v>
@@ -17315,9 +17315,9 @@
         <f t="array" aca="1" ref="L214" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H214,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M214" s="14" cm="1">
+      <c r="M214" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M214" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H214,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N214" s="14" t="s">
         <v>49</v>
@@ -17346,9 +17346,9 @@
         <f t="array" aca="1" ref="F215" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B215,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G215" s="16" cm="1">
+      <c r="G215" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G215" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B215,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H215" s="19" t="s">
         <v>124</v>
@@ -17369,9 +17369,9 @@
         <f t="array" aca="1" ref="L215" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H215,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M215" s="14" cm="1">
+      <c r="M215" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M215" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H215,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N215" s="14" t="s">
         <v>49</v>
@@ -17400,9 +17400,9 @@
         <f t="array" aca="1" ref="F216" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B216,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G216" s="16" cm="1">
+      <c r="G216" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G216" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B216,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H216" s="19" t="s">
         <v>125</v>
@@ -17423,9 +17423,9 @@
         <f t="array" aca="1" ref="L216" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H216,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M216" s="14" cm="1">
+      <c r="M216" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M216" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H216,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N216" s="14" t="s">
         <v>49</v>
@@ -17454,9 +17454,9 @@
         <f t="array" aca="1" ref="F217" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B217,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G217" s="16" cm="1">
+      <c r="G217" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G217" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B217,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H217" s="19" t="s">
         <v>126</v>
@@ -17477,9 +17477,9 @@
         <f t="array" aca="1" ref="L217" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H217,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M217" s="14" cm="1">
+      <c r="M217" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M217" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H217,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N217" s="14" t="s">
         <v>49</v>
@@ -17508,9 +17508,9 @@
         <f t="array" aca="1" ref="F218" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B218,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G218" s="16" cm="1">
+      <c r="G218" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G218" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B218,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H218" s="19" t="s">
         <v>127</v>
@@ -17531,9 +17531,9 @@
         <f t="array" aca="1" ref="L218" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H218,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M218" s="14" cm="1">
+      <c r="M218" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M218" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H218,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N218" s="14" t="s">
         <v>49</v>
@@ -17562,9 +17562,9 @@
         <f t="array" aca="1" ref="F219" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B219,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G219" s="16" cm="1">
+      <c r="G219" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G219" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B219,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H219" s="19" t="s">
         <v>128</v>
@@ -17585,9 +17585,9 @@
         <f t="array" aca="1" ref="L219" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H219,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M219" s="14" cm="1">
+      <c r="M219" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M219" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H219,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N219" s="14" t="s">
         <v>49</v>
@@ -17616,9 +17616,9 @@
         <f t="array" aca="1" ref="F220" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B220,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G220" s="16" cm="1">
+      <c r="G220" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G220" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B220,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H220" s="19" t="s">
         <v>129</v>
@@ -17639,9 +17639,9 @@
         <f t="array" aca="1" ref="L220" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H220,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M220" s="14" cm="1">
+      <c r="M220" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M220" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H220,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N220" s="14" t="s">
         <v>49</v>
@@ -17670,9 +17670,9 @@
         <f t="array" aca="1" ref="F221" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B221,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G221" s="16" cm="1">
+      <c r="G221" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G221" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B221,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H221" s="19" t="s">
         <v>130</v>
@@ -17693,9 +17693,9 @@
         <f t="array" aca="1" ref="L221" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H221,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M221" s="14" cm="1">
+      <c r="M221" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M221" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H221,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N221" s="14" t="s">
         <v>49</v>
@@ -17724,9 +17724,9 @@
         <f t="array" aca="1" ref="F222" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B222,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G222" s="16" cm="1">
+      <c r="G222" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G222" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B222,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H222" s="19" t="s">
         <v>131</v>
@@ -17747,9 +17747,9 @@
         <f t="array" aca="1" ref="L222" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H222,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M222" s="14" cm="1">
+      <c r="M222" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M222" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H222,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N222" s="14" t="s">
         <v>49</v>
@@ -17778,9 +17778,9 @@
         <f t="array" aca="1" ref="F223" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B223,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G223" s="16" cm="1">
+      <c r="G223" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G223" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B223,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H223" s="19" t="s">
         <v>75</v>
@@ -17801,9 +17801,9 @@
         <f t="array" aca="1" ref="L223" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H223,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M223" s="14" cm="1">
+      <c r="M223" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M223" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H223,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N223" s="14" t="s">
         <v>49</v>
@@ -17832,9 +17832,9 @@
         <f t="array" aca="1" ref="F224" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B224,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G224" s="16" cm="1">
+      <c r="G224" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G224" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B224,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H224" s="19" t="s">
         <v>76</v>
@@ -17855,9 +17855,9 @@
         <f t="array" aca="1" ref="L224" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H224,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M224" s="14" cm="1">
+      <c r="M224" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M224" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H224,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N224" s="14" t="s">
         <v>49</v>
@@ -17886,9 +17886,9 @@
         <f t="array" aca="1" ref="F225" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B225,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G225" s="16" cm="1">
+      <c r="G225" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G225" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B225,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H225" s="19" t="s">
         <v>77</v>
@@ -17909,9 +17909,9 @@
         <f t="array" aca="1" ref="L225" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H225,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M225" s="14" cm="1">
+      <c r="M225" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M225" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H225,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N225" s="14" t="s">
         <v>49</v>
@@ -17940,9 +17940,9 @@
         <f t="array" aca="1" ref="F226" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B226,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G226" s="16" cm="1">
+      <c r="G226" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G226" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B226,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H226" s="19" t="s">
         <v>78</v>
@@ -17963,9 +17963,9 @@
         <f t="array" aca="1" ref="L226" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H226,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M226" s="14" cm="1">
+      <c r="M226" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M226" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H226,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N226" s="14" t="s">
         <v>49</v>
@@ -17994,9 +17994,9 @@
         <f t="array" aca="1" ref="F227" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B227,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G227" s="16" cm="1">
+      <c r="G227" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G227" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B227,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H227" s="19" t="s">
         <v>79</v>
@@ -18017,9 +18017,9 @@
         <f t="array" aca="1" ref="L227" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H227,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M227" s="14" cm="1">
+      <c r="M227" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M227" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H227,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N227" s="14" t="s">
         <v>49</v>
@@ -18048,9 +18048,9 @@
         <f t="array" aca="1" ref="F228" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B228,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G228" s="16" cm="1">
+      <c r="G228" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G228" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B228,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H228" s="19" t="s">
         <v>80</v>
@@ -18071,9 +18071,9 @@
         <f t="array" aca="1" ref="L228" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H228,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M228" s="14" cm="1">
+      <c r="M228" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M228" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H228,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N228" s="14" t="s">
         <v>49</v>
@@ -18102,9 +18102,9 @@
         <f t="array" aca="1" ref="F229" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B229,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G229" s="16" cm="1">
+      <c r="G229" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G229" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B229,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H229" s="19" t="s">
         <v>81</v>
@@ -18125,9 +18125,9 @@
         <f t="array" aca="1" ref="L229" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H229,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M229" s="14" cm="1">
+      <c r="M229" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M229" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H229,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N229" s="14" t="s">
         <v>49</v>
@@ -18156,9 +18156,9 @@
         <f t="array" aca="1" ref="F230" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B230,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G230" s="16" cm="1">
+      <c r="G230" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G230" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B230,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H230" s="19" t="s">
         <v>82</v>
@@ -18179,9 +18179,9 @@
         <f t="array" aca="1" ref="L230" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H230,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M230" s="14" cm="1">
+      <c r="M230" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M230" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H230,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N230" s="14" t="s">
         <v>49</v>
@@ -18210,9 +18210,9 @@
         <f t="array" aca="1" ref="F231" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B231,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G231" s="16" cm="1">
+      <c r="G231" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G231" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B231,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H231" s="19" t="s">
         <v>83</v>
@@ -18233,9 +18233,9 @@
         <f t="array" aca="1" ref="L231" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H231,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M231" s="14" cm="1">
+      <c r="M231" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M231" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H231,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N231" s="14" t="s">
         <v>49</v>
@@ -18264,9 +18264,9 @@
         <f t="array" aca="1" ref="F232" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B232,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G232" s="16" cm="1">
+      <c r="G232" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G232" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B232,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H232" s="19" t="s">
         <v>84</v>
@@ -18287,9 +18287,9 @@
         <f t="array" aca="1" ref="L232" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H232,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M232" s="14" cm="1">
+      <c r="M232" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M232" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H232,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N232" s="14" t="s">
         <v>49</v>
@@ -18318,9 +18318,9 @@
         <f t="array" aca="1" ref="F233" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B233,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G233" s="16" cm="1">
+      <c r="G233" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G233" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B233,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H233" s="19" t="s">
         <v>85</v>
@@ -18341,9 +18341,9 @@
         <f t="array" aca="1" ref="L233" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H233,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M233" s="14" cm="1">
+      <c r="M233" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M233" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H233,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N233" s="14" t="s">
         <v>49</v>
@@ -18372,9 +18372,9 @@
         <f t="array" aca="1" ref="F234" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B234,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G234" s="16" cm="1">
+      <c r="G234" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G234" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B234,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H234" s="19" t="s">
         <v>86</v>
@@ -18395,9 +18395,9 @@
         <f t="array" aca="1" ref="L234" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H234,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M234" s="14" cm="1">
+      <c r="M234" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M234" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H234,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N234" s="14" t="s">
         <v>49</v>
@@ -18426,9 +18426,9 @@
         <f t="array" aca="1" ref="F235" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B235,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G235" s="16" cm="1">
+      <c r="G235" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G235" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B235,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H235" s="19" t="s">
         <v>87</v>
@@ -18449,9 +18449,9 @@
         <f t="array" aca="1" ref="L235" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H235,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M235" s="14" cm="1">
+      <c r="M235" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M235" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H235,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N235" s="14" t="s">
         <v>49</v>
@@ -18480,9 +18480,9 @@
         <f t="array" aca="1" ref="F236" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B236,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G236" s="16" cm="1">
+      <c r="G236" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G236" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B236,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H236" s="19" t="s">
         <v>88</v>
@@ -18503,9 +18503,9 @@
         <f t="array" aca="1" ref="L236" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H236,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M236" s="14" cm="1">
+      <c r="M236" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M236" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H236,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N236" s="14" t="s">
         <v>49</v>
@@ -18534,9 +18534,9 @@
         <f t="array" aca="1" ref="F237" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B237,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G237" s="16" cm="1">
+      <c r="G237" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G237" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B237,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H237" s="19" t="s">
         <v>89</v>
@@ -18557,9 +18557,9 @@
         <f t="array" aca="1" ref="L237" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H237,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M237" s="14" cm="1">
+      <c r="M237" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M237" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H237,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N237" s="14" t="s">
         <v>49</v>
@@ -18588,9 +18588,9 @@
         <f t="array" aca="1" ref="F238" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B238,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G238" s="16" cm="1">
+      <c r="G238" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G238" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B238,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H238" s="19" t="s">
         <v>90</v>
@@ -18611,9 +18611,9 @@
         <f t="array" aca="1" ref="L238" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H238,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M238" s="14" cm="1">
+      <c r="M238" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M238" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H238,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N238" s="14" t="s">
         <v>49</v>
@@ -18642,9 +18642,9 @@
         <f t="array" aca="1" ref="F239" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B239,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G239" s="16" cm="1">
+      <c r="G239" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G239" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B239,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H239" s="19" t="s">
         <v>91</v>
@@ -18665,9 +18665,9 @@
         <f t="array" aca="1" ref="L239" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H239,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M239" s="14" cm="1">
+      <c r="M239" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M239" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H239,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N239" s="14" t="s">
         <v>49</v>
@@ -18696,9 +18696,9 @@
         <f t="array" aca="1" ref="F240" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B240,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G240" s="16" cm="1">
+      <c r="G240" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G240" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B240,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H240" s="19" t="s">
         <v>92</v>
@@ -18719,9 +18719,9 @@
         <f t="array" aca="1" ref="L240" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H240,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M240" s="14" cm="1">
+      <c r="M240" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M240" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H240,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N240" s="14" t="s">
         <v>49</v>
@@ -18750,9 +18750,9 @@
         <f t="array" aca="1" ref="F241" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B241,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G241" s="16" cm="1">
+      <c r="G241" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G241" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B241,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H241" s="19" t="s">
         <v>93</v>
@@ -18773,9 +18773,9 @@
         <f t="array" aca="1" ref="L241" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H241,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M241" s="14" cm="1">
+      <c r="M241" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M241" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H241,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N241" s="14" t="s">
         <v>49</v>
@@ -18804,9 +18804,9 @@
         <f t="array" aca="1" ref="F242" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B242,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G242" s="16" cm="1">
+      <c r="G242" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G242" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B242,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H242" s="19" t="s">
         <v>94</v>
@@ -18827,9 +18827,9 @@
         <f t="array" aca="1" ref="L242" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H242,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M242" s="14" cm="1">
+      <c r="M242" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M242" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H242,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N242" s="14" t="s">
         <v>49</v>
@@ -18858,9 +18858,9 @@
         <f t="array" aca="1" ref="F243" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B243,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G243" s="16" cm="1">
+      <c r="G243" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G243" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B243,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H243" s="19" t="s">
         <v>95</v>
@@ -18881,9 +18881,9 @@
         <f t="array" aca="1" ref="L243" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H243,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M243" s="14" cm="1">
+      <c r="M243" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M243" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H243,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N243" s="14" t="s">
         <v>49</v>
@@ -18912,9 +18912,9 @@
         <f t="array" aca="1" ref="F244" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B244,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G244" s="16" cm="1">
+      <c r="G244" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G244" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B244,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H244" s="19" t="s">
         <v>96</v>
@@ -18935,9 +18935,9 @@
         <f t="array" aca="1" ref="L244" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H244,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M244" s="14" cm="1">
+      <c r="M244" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M244" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H244,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N244" s="14" t="s">
         <v>49</v>
@@ -18966,9 +18966,9 @@
         <f t="array" aca="1" ref="F245" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B245,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G245" s="16" cm="1">
+      <c r="G245" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G245" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B245,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H245" s="19" t="s">
         <v>97</v>
@@ -18989,9 +18989,9 @@
         <f t="array" aca="1" ref="L245" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H245,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M245" s="14" cm="1">
+      <c r="M245" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M245" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H245,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N245" s="14" t="s">
         <v>49</v>
@@ -19020,9 +19020,9 @@
         <f t="array" aca="1" ref="F246" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B246,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G246" s="16" cm="1">
+      <c r="G246" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G246" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B246,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H246" s="19" t="s">
         <v>98</v>
@@ -19043,9 +19043,9 @@
         <f t="array" aca="1" ref="L246" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H246,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M246" s="14" cm="1">
+      <c r="M246" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M246" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H246,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N246" s="14" t="s">
         <v>49</v>
@@ -19074,9 +19074,9 @@
         <f t="array" aca="1" ref="F247" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B247,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G247" s="16" cm="1">
+      <c r="G247" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G247" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B247,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H247" s="19" t="s">
         <v>99</v>
@@ -19097,9 +19097,9 @@
         <f t="array" aca="1" ref="L247" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H247,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M247" s="14" cm="1">
+      <c r="M247" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M247" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H247,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N247" s="14" t="s">
         <v>49</v>
@@ -19128,9 +19128,9 @@
         <f t="array" aca="1" ref="F248" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B248,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G248" s="16" cm="1">
+      <c r="G248" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G248" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B248,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H248" s="19" t="s">
         <v>100</v>
@@ -19151,9 +19151,9 @@
         <f t="array" aca="1" ref="L248" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H248,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M248" s="14" cm="1">
+      <c r="M248" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M248" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H248,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N248" s="14" t="s">
         <v>49</v>
@@ -19182,9 +19182,9 @@
         <f t="array" aca="1" ref="F249" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B249,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G249" s="16" cm="1">
+      <c r="G249" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G249" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B249,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H249" s="19" t="s">
         <v>101</v>
@@ -19205,9 +19205,9 @@
         <f t="array" aca="1" ref="L249" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H249,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M249" s="14" cm="1">
+      <c r="M249" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M249" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H249,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N249" s="14" t="s">
         <v>49</v>
@@ -19236,9 +19236,9 @@
         <f t="array" aca="1" ref="F250" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B250,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G250" s="16" cm="1">
+      <c r="G250" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G250" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B250,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H250" s="19" t="s">
         <v>102</v>
@@ -19259,9 +19259,9 @@
         <f t="array" aca="1" ref="L250" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H250,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="M250" s="14" cm="1">
+      <c r="M250" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M250" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H250,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N250" s="14" t="s">
         <v>49</v>
@@ -19290,9 +19290,9 @@
         <f t="array" aca="1" ref="F251" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B251,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G251" s="16" cm="1">
+      <c r="G251" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G251" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B251,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H251" s="19" t="s">
         <v>0</v>
@@ -19313,9 +19313,9 @@
         <f t="array" aca="1" ref="L251" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H251,[1]欄位定義!$A:$A, 0))</f>
         <v>EGY</v>
       </c>
-      <c r="M251" s="14" cm="1">
+      <c r="M251" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M251" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H251,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N251" s="14" t="s">
         <v>50</v>
@@ -19344,9 +19344,9 @@
         <f t="array" aca="1" ref="F252" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B252,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G252" s="16" cm="1">
+      <c r="G252" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G252" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B252,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H252" s="19" t="s">
         <v>1</v>
@@ -19367,9 +19367,9 @@
         <f t="array" aca="1" ref="L252" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H252,[1]欄位定義!$A:$A, 0))</f>
         <v>STB</v>
       </c>
-      <c r="M252" s="14" cm="1">
+      <c r="M252" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M252" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H252,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N252" s="14" t="s">
         <v>50</v>
@@ -19398,9 +19398,9 @@
         <f t="array" aca="1" ref="F253" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B253,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G253" s="16" cm="1">
+      <c r="G253" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G253" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B253,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H253" s="19" t="s">
         <v>2</v>
@@ -19421,9 +19421,9 @@
         <f t="array" aca="1" ref="L253" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H253,[1]欄位定義!$A:$A, 0))</f>
         <v>STB</v>
       </c>
-      <c r="M253" s="14" cm="1">
+      <c r="M253" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M253" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H253,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N253" s="14" t="s">
         <v>50</v>
@@ -19452,9 +19452,9 @@
         <f t="array" aca="1" ref="F254" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B254,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G254" s="16" cm="1">
+      <c r="G254" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G254" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B254,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H254" s="19" t="s">
         <v>3</v>
@@ -19475,9 +19475,9 @@
         <f t="array" aca="1" ref="L254" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H254,[1]欄位定義!$A:$A, 0))</f>
         <v>STB</v>
       </c>
-      <c r="M254" s="14" cm="1">
+      <c r="M254" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M254" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H254,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N254" s="14" t="s">
         <v>50</v>
@@ -19506,9 +19506,9 @@
         <f t="array" aca="1" ref="F255" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B255,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G255" s="16" cm="1">
+      <c r="G255" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G255" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B255,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H255" s="19" t="s">
         <v>16</v>
@@ -19529,9 +19529,9 @@
         <f t="array" aca="1" ref="L255" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H255,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M255" s="14" cm="1">
+      <c r="M255" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M255" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H255,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N255" s="14" t="s">
         <v>50</v>
@@ -19560,9 +19560,9 @@
         <f t="array" aca="1" ref="F256" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B256,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G256" s="16" cm="1">
+      <c r="G256" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G256" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B256,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H256" s="19" t="s">
         <v>22</v>
@@ -19583,9 +19583,9 @@
         <f t="array" aca="1" ref="L256" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H256,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M256" s="14" cm="1">
+      <c r="M256" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M256" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H256,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N256" s="14" t="s">
         <v>50</v>
@@ -19614,9 +19614,9 @@
         <f t="array" aca="1" ref="F257" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B257,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G257" s="16" cm="1">
+      <c r="G257" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G257" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B257,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H257" s="19" t="s">
         <v>31</v>
@@ -19637,9 +19637,9 @@
         <f t="array" aca="1" ref="L257" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H257,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M257" s="14" cm="1">
+      <c r="M257" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M257" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H257,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N257" s="14" t="s">
         <v>50</v>
@@ -19668,9 +19668,9 @@
         <f t="array" aca="1" ref="F258" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B258,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G258" s="16" cm="1">
+      <c r="G258" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G258" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B258,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H258" s="19" t="s">
         <v>32</v>
@@ -19691,9 +19691,9 @@
         <f t="array" aca="1" ref="L258" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H258,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M258" s="14" cm="1">
+      <c r="M258" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M258" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H258,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N258" s="14" t="s">
         <v>50</v>
@@ -19722,9 +19722,9 @@
         <f t="array" aca="1" ref="F259" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B259,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G259" s="16" cm="1">
+      <c r="G259" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G259" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B259,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H259" s="19" t="s">
         <v>33</v>
@@ -19745,9 +19745,9 @@
         <f t="array" aca="1" ref="L259" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H259,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M259" s="14" cm="1">
+      <c r="M259" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M259" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H259,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N259" s="14" t="s">
         <v>50</v>
@@ -19776,9 +19776,9 @@
         <f t="array" aca="1" ref="F260" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B260,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G260" s="16" cm="1">
+      <c r="G260" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G260" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B260,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H260" s="19" t="s">
         <v>7</v>
@@ -19799,9 +19799,9 @@
         <f t="array" aca="1" ref="L260" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H260,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M260" s="14" cm="1">
+      <c r="M260" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M260" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H260,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N260" s="14" t="s">
         <v>51</v>
@@ -19830,9 +19830,9 @@
         <f t="array" aca="1" ref="F261" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B261,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G261" s="16" cm="1">
+      <c r="G261" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G261" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B261,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H261" s="19" t="s">
         <v>14</v>
@@ -19853,9 +19853,9 @@
         <f t="array" aca="1" ref="L261" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H261,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M261" s="14" cm="1">
+      <c r="M261" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M261" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H261,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N261" s="14" t="s">
         <v>51</v>
@@ -19884,9 +19884,9 @@
         <f t="array" aca="1" ref="F262" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B262,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G262" s="16" cm="1">
+      <c r="G262" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G262" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B262,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H262" s="19" t="s">
         <v>15</v>
@@ -19907,9 +19907,9 @@
         <f t="array" aca="1" ref="L262" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H262,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M262" s="14" cm="1">
+      <c r="M262" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M262" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H262,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N262" s="14" t="s">
         <v>51</v>
@@ -19938,9 +19938,9 @@
         <f t="array" aca="1" ref="F263" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B263,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G263" s="16" cm="1">
+      <c r="G263" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G263" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B263,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H263" s="19" t="s">
         <v>20</v>
@@ -19961,9 +19961,9 @@
         <f t="array" aca="1" ref="L263" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H263,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M263" s="14" cm="1">
+      <c r="M263" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M263" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H263,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N263" s="14" t="s">
         <v>51</v>
@@ -19992,9 +19992,9 @@
         <f t="array" aca="1" ref="F264" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B264,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G264" s="16" cm="1">
+      <c r="G264" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G264" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B264,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H264" s="19" t="s">
         <v>21</v>
@@ -20015,9 +20015,9 @@
         <f t="array" aca="1" ref="L264" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H264,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M264" s="14" cm="1">
+      <c r="M264" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M264" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H264,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N264" s="14" t="s">
         <v>51</v>
@@ -20046,9 +20046,9 @@
         <f t="array" aca="1" ref="F265" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B265,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="G265" s="16" cm="1">
+      <c r="G265" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G265" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B265,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H265" s="20" t="s">
         <v>38</v>
@@ -20069,9 +20069,9 @@
         <f t="array" aca="1" ref="L265" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H265,[1]欄位定義!$A:$A, 0))</f>
         <v>SF</v>
       </c>
-      <c r="M265" s="14" cm="1">
+      <c r="M265" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M265" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H265,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N265" s="14" t="s">
         <v>52</v>
@@ -20100,9 +20100,9 @@
         <f t="array" aca="1" ref="F266" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B266,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G266" s="16" cm="1">
+      <c r="G266" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G266" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B266,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H266" s="19" t="s">
         <v>37</v>
@@ -20123,9 +20123,9 @@
         <f t="array" aca="1" ref="L266" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H266,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M266" s="14" cm="1">
+      <c r="M266" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M266" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H266,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N266" s="14" t="s">
         <v>47</v>
@@ -20154,9 +20154,9 @@
         <f t="array" aca="1" ref="F267" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B267,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G267" s="16" cm="1">
+      <c r="G267" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G267" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B267,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H267" s="19" t="s">
         <v>54</v>
@@ -20208,9 +20208,9 @@
         <f t="array" aca="1" ref="F268" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B268,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G268" s="16" cm="1">
+      <c r="G268" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G268" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B268,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H268" s="19" t="s">
         <v>55</v>
@@ -20262,9 +20262,9 @@
         <f t="array" aca="1" ref="F269" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B269,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G269" s="16" cm="1">
+      <c r="G269" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G269" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B269,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H269" s="19" t="s">
         <v>4</v>
@@ -20285,9 +20285,9 @@
         <f t="array" aca="1" ref="L269" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H269,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M269" s="14" cm="1">
+      <c r="M269" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M269" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H269,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N269" s="14" t="s">
         <v>48</v>
@@ -20316,9 +20316,9 @@
         <f t="array" aca="1" ref="F270" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B270,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G270" s="16" cm="1">
+      <c r="G270" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G270" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B270,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H270" s="19" t="s">
         <v>5</v>
@@ -20339,9 +20339,9 @@
         <f t="array" aca="1" ref="L270" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H270,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M270" s="14" cm="1">
+      <c r="M270" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M270" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H270,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N270" s="14" t="s">
         <v>48</v>
@@ -20370,9 +20370,9 @@
         <f t="array" aca="1" ref="F271" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B271,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G271" s="16" cm="1">
+      <c r="G271" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G271" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B271,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H271" s="19" t="s">
         <v>34</v>
@@ -20393,9 +20393,9 @@
         <f t="array" aca="1" ref="L271" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H271,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M271" s="14" cm="1">
+      <c r="M271" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M271" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H271,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N271" s="14" t="s">
         <v>49</v>
@@ -20424,9 +20424,9 @@
         <f t="array" aca="1" ref="F272" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B272,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G272" s="16" cm="1">
+      <c r="G272" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G272" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B272,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H272" s="19" t="s">
         <v>35</v>
@@ -20447,9 +20447,9 @@
         <f t="array" aca="1" ref="L272" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H272,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M272" s="14" cm="1">
+      <c r="M272" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M272" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H272,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N272" s="14" t="s">
         <v>49</v>
@@ -20478,9 +20478,9 @@
         <f t="array" aca="1" ref="F273" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B273,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G273" s="16" cm="1">
+      <c r="G273" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G273" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B273,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H273" s="19" t="s">
         <v>25</v>
@@ -20501,9 +20501,9 @@
         <f t="array" aca="1" ref="L273" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H273,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M273" s="14" cm="1">
+      <c r="M273" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M273" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H273,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N273" s="14" t="s">
         <v>49</v>
@@ -20532,9 +20532,9 @@
         <f t="array" aca="1" ref="F274" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B274,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G274" s="16" cm="1">
+      <c r="G274" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G274" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B274,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H274" s="19" t="s">
         <v>26</v>
@@ -20555,9 +20555,9 @@
         <f t="array" aca="1" ref="L274" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H274,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M274" s="14" cm="1">
+      <c r="M274" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M274" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H274,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N274" s="14" t="s">
         <v>49</v>
@@ -20586,9 +20586,9 @@
         <f t="array" aca="1" ref="F275" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B275,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G275" s="16" cm="1">
+      <c r="G275" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G275" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B275,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H275" s="19" t="s">
         <v>27</v>
@@ -20609,9 +20609,9 @@
         <f t="array" aca="1" ref="L275" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H275,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M275" s="14" cm="1">
+      <c r="M275" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M275" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H275,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N275" s="14" t="s">
         <v>49</v>
@@ -20640,9 +20640,9 @@
         <f t="array" aca="1" ref="F276" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B276,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G276" s="16" cm="1">
+      <c r="G276" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G276" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B276,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H276" s="19" t="s">
         <v>28</v>
@@ -20663,9 +20663,9 @@
         <f t="array" aca="1" ref="L276" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H276,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M276" s="14" cm="1">
+      <c r="M276" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M276" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H276,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N276" s="14" t="s">
         <v>49</v>
@@ -20694,9 +20694,9 @@
         <f t="array" aca="1" ref="F277" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B277,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G277" s="16" cm="1">
+      <c r="G277" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G277" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B277,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H277" s="19" t="s">
         <v>39</v>
@@ -20717,9 +20717,9 @@
         <f t="array" aca="1" ref="L277" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H277,[1]欄位定義!$A:$A, 0))</f>
         <v>IND</v>
       </c>
-      <c r="M277" s="14" cm="1">
+      <c r="M277" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M277" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H277,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N277" s="14" t="s">
         <v>49</v>
@@ -20748,9 +20748,9 @@
         <f t="array" aca="1" ref="F278" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B278,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G278" s="16" cm="1">
+      <c r="G278" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G278" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B278,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H278" s="19" t="s">
         <v>40</v>
@@ -20771,9 +20771,9 @@
         <f t="array" aca="1" ref="L278" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H278,[1]欄位定義!$A:$A, 0))</f>
         <v>IND</v>
       </c>
-      <c r="M278" s="14" cm="1">
+      <c r="M278" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M278" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H278,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N278" s="14" t="s">
         <v>49</v>
@@ -20802,9 +20802,9 @@
         <f t="array" aca="1" ref="F279" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B279,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G279" s="16" cm="1">
+      <c r="G279" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G279" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B279,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H279" s="19" t="s">
         <v>41</v>
@@ -20825,9 +20825,9 @@
         <f t="array" aca="1" ref="L279" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H279,[1]欄位定義!$A:$A, 0))</f>
         <v>VN</v>
       </c>
-      <c r="M279" s="14" cm="1">
+      <c r="M279" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M279" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H279,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N279" s="14" t="s">
         <v>49</v>
@@ -20856,9 +20856,9 @@
         <f t="array" aca="1" ref="F280" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B280,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G280" s="16" cm="1">
+      <c r="G280" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G280" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B280,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H280" s="19" t="s">
         <v>42</v>
@@ -20879,9 +20879,9 @@
         <f t="array" aca="1" ref="L280" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H280,[1]欄位定義!$A:$A, 0))</f>
         <v>VN</v>
       </c>
-      <c r="M280" s="14" cm="1">
+      <c r="M280" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M280" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H280,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N280" s="14" t="s">
         <v>49</v>
@@ -20910,9 +20910,9 @@
         <f t="array" aca="1" ref="F281" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B281,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G281" s="16" cm="1">
+      <c r="G281" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G281" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B281,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H281" s="19" t="s">
         <v>43</v>
@@ -20933,9 +20933,9 @@
         <f t="array" aca="1" ref="L281" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H281,[1]欄位定義!$A:$A, 0))</f>
         <v>THAI</v>
       </c>
-      <c r="M281" s="14" cm="1">
+      <c r="M281" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M281" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H281,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N281" s="14" t="s">
         <v>49</v>
@@ -20964,9 +20964,9 @@
         <f t="array" aca="1" ref="F282" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B282,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G282" s="16" cm="1">
+      <c r="G282" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G282" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B282,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H282" s="19" t="s">
         <v>44</v>
@@ -20987,9 +20987,9 @@
         <f t="array" aca="1" ref="L282" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H282,[1]欄位定義!$A:$A, 0))</f>
         <v>THAI</v>
       </c>
-      <c r="M282" s="14" cm="1">
+      <c r="M282" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M282" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H282,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N282" s="14" t="s">
         <v>49</v>
@@ -21018,9 +21018,9 @@
         <f t="array" aca="1" ref="F283" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B283,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G283" s="16" cm="1">
+      <c r="G283" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G283" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B283,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H283" s="19" t="s">
         <v>36</v>
@@ -21041,9 +21041,9 @@
         <f t="array" aca="1" ref="L283" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H283,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M283" s="14" cm="1">
+      <c r="M283" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M283" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H283,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N283" s="14" t="s">
         <v>51</v>
@@ -21072,9 +21072,9 @@
         <f t="array" aca="1" ref="F284" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B284,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G284" s="16" cm="1">
+      <c r="G284" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G284" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B284,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H284" s="19" t="s">
         <v>37</v>
@@ -21095,9 +21095,9 @@
         <f t="array" aca="1" ref="L284" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H284,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M284" s="14" cm="1">
+      <c r="M284" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M284" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H284,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N284" s="14" t="s">
         <v>47</v>
@@ -21126,9 +21126,9 @@
         <f t="array" aca="1" ref="F285" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B285,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G285" s="16" cm="1">
+      <c r="G285" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G285" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B285,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H285" s="19" t="s">
         <v>54</v>
@@ -21180,9 +21180,9 @@
         <f t="array" aca="1" ref="F286" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B286,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G286" s="16" cm="1">
+      <c r="G286" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G286" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B286,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H286" s="19" t="s">
         <v>55</v>
@@ -21234,9 +21234,9 @@
         <f t="array" aca="1" ref="F287" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B287,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G287" s="16" cm="1">
+      <c r="G287" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G287" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B287,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H287" s="19" t="s">
         <v>4</v>
@@ -21257,9 +21257,9 @@
         <f t="array" aca="1" ref="L287" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H287,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M287" s="14" cm="1">
+      <c r="M287" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M287" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H287,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N287" s="14" t="s">
         <v>48</v>
@@ -21288,9 +21288,9 @@
         <f t="array" aca="1" ref="F288" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B288,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G288" s="16" cm="1">
+      <c r="G288" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G288" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B288,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H288" s="19" t="s">
         <v>5</v>
@@ -21311,9 +21311,9 @@
         <f t="array" aca="1" ref="L288" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H288,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M288" s="14" cm="1">
+      <c r="M288" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M288" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H288,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N288" s="14" t="s">
         <v>48</v>
@@ -21342,9 +21342,9 @@
         <f t="array" aca="1" ref="F289" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B289,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G289" s="16" cm="1">
+      <c r="G289" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G289" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B289,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H289" s="19" t="s">
         <v>34</v>
@@ -21365,9 +21365,9 @@
         <f t="array" aca="1" ref="L289" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H289,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M289" s="14" cm="1">
+      <c r="M289" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M289" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H289,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N289" s="14" t="s">
         <v>49</v>
@@ -21396,9 +21396,9 @@
         <f t="array" aca="1" ref="F290" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B290,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G290" s="16" cm="1">
+      <c r="G290" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G290" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B290,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H290" s="19" t="s">
         <v>35</v>
@@ -21419,9 +21419,9 @@
         <f t="array" aca="1" ref="L290" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H290,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M290" s="14" cm="1">
+      <c r="M290" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M290" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H290,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N290" s="14" t="s">
         <v>49</v>
@@ -21450,9 +21450,9 @@
         <f t="array" aca="1" ref="F291" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B291,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G291" s="16" cm="1">
+      <c r="G291" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G291" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B291,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H291" s="19" t="s">
         <v>25</v>
@@ -21473,9 +21473,9 @@
         <f t="array" aca="1" ref="L291" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H291,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M291" s="14" cm="1">
+      <c r="M291" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M291" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H291,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N291" s="14" t="s">
         <v>49</v>
@@ -21504,9 +21504,9 @@
         <f t="array" aca="1" ref="F292" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B292,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G292" s="16" cm="1">
+      <c r="G292" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G292" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B292,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H292" s="19" t="s">
         <v>26</v>
@@ -21527,9 +21527,9 @@
         <f t="array" aca="1" ref="L292" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H292,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M292" s="14" cm="1">
+      <c r="M292" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M292" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H292,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N292" s="14" t="s">
         <v>49</v>
@@ -21558,9 +21558,9 @@
         <f t="array" aca="1" ref="F293" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B293,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G293" s="16" cm="1">
+      <c r="G293" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G293" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B293,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H293" s="19" t="s">
         <v>27</v>
@@ -21581,9 +21581,9 @@
         <f t="array" aca="1" ref="L293" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H293,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M293" s="14" cm="1">
+      <c r="M293" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M293" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H293,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N293" s="14" t="s">
         <v>49</v>
@@ -21612,9 +21612,9 @@
         <f t="array" aca="1" ref="F294" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B294,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G294" s="16" cm="1">
+      <c r="G294" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G294" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B294,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H294" s="19" t="s">
         <v>28</v>
@@ -21635,9 +21635,9 @@
         <f t="array" aca="1" ref="L294" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H294,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M294" s="14" cm="1">
+      <c r="M294" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M294" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H294,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N294" s="14" t="s">
         <v>49</v>
@@ -21666,9 +21666,9 @@
         <f t="array" aca="1" ref="F295" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B295,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G295" s="16" cm="1">
+      <c r="G295" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G295" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B295,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H295" s="19" t="s">
         <v>39</v>
@@ -21689,9 +21689,9 @@
         <f t="array" aca="1" ref="L295" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H295,[1]欄位定義!$A:$A, 0))</f>
         <v>IND</v>
       </c>
-      <c r="M295" s="14" cm="1">
+      <c r="M295" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M295" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H295,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N295" s="14" t="s">
         <v>49</v>
@@ -21720,9 +21720,9 @@
         <f t="array" aca="1" ref="F296" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B296,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G296" s="16" cm="1">
+      <c r="G296" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G296" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B296,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H296" s="19" t="s">
         <v>40</v>
@@ -21743,9 +21743,9 @@
         <f t="array" aca="1" ref="L296" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H296,[1]欄位定義!$A:$A, 0))</f>
         <v>IND</v>
       </c>
-      <c r="M296" s="14" cm="1">
+      <c r="M296" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M296" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H296,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N296" s="14" t="s">
         <v>49</v>
@@ -21774,9 +21774,9 @@
         <f t="array" aca="1" ref="F297" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B297,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G297" s="16" cm="1">
+      <c r="G297" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G297" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B297,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H297" s="19" t="s">
         <v>41</v>
@@ -21797,9 +21797,9 @@
         <f t="array" aca="1" ref="L297" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H297,[1]欄位定義!$A:$A, 0))</f>
         <v>VN</v>
       </c>
-      <c r="M297" s="14" cm="1">
+      <c r="M297" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M297" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H297,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N297" s="14" t="s">
         <v>49</v>
@@ -21828,9 +21828,9 @@
         <f t="array" aca="1" ref="F298" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B298,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G298" s="16" cm="1">
+      <c r="G298" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G298" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B298,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H298" s="19" t="s">
         <v>42</v>
@@ -21851,9 +21851,9 @@
         <f t="array" aca="1" ref="L298" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H298,[1]欄位定義!$A:$A, 0))</f>
         <v>VN</v>
       </c>
-      <c r="M298" s="14" cm="1">
+      <c r="M298" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M298" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H298,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N298" s="14" t="s">
         <v>49</v>
@@ -21882,9 +21882,9 @@
         <f t="array" aca="1" ref="F299" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B299,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G299" s="16" cm="1">
+      <c r="G299" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G299" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B299,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H299" s="19" t="s">
         <v>43</v>
@@ -21905,9 +21905,9 @@
         <f t="array" aca="1" ref="L299" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H299,[1]欄位定義!$A:$A, 0))</f>
         <v>THAI</v>
       </c>
-      <c r="M299" s="14" cm="1">
+      <c r="M299" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M299" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H299,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N299" s="14" t="s">
         <v>49</v>
@@ -21936,9 +21936,9 @@
         <f t="array" aca="1" ref="F300" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B300,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G300" s="16" cm="1">
+      <c r="G300" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G300" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B300,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H300" s="19" t="s">
         <v>44</v>
@@ -21959,9 +21959,9 @@
         <f t="array" aca="1" ref="L300" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H300,[1]欄位定義!$A:$A, 0))</f>
         <v>THAI</v>
       </c>
-      <c r="M300" s="14" cm="1">
+      <c r="M300" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M300" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H300,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N300" s="14" t="s">
         <v>49</v>
@@ -21990,9 +21990,9 @@
         <f t="array" aca="1" ref="F301" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B301,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="G301" s="16" cm="1">
+      <c r="G301" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G301" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B301,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H301" s="19" t="s">
         <v>36</v>
@@ -22013,9 +22013,9 @@
         <f t="array" aca="1" ref="L301" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H301,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M301" s="14" cm="1">
+      <c r="M301" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M301" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H301,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N301" s="14" t="s">
         <v>51</v>
@@ -22044,9 +22044,9 @@
         <f t="array" aca="1" ref="F302" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B302,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G302" s="16" cm="1">
+      <c r="G302" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G302" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B302,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H302" s="19" t="s">
         <v>8</v>
@@ -22067,9 +22067,9 @@
         <f t="array" aca="1" ref="L302" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H302,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M302" s="14" cm="1">
+      <c r="M302" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M302" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H302,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N302" s="18" t="s">
         <v>46</v>
@@ -22098,9 +22098,9 @@
         <f t="array" aca="1" ref="F303" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B303,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G303" s="16" cm="1">
+      <c r="G303" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G303" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B303,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H303" s="19" t="s">
         <v>9</v>
@@ -22121,9 +22121,9 @@
         <f t="array" aca="1" ref="L303" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H303,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M303" s="14" cm="1">
+      <c r="M303" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M303" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H303,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N303" s="18" t="s">
         <v>46</v>
@@ -22152,9 +22152,9 @@
         <f t="array" aca="1" ref="F304" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B304,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G304" s="16" cm="1">
+      <c r="G304" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G304" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B304,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H304" s="19" t="s">
         <v>10</v>
@@ -22175,9 +22175,9 @@
         <f t="array" aca="1" ref="L304" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H304,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M304" s="14" cm="1">
+      <c r="M304" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M304" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H304,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N304" s="18" t="s">
         <v>46</v>
@@ -22206,9 +22206,9 @@
         <f t="array" aca="1" ref="F305" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B305,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G305" s="16" cm="1">
+      <c r="G305" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G305" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B305,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H305" s="19" t="s">
         <v>11</v>
@@ -22229,9 +22229,9 @@
         <f t="array" aca="1" ref="L305" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H305,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M305" s="14" cm="1">
+      <c r="M305" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M305" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H305,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N305" s="18" t="s">
         <v>46</v>
@@ -22260,9 +22260,9 @@
         <f t="array" aca="1" ref="F306" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B306,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G306" s="16" cm="1">
+      <c r="G306" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G306" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B306,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H306" s="19" t="s">
         <v>12</v>
@@ -22283,9 +22283,9 @@
         <f t="array" aca="1" ref="L306" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H306,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M306" s="14" cm="1">
+      <c r="M306" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M306" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H306,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N306" s="18" t="s">
         <v>46</v>
@@ -22314,9 +22314,9 @@
         <f t="array" aca="1" ref="F307" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B307,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G307" s="16" cm="1">
+      <c r="G307" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G307" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B307,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H307" s="19" t="s">
         <v>13</v>
@@ -22337,9 +22337,9 @@
         <f t="array" aca="1" ref="L307" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H307,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M307" s="14" cm="1">
+      <c r="M307" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M307" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H307,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N307" s="18" t="s">
         <v>46</v>
@@ -22368,9 +22368,9 @@
         <f t="array" aca="1" ref="F308" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B308,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G308" s="16" cm="1">
+      <c r="G308" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G308" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B308,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H308" s="19" t="s">
         <v>54</v>
@@ -22422,9 +22422,9 @@
         <f t="array" aca="1" ref="F309" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B309,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G309" s="16" cm="1">
+      <c r="G309" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G309" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B309,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H309" s="19" t="s">
         <v>55</v>
@@ -22476,9 +22476,9 @@
         <f t="array" aca="1" ref="F310" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B310,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G310" s="16" cm="1">
+      <c r="G310" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G310" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B310,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H310" s="19" t="s">
         <v>4</v>
@@ -22499,9 +22499,9 @@
         <f t="array" aca="1" ref="L310" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H310,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M310" s="14" cm="1">
+      <c r="M310" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M310" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H310,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N310" s="14" t="s">
         <v>48</v>
@@ -22530,9 +22530,9 @@
         <f t="array" aca="1" ref="F311" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B311,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G311" s="16" cm="1">
+      <c r="G311" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G311" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B311,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H311" s="19" t="s">
         <v>5</v>
@@ -22553,9 +22553,9 @@
         <f t="array" aca="1" ref="L311" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H311,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M311" s="14" cm="1">
+      <c r="M311" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M311" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H311,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N311" s="14" t="s">
         <v>48</v>
@@ -22584,9 +22584,9 @@
         <f t="array" aca="1" ref="F312" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B312,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G312" s="16" cm="1">
+      <c r="G312" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G312" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B312,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H312" s="19" t="s">
         <v>34</v>
@@ -22607,9 +22607,9 @@
         <f t="array" aca="1" ref="L312" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H312,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M312" s="14" cm="1">
+      <c r="M312" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M312" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H312,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N312" s="14" t="s">
         <v>49</v>
@@ -22638,9 +22638,9 @@
         <f t="array" aca="1" ref="F313" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B313,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G313" s="16" cm="1">
+      <c r="G313" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G313" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B313,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H313" s="19" t="s">
         <v>35</v>
@@ -22661,9 +22661,9 @@
         <f t="array" aca="1" ref="L313" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H313,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M313" s="14" cm="1">
+      <c r="M313" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M313" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H313,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N313" s="14" t="s">
         <v>49</v>
@@ -22692,9 +22692,9 @@
         <f t="array" aca="1" ref="F314" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B314,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G314" s="16" cm="1">
+      <c r="G314" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G314" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B314,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H314" s="19" t="s">
         <v>25</v>
@@ -22715,9 +22715,9 @@
         <f t="array" aca="1" ref="L314" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H314,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M314" s="14" cm="1">
+      <c r="M314" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M314" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H314,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N314" s="14" t="s">
         <v>49</v>
@@ -22746,9 +22746,9 @@
         <f t="array" aca="1" ref="F315" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B315,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G315" s="16" cm="1">
+      <c r="G315" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G315" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B315,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H315" s="19" t="s">
         <v>26</v>
@@ -22769,9 +22769,9 @@
         <f t="array" aca="1" ref="L315" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H315,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M315" s="14" cm="1">
+      <c r="M315" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M315" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H315,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N315" s="14" t="s">
         <v>49</v>
@@ -22800,9 +22800,9 @@
         <f t="array" aca="1" ref="F316" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B316,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G316" s="16" cm="1">
+      <c r="G316" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G316" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B316,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H316" s="19" t="s">
         <v>8</v>
@@ -22823,9 +22823,9 @@
         <f t="array" aca="1" ref="L316" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H316,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M316" s="14" cm="1">
+      <c r="M316" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M316" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H316,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N316" s="18" t="s">
         <v>46</v>
@@ -22854,9 +22854,9 @@
         <f t="array" aca="1" ref="F317" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B317,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G317" s="16" cm="1">
+      <c r="G317" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G317" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B317,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H317" s="19" t="s">
         <v>9</v>
@@ -22877,9 +22877,9 @@
         <f t="array" aca="1" ref="L317" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H317,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M317" s="14" cm="1">
+      <c r="M317" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M317" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H317,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N317" s="18" t="s">
         <v>46</v>
@@ -22908,9 +22908,9 @@
         <f t="array" aca="1" ref="F318" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B318,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G318" s="16" cm="1">
+      <c r="G318" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G318" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B318,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H318" s="19" t="s">
         <v>10</v>
@@ -22931,9 +22931,9 @@
         <f t="array" aca="1" ref="L318" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H318,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M318" s="14" cm="1">
+      <c r="M318" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M318" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H318,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N318" s="18" t="s">
         <v>46</v>
@@ -22962,9 +22962,9 @@
         <f t="array" aca="1" ref="F319" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B319,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G319" s="16" cm="1">
+      <c r="G319" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G319" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B319,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H319" s="19" t="s">
         <v>11</v>
@@ -22985,9 +22985,9 @@
         <f t="array" aca="1" ref="L319" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H319,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M319" s="14" cm="1">
+      <c r="M319" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M319" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H319,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N319" s="18" t="s">
         <v>46</v>
@@ -23016,9 +23016,9 @@
         <f t="array" aca="1" ref="F320" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B320,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G320" s="16" cm="1">
+      <c r="G320" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G320" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B320,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H320" s="19" t="s">
         <v>12</v>
@@ -23039,9 +23039,9 @@
         <f t="array" aca="1" ref="L320" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H320,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M320" s="14" cm="1">
+      <c r="M320" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M320" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H320,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N320" s="18" t="s">
         <v>46</v>
@@ -23070,9 +23070,9 @@
         <f t="array" aca="1" ref="F321" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B321,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G321" s="16" cm="1">
+      <c r="G321" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G321" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B321,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H321" s="19" t="s">
         <v>13</v>
@@ -23093,9 +23093,9 @@
         <f t="array" aca="1" ref="L321" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H321,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M321" s="14" cm="1">
+      <c r="M321" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M321" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H321,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N321" s="18" t="s">
         <v>46</v>
@@ -23124,9 +23124,9 @@
         <f t="array" aca="1" ref="F322" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B322,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G322" s="16" cm="1">
+      <c r="G322" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G322" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B322,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H322" s="19" t="s">
         <v>54</v>
@@ -23178,9 +23178,9 @@
         <f t="array" aca="1" ref="F323" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B323,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G323" s="16" cm="1">
+      <c r="G323" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G323" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B323,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H323" s="19" t="s">
         <v>55</v>
@@ -23232,9 +23232,9 @@
         <f t="array" aca="1" ref="F324" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B324,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G324" s="16" cm="1">
+      <c r="G324" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G324" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B324,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H324" s="19" t="s">
         <v>4</v>
@@ -23255,9 +23255,9 @@
         <f t="array" aca="1" ref="L324" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H324,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M324" s="14" cm="1">
+      <c r="M324" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M324" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H324,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N324" s="14" t="s">
         <v>48</v>
@@ -23286,9 +23286,9 @@
         <f t="array" aca="1" ref="F325" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B325,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G325" s="16" cm="1">
+      <c r="G325" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G325" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B325,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H325" s="19" t="s">
         <v>5</v>
@@ -23309,9 +23309,9 @@
         <f t="array" aca="1" ref="L325" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H325,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M325" s="14" cm="1">
+      <c r="M325" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M325" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H325,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N325" s="14" t="s">
         <v>48</v>
@@ -23340,9 +23340,9 @@
         <f t="array" aca="1" ref="F326" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B326,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G326" s="16" cm="1">
+      <c r="G326" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G326" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B326,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H326" s="19" t="s">
         <v>34</v>
@@ -23363,9 +23363,9 @@
         <f t="array" aca="1" ref="L326" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H326,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M326" s="14" cm="1">
+      <c r="M326" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M326" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H326,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N326" s="14" t="s">
         <v>49</v>
@@ -23394,9 +23394,9 @@
         <f t="array" aca="1" ref="F327" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B327,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G327" s="16" cm="1">
+      <c r="G327" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G327" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B327,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H327" s="19" t="s">
         <v>35</v>
@@ -23417,9 +23417,9 @@
         <f t="array" aca="1" ref="L327" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H327,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M327" s="14" cm="1">
+      <c r="M327" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M327" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H327,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N327" s="14" t="s">
         <v>49</v>
@@ -23448,9 +23448,9 @@
         <f t="array" aca="1" ref="F328" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B328,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G328" s="16" cm="1">
+      <c r="G328" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G328" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B328,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H328" s="19" t="s">
         <v>25</v>
@@ -23471,9 +23471,9 @@
         <f t="array" aca="1" ref="L328" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H328,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M328" s="14" cm="1">
+      <c r="M328" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M328" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H328,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N328" s="14" t="s">
         <v>49</v>
@@ -23502,9 +23502,9 @@
         <f t="array" aca="1" ref="F329" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B329,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G329" s="16" cm="1">
+      <c r="G329" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G329" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B329,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H329" s="19" t="s">
         <v>26</v>
@@ -23525,9 +23525,9 @@
         <f t="array" aca="1" ref="L329" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H329,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M329" s="14" cm="1">
+      <c r="M329" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M329" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H329,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N329" s="14" t="s">
         <v>49</v>
@@ -23556,9 +23556,9 @@
         <f t="array" aca="1" ref="F330" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B330,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G330" s="16" cm="1">
+      <c r="G330" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G330" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B330,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H330" s="19" t="s">
         <v>8</v>
@@ -23579,9 +23579,9 @@
         <f t="array" aca="1" ref="L330" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H330,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M330" s="14" cm="1">
+      <c r="M330" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M330" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H330,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N330" s="18" t="s">
         <v>46</v>
@@ -23610,9 +23610,9 @@
         <f t="array" aca="1" ref="F331" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B331,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G331" s="16" cm="1">
+      <c r="G331" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G331" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B331,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H331" s="19" t="s">
         <v>9</v>
@@ -23633,9 +23633,9 @@
         <f t="array" aca="1" ref="L331" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H331,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M331" s="14" cm="1">
+      <c r="M331" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M331" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H331,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N331" s="18" t="s">
         <v>46</v>
@@ -23664,9 +23664,9 @@
         <f t="array" aca="1" ref="F332" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B332,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G332" s="16" cm="1">
+      <c r="G332" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G332" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B332,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H332" s="19" t="s">
         <v>10</v>
@@ -23687,9 +23687,9 @@
         <f t="array" aca="1" ref="L332" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H332,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M332" s="14" cm="1">
+      <c r="M332" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M332" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H332,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N332" s="18" t="s">
         <v>46</v>
@@ -23718,9 +23718,9 @@
         <f t="array" aca="1" ref="F333" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B333,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G333" s="16" cm="1">
+      <c r="G333" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G333" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B333,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H333" s="19" t="s">
         <v>11</v>
@@ -23741,9 +23741,9 @@
         <f t="array" aca="1" ref="L333" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H333,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M333" s="14" cm="1">
+      <c r="M333" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M333" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H333,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N333" s="18" t="s">
         <v>46</v>
@@ -23772,9 +23772,9 @@
         <f t="array" aca="1" ref="F334" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B334,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G334" s="16" cm="1">
+      <c r="G334" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G334" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B334,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H334" s="19" t="s">
         <v>12</v>
@@ -23795,9 +23795,9 @@
         <f t="array" aca="1" ref="L334" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H334,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M334" s="14" cm="1">
+      <c r="M334" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M334" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H334,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N334" s="18" t="s">
         <v>46</v>
@@ -23826,9 +23826,9 @@
         <f t="array" aca="1" ref="F335" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B335,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G335" s="16" cm="1">
+      <c r="G335" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G335" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B335,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H335" s="19" t="s">
         <v>13</v>
@@ -23849,9 +23849,9 @@
         <f t="array" aca="1" ref="L335" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H335,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M335" s="14" cm="1">
+      <c r="M335" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M335" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H335,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N335" s="18" t="s">
         <v>46</v>
@@ -23880,9 +23880,9 @@
         <f t="array" aca="1" ref="F336" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B336,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G336" s="16" cm="1">
+      <c r="G336" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G336" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B336,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H336" s="19" t="s">
         <v>54</v>
@@ -23934,9 +23934,9 @@
         <f t="array" aca="1" ref="F337" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B337,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G337" s="16" cm="1">
+      <c r="G337" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G337" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B337,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H337" s="19" t="s">
         <v>55</v>
@@ -23988,9 +23988,9 @@
         <f t="array" aca="1" ref="F338" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B338,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G338" s="16" cm="1">
+      <c r="G338" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G338" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B338,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H338" s="19" t="s">
         <v>4</v>
@@ -24011,9 +24011,9 @@
         <f t="array" aca="1" ref="L338" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H338,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M338" s="14" cm="1">
+      <c r="M338" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M338" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H338,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N338" s="14" t="s">
         <v>48</v>
@@ -24042,9 +24042,9 @@
         <f t="array" aca="1" ref="F339" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B339,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G339" s="16" cm="1">
+      <c r="G339" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G339" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B339,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H339" s="19" t="s">
         <v>5</v>
@@ -24065,9 +24065,9 @@
         <f t="array" aca="1" ref="L339" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H339,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M339" s="14" cm="1">
+      <c r="M339" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M339" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H339,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N339" s="14" t="s">
         <v>48</v>
@@ -24096,9 +24096,9 @@
         <f t="array" aca="1" ref="F340" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B340,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G340" s="16" cm="1">
+      <c r="G340" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G340" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B340,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H340" s="19" t="s">
         <v>34</v>
@@ -24119,9 +24119,9 @@
         <f t="array" aca="1" ref="L340" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H340,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M340" s="14" cm="1">
+      <c r="M340" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M340" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H340,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N340" s="14" t="s">
         <v>49</v>
@@ -24150,9 +24150,9 @@
         <f t="array" aca="1" ref="F341" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B341,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G341" s="16" cm="1">
+      <c r="G341" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G341" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B341,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H341" s="19" t="s">
         <v>35</v>
@@ -24173,9 +24173,9 @@
         <f t="array" aca="1" ref="L341" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H341,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M341" s="14" cm="1">
+      <c r="M341" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M341" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H341,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N341" s="14" t="s">
         <v>49</v>
@@ -24204,9 +24204,9 @@
         <f t="array" aca="1" ref="F342" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B342,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G342" s="16" cm="1">
+      <c r="G342" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G342" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B342,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H342" s="19" t="s">
         <v>25</v>
@@ -24227,9 +24227,9 @@
         <f t="array" aca="1" ref="L342" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H342,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M342" s="14" cm="1">
+      <c r="M342" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M342" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H342,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N342" s="14" t="s">
         <v>49</v>
@@ -24258,9 +24258,9 @@
         <f t="array" aca="1" ref="F343" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B343,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G343" s="16" cm="1">
+      <c r="G343" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G343" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B343,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H343" s="19" t="s">
         <v>26</v>
@@ -24281,9 +24281,9 @@
         <f t="array" aca="1" ref="L343" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H343,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M343" s="14" cm="1">
+      <c r="M343" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M343" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H343,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N343" s="14" t="s">
         <v>49</v>
@@ -24312,9 +24312,9 @@
         <f t="array" aca="1" ref="F344" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B344,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G344" s="16" cm="1">
+      <c r="G344" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G344" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B344,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H344" s="19" t="s">
         <v>8</v>
@@ -24335,9 +24335,9 @@
         <f t="array" aca="1" ref="L344" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H344,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M344" s="14" cm="1">
+      <c r="M344" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M344" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H344,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N344" s="18" t="s">
         <v>46</v>
@@ -24366,9 +24366,9 @@
         <f t="array" aca="1" ref="F345" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B345,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G345" s="16" cm="1">
+      <c r="G345" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G345" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B345,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H345" s="19" t="s">
         <v>9</v>
@@ -24389,9 +24389,9 @@
         <f t="array" aca="1" ref="L345" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H345,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M345" s="14" cm="1">
+      <c r="M345" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M345" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H345,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N345" s="18" t="s">
         <v>46</v>
@@ -24420,9 +24420,9 @@
         <f t="array" aca="1" ref="F346" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B346,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G346" s="16" cm="1">
+      <c r="G346" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G346" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B346,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H346" s="19" t="s">
         <v>10</v>
@@ -24443,9 +24443,9 @@
         <f t="array" aca="1" ref="L346" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H346,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M346" s="14" cm="1">
+      <c r="M346" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M346" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H346,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N346" s="18" t="s">
         <v>46</v>
@@ -24474,9 +24474,9 @@
         <f t="array" aca="1" ref="F347" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B347,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G347" s="16" cm="1">
+      <c r="G347" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G347" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B347,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H347" s="19" t="s">
         <v>11</v>
@@ -24497,9 +24497,9 @@
         <f t="array" aca="1" ref="L347" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H347,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M347" s="14" cm="1">
+      <c r="M347" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M347" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H347,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N347" s="18" t="s">
         <v>46</v>
@@ -24528,9 +24528,9 @@
         <f t="array" aca="1" ref="F348" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B348,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G348" s="16" cm="1">
+      <c r="G348" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G348" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B348,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H348" s="19" t="s">
         <v>12</v>
@@ -24551,9 +24551,9 @@
         <f t="array" aca="1" ref="L348" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H348,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M348" s="14" cm="1">
+      <c r="M348" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M348" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H348,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N348" s="18" t="s">
         <v>46</v>
@@ -24582,9 +24582,9 @@
         <f t="array" aca="1" ref="F349" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B349,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G349" s="16" cm="1">
+      <c r="G349" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G349" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B349,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H349" s="19" t="s">
         <v>13</v>
@@ -24605,9 +24605,9 @@
         <f t="array" aca="1" ref="L349" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H349,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M349" s="14" cm="1">
+      <c r="M349" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M349" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H349,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N349" s="18" t="s">
         <v>46</v>
@@ -24636,9 +24636,9 @@
         <f t="array" aca="1" ref="F350" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B350,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G350" s="16" cm="1">
+      <c r="G350" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G350" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B350,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H350" s="19" t="s">
         <v>54</v>
@@ -24690,9 +24690,9 @@
         <f t="array" aca="1" ref="F351" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B351,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G351" s="16" cm="1">
+      <c r="G351" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G351" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B351,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H351" s="19" t="s">
         <v>55</v>
@@ -24744,9 +24744,9 @@
         <f t="array" aca="1" ref="F352" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B352,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G352" s="16" cm="1">
+      <c r="G352" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G352" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B352,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H352" s="19" t="s">
         <v>4</v>
@@ -24767,9 +24767,9 @@
         <f t="array" aca="1" ref="L352" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H352,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M352" s="14" cm="1">
+      <c r="M352" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M352" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H352,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N352" s="14" t="s">
         <v>48</v>
@@ -24798,9 +24798,9 @@
         <f t="array" aca="1" ref="F353" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B353,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G353" s="16" cm="1">
+      <c r="G353" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G353" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B353,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H353" s="19" t="s">
         <v>5</v>
@@ -24821,9 +24821,9 @@
         <f t="array" aca="1" ref="L353" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H353,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M353" s="14" cm="1">
+      <c r="M353" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M353" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H353,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N353" s="14" t="s">
         <v>48</v>
@@ -24852,9 +24852,9 @@
         <f t="array" aca="1" ref="F354" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B354,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G354" s="16" cm="1">
+      <c r="G354" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G354" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B354,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H354" s="19" t="s">
         <v>34</v>
@@ -24875,9 +24875,9 @@
         <f t="array" aca="1" ref="L354" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H354,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M354" s="14" cm="1">
+      <c r="M354" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M354" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H354,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N354" s="14" t="s">
         <v>49</v>
@@ -24906,9 +24906,9 @@
         <f t="array" aca="1" ref="F355" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B355,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G355" s="16" cm="1">
+      <c r="G355" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G355" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B355,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H355" s="19" t="s">
         <v>35</v>
@@ -24929,9 +24929,9 @@
         <f t="array" aca="1" ref="L355" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H355,[1]欄位定義!$A:$A, 0))</f>
         <v>TW</v>
       </c>
-      <c r="M355" s="14" cm="1">
+      <c r="M355" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M355" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H355,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N355" s="14" t="s">
         <v>49</v>
@@ -24960,9 +24960,9 @@
         <f t="array" aca="1" ref="F356" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B356,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G356" s="16" cm="1">
+      <c r="G356" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G356" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B356,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H356" s="19" t="s">
         <v>25</v>
@@ -24983,9 +24983,9 @@
         <f t="array" aca="1" ref="L356" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H356,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M356" s="14" cm="1">
+      <c r="M356" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M356" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H356,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N356" s="14" t="s">
         <v>49</v>
@@ -25014,9 +25014,9 @@
         <f t="array" aca="1" ref="F357" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B357,[1]欄位定義!$A:$A, 0))</f>
         <v>TW_TECH</v>
       </c>
-      <c r="G357" s="16" cm="1">
+      <c r="G357" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G357" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B357,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H357" s="19" t="s">
         <v>26</v>
@@ -25037,9 +25037,9 @@
         <f t="array" aca="1" ref="L357" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H357,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M357" s="14" cm="1">
+      <c r="M357" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M357" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H357,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N357" s="14" t="s">
         <v>49</v>
@@ -25068,9 +25068,9 @@
         <f t="array" aca="1" ref="F358" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B358,[1]欄位定義!$A:$A, 0))</f>
         <v>GOLD</v>
       </c>
-      <c r="G358" s="16" cm="1">
+      <c r="G358" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G358" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B358,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H358" s="19" t="s">
         <v>17</v>
@@ -25091,9 +25091,9 @@
         <f t="array" aca="1" ref="L358" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H358,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M358" s="14" cm="1">
+      <c r="M358" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M358" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H358,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N358" s="14" t="s">
         <v>47</v>
@@ -25122,9 +25122,9 @@
         <f t="array" aca="1" ref="F359" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B359,[1]欄位定義!$A:$A, 0))</f>
         <v>GOLD</v>
       </c>
-      <c r="G359" s="16" cm="1">
+      <c r="G359" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G359" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B359,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H359" s="19" t="s">
         <v>18</v>
@@ -25145,9 +25145,9 @@
         <f t="array" aca="1" ref="L359" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H359,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M359" s="14" cm="1">
+      <c r="M359" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M359" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H359,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N359" s="14" t="s">
         <v>47</v>
@@ -25176,9 +25176,9 @@
         <f t="array" aca="1" ref="F360" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B360,[1]欄位定義!$A:$A, 0))</f>
         <v>GOLD</v>
       </c>
-      <c r="G360" s="16" cm="1">
+      <c r="G360" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G360" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B360,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H360" s="19" t="s">
         <v>19</v>
@@ -25199,9 +25199,9 @@
         <f t="array" aca="1" ref="L360" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H360,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M360" s="14" cm="1">
+      <c r="M360" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M360" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H360,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N360" s="14" t="s">
         <v>47</v>
@@ -25230,9 +25230,9 @@
         <f t="array" aca="1" ref="F361" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B361,[1]欄位定義!$A:$A, 0))</f>
         <v>GOLD</v>
       </c>
-      <c r="G361" s="16" cm="1">
+      <c r="G361" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G361" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B361,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H361" s="19" t="s">
         <v>23</v>
@@ -25253,9 +25253,9 @@
         <f t="array" aca="1" ref="L361" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H361,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M361" s="14" cm="1">
+      <c r="M361" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M361" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H361,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N361" s="14" t="s">
         <v>47</v>
@@ -25284,9 +25284,9 @@
         <f t="array" aca="1" ref="F362" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B362,[1]欄位定義!$A:$A, 0))</f>
         <v>GOLD</v>
       </c>
-      <c r="G362" s="16" cm="1">
+      <c r="G362" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G362" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B362,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H362" s="19" t="s">
         <v>24</v>
@@ -25307,9 +25307,9 @@
         <f t="array" aca="1" ref="L362" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H362,[1]欄位定義!$A:$A, 0))</f>
         <v>US</v>
       </c>
-      <c r="M362" s="14" cm="1">
+      <c r="M362" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M362" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H362,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N362" s="14" t="s">
         <v>47</v>
@@ -25338,9 +25338,9 @@
         <f t="array" aca="1" ref="F363" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B363,[1]欄位定義!$A:$A, 0))</f>
         <v>GOLD</v>
       </c>
-      <c r="G363" s="16" cm="1">
+      <c r="G363" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G363" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B363,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H363" s="19" t="s">
         <v>29</v>
@@ -25361,9 +25361,9 @@
         <f t="array" aca="1" ref="L363" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H363,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M363" s="14" cm="1">
+      <c r="M363" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M363" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H363,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N363" s="14" t="s">
         <v>47</v>
@@ -25392,9 +25392,9 @@
         <f t="array" aca="1" ref="F364" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($B364,[1]欄位定義!$A:$A, 0))</f>
         <v>GOLD</v>
       </c>
-      <c r="G364" s="16" cm="1">
+      <c r="G364" s="16" t="str" cm="1">
         <f t="array" aca="1" ref="G364" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($B364,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="H364" s="19" t="s">
         <v>30</v>
@@ -25415,9 +25415,9 @@
         <f t="array" aca="1" ref="L364" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H364,[1]欄位定義!$A:$A, 0))</f>
         <v>CN</v>
       </c>
-      <c r="M364" s="14" cm="1">
+      <c r="M364" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M364" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H364,[1]欄位定義!$A:$A, 0))</f>
-        <v>0</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N364" s="14" t="s">
         <v>47</v>

--- a/_docs/target_feature_map.xlsx
+++ b/_docs/target_feature_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3325C1FC-2E75-46A5-B347-88DCCE9087F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088B62BC-42CC-46CF-8717-DC019A91EDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="600" windowWidth="28710" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="標的列表" sheetId="8" r:id="rId1"/>
@@ -3631,16 +3631,26 @@
         </row>
         <row r="568">
           <cell r="A568" t="str">
-            <v>XBT CURNCY</v>
+            <v>EHGDTW Index</v>
           </cell>
         </row>
         <row r="569">
           <cell r="A569" t="str">
-            <v>XU100 INDEX</v>
+            <v>TWGDCURY index</v>
           </cell>
         </row>
         <row r="570">
           <cell r="A570" t="str">
+            <v>XBT CURNCY</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="A571" t="str">
+            <v>XU100 INDEX</v>
+          </cell>
+        </row>
+        <row r="572">
+          <cell r="A572" t="str">
             <v>ZAR CURNCY</v>
           </cell>
         </row>
@@ -4067,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8458-97EF-4570-9CDC-4A81306BD367}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5526,13 +5536,13 @@
       <c r="A91" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="14" t="e" cm="1">
+      <c r="B91" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="B91" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($A91,[1]欄位定義!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C91" s="14" t="e" cm="1">
+        <v>實質GDP</v>
+      </c>
+      <c r="C91" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C91" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A91,[1]欄位定義!A:A,0))</f>
-        <v>#N/A</v>
+        <v>TW</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>48</v>
@@ -5542,13 +5552,13 @@
       <c r="A92" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="14" t="e" cm="1">
+      <c r="B92" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="B92" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($A92,[1]欄位定義!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C92" s="14" t="e" cm="1">
+        <v>名目GDP 年增減</v>
+      </c>
+      <c r="C92" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="C92" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($A92,[1]欄位定義!A:A,0))</f>
-        <v>#N/A</v>
+        <v>TW</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>48</v>
@@ -5756,8 +5766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A20B21-7A58-476E-A2E1-1A7FB48D904A}">
   <dimension ref="A1:N364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C364"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I325" sqref="I325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20161,25 +20171,25 @@
       <c r="H267" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I267" s="14" t="e" cm="1">
+      <c r="I267" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I267" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H267,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J267" s="14" t="e" cm="1">
+        <v>實質GDP</v>
+      </c>
+      <c r="J267" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J267" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H267,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K267" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K267" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K267" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H267,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L267" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L267" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L267" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H267,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M267" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M267" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M267" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H267,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N267" s="14" t="s">
         <v>48</v>
@@ -20215,25 +20225,25 @@
       <c r="H268" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I268" s="14" t="e" cm="1">
+      <c r="I268" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I268" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H268,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J268" s="14" t="e" cm="1">
+        <v>名目GDP 年增減</v>
+      </c>
+      <c r="J268" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J268" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H268,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K268" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K268" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K268" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H268,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L268" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L268" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L268" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H268,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M268" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M268" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M268" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H268,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N268" s="14" t="s">
         <v>48</v>
@@ -21133,25 +21143,25 @@
       <c r="H285" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I285" s="14" t="e" cm="1">
+      <c r="I285" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I285" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H285,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J285" s="14" t="e" cm="1">
+        <v>實質GDP</v>
+      </c>
+      <c r="J285" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J285" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H285,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K285" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K285" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K285" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H285,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L285" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L285" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L285" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H285,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M285" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M285" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M285" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H285,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N285" s="14" t="s">
         <v>48</v>
@@ -21187,25 +21197,25 @@
       <c r="H286" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I286" s="14" t="e" cm="1">
+      <c r="I286" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I286" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H286,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J286" s="14" t="e" cm="1">
+        <v>名目GDP 年增減</v>
+      </c>
+      <c r="J286" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J286" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H286,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K286" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K286" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K286" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H286,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L286" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L286" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L286" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H286,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M286" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M286" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M286" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H286,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N286" s="14" t="s">
         <v>48</v>
@@ -22375,25 +22385,25 @@
       <c r="H308" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I308" s="14" t="e" cm="1">
+      <c r="I308" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I308" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H308,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J308" s="14" t="e" cm="1">
+        <v>實質GDP</v>
+      </c>
+      <c r="J308" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J308" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H308,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K308" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K308" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K308" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H308,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L308" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L308" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L308" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H308,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M308" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M308" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M308" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H308,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N308" s="14" t="s">
         <v>48</v>
@@ -22429,25 +22439,25 @@
       <c r="H309" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I309" s="14" t="e" cm="1">
+      <c r="I309" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I309" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H309,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J309" s="14" t="e" cm="1">
+        <v>名目GDP 年增減</v>
+      </c>
+      <c r="J309" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J309" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H309,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K309" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K309" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K309" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H309,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L309" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L309" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L309" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H309,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M309" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M309" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M309" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H309,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N309" s="14" t="s">
         <v>48</v>
@@ -23131,25 +23141,25 @@
       <c r="H322" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I322" s="14" t="e" cm="1">
+      <c r="I322" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I322" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H322,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J322" s="14" t="e" cm="1">
+        <v>實質GDP</v>
+      </c>
+      <c r="J322" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J322" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H322,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K322" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K322" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K322" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H322,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L322" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L322" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L322" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H322,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M322" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M322" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M322" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H322,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N322" s="14" t="s">
         <v>48</v>
@@ -23185,25 +23195,25 @@
       <c r="H323" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I323" s="14" t="e" cm="1">
+      <c r="I323" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I323" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H323,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J323" s="14" t="e" cm="1">
+        <v>名目GDP 年增減</v>
+      </c>
+      <c r="J323" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J323" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H323,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K323" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K323" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K323" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H323,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L323" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L323" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L323" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H323,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M323" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M323" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M323" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H323,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N323" s="14" t="s">
         <v>48</v>
@@ -23887,25 +23897,25 @@
       <c r="H336" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I336" s="14" t="e" cm="1">
+      <c r="I336" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I336" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H336,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J336" s="14" t="e" cm="1">
+        <v>實質GDP</v>
+      </c>
+      <c r="J336" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J336" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H336,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K336" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K336" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K336" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H336,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L336" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L336" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L336" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H336,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M336" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M336" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M336" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H336,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N336" s="14" t="s">
         <v>48</v>
@@ -23941,25 +23951,25 @@
       <c r="H337" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I337" s="14" t="e" cm="1">
+      <c r="I337" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I337" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H337,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J337" s="14" t="e" cm="1">
+        <v>名目GDP 年增減</v>
+      </c>
+      <c r="J337" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J337" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H337,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K337" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K337" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K337" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H337,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L337" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L337" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L337" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H337,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M337" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M337" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M337" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H337,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N337" s="14" t="s">
         <v>48</v>
@@ -24643,25 +24653,25 @@
       <c r="H350" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I350" s="14" t="e" cm="1">
+      <c r="I350" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I350" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H350,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J350" s="14" t="e" cm="1">
+        <v>實質GDP</v>
+      </c>
+      <c r="J350" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J350" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H350,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K350" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K350" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K350" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H350,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L350" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L350" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L350" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H350,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M350" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M350" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M350" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H350,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N350" s="14" t="s">
         <v>48</v>
@@ -24697,25 +24707,25 @@
       <c r="H351" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I351" s="14" t="e" cm="1">
+      <c r="I351" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="I351" ca="1">INDIRECT("[schema.xlsx]欄位定義!B"&amp;MATCH($H351,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J351" s="14" t="e" cm="1">
+        <v>名目GDP 年增減</v>
+      </c>
+      <c r="J351" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="J351" ca="1">INDIRECT("[schema.xlsx]欄位定義!C"&amp;MATCH($H351,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K351" s="14" t="e" cm="1">
+        <v>Q</v>
+      </c>
+      <c r="K351" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="K351" ca="1">INDIRECT("[schema.xlsx]欄位定義!D"&amp;MATCH($H351,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L351" s="14" t="e" cm="1">
+        <v>MACRO</v>
+      </c>
+      <c r="L351" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="L351" ca="1">INDIRECT("[schema.xlsx]欄位定義!E"&amp;MATCH($H351,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M351" s="14" t="e" cm="1">
+        <v>TW</v>
+      </c>
+      <c r="M351" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="M351" ca="1">INDIRECT("[schema.xlsx]欄位定義!F"&amp;MATCH($H351,[1]欄位定義!$A:$A, 0))</f>
-        <v>#N/A</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="N351" s="14" t="s">
         <v>48</v>
